--- a/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
@@ -19,34 +19,35 @@
     <sheet name="Info" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -61,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -317,7 +319,7 @@
     <t xml:space="preserve">Store Id,Visit Date,Store Name,Channel,Store Type,Segment,SD,Sales Manager,Sale office,Route Manager,Presell,AD,Hybrid,VRP</t>
   </si>
   <si>
-    <t xml:space="preserve">CC 10/15Oz,CC 15 Oz,Spite+Fanta 10/15 Oz,CC 450 ml,CC 590ml,CC 1.25L,CC 1/1.25L,Splash All,Splash/Pulpy All,Vitakid,Pulpy All,Aquarius,NT 550 ml</t>
+    <t xml:space="preserve">CC 10/15Oz,CC 15 Oz,Spite+Fanta 10/15 Oz,Coke No sugar 240/325 ml,Coke No sugar 330/450 ml,CC 450 ml,CC 590ml,CC 1.25L,CC 1/1.25L,Splash All,Splash/Pulpy All,Pulpy All,NT 550 ml</t>
   </si>
   <si>
     <t xml:space="preserve">Other Coolers</t>
@@ -3042,29 +3044,29 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.1619433198381"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -38464,7 +38466,7 @@
       <c r="AME46" s="0"/>
       <c r="AMF46" s="0"/>
     </row>
-    <row r="47" s="95" customFormat="true" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="95" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="98"/>
       <c r="B47" s="98"/>
       <c r="C47" s="98"/>
@@ -38865,7 +38867,7 @@
       <c r="AMJ53" s="103"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:P45"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -38891,11 +38893,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.3076923076923"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -39383,22 +39385,22 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -40501,7 +40503,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -40889,12 +40891,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.1902834008097"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -41047,12 +41049,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="214" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="214" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="214" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="214" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="214" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="214" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="215" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="214" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="214" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="214" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="214" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="214" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="214" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
@@ -43758,7 +43760,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -43979,7 +43981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -44284,12 +44286,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="261" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="261" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="261" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="261" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="261" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="261" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="261" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="261" width="104.441295546559"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="261" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="261" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="261" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="261" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,35 +19,38 @@
     <sheet name="Info" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -63,6 +66,9 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="364">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -557,13 +563,10 @@
     <t xml:space="preserve">มีสแปลชทุกชนิด  6  ขวด?</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitakid</t>
+    <t xml:space="preserve">มีสินค้า Coke No Sugar 240/325ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t xml:space="preserve">1. มี ไวตาคิดส์ 12 กล่อง?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. มี ไวตาคิดส์ 6 กล่อง?</t>
+    <t xml:space="preserve">มี,ไม่มี</t>
   </si>
   <si>
     <t xml:space="preserve">มีสแปลช และ มินิเมทพัลพี รวม 12 ขวด?</t>
@@ -581,10 +584,7 @@
     <t xml:space="preserve">1. มีมินิเมทพัลพี 290 มล. หรือ 300 มล. รวม 6 ขวด?</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. มี อควาเรียส 340มล. 6 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Coke No Sugar 330/450ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
     <t xml:space="preserve">1. มีน้ำทิพย์ 550 มล. 12 ขวด?</t>
@@ -1262,7 +1262,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1366,6 +1366,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1396,7 +1402,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1459,12 +1465,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
         <bgColor rgb="FFEDEDED"/>
       </patternFill>
@@ -1478,7 +1478,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1668,13 +1668,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1684,6 +1677,13 @@
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1772,7 +1772,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="289">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2413,7 +2413,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2421,11 +2445,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2457,11 +2485,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2481,68 +2509,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2553,7 +2529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2665,7 +2641,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2677,7 +2653,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2701,19 +2677,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2729,7 +2705,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2745,7 +2721,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2753,7 +2729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2761,7 +2737,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2777,7 +2753,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2837,7 +2813,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2881,15 +2857,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2897,23 +2873,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2921,7 +2897,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2937,7 +2913,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2949,7 +2925,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3015,7 +2991,7 @@
       <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
@@ -3044,29 +3020,29 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -38867,7 +38843,7 @@
       <c r="AMJ53" s="103"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P45"/>
+  <autoFilter ref="A1:P1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -38886,18 +38862,18 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -39376,31 +39352,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B1:Q65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -40012,65 +39988,65 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="160" t="s">
+    <row r="16" s="160" customFormat="true" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="161" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="D16" s="163" t="n">
+        <v>585</v>
+      </c>
+      <c r="E16" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="154" t="n">
-        <v>503</v>
-      </c>
-      <c r="E16" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="157" t="s">
+      <c r="G16" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="157" t="s">
+      <c r="J16" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="159" t="s">
+      <c r="M16" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="161" t="s">
+      <c r="P16" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="P16" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" s="163" t="s">
-        <v>129</v>
+      <c r="Q16" s="168" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="160" t="s">
-        <v>139</v>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="152" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="153" t="s">
         <v>141</v>
       </c>
       <c r="D17" s="154" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E17" s="155" t="s">
         <v>128</v>
@@ -40079,40 +40055,40 @@
         <v>129</v>
       </c>
       <c r="G17" s="157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="157" t="s">
         <v>129</v>
       </c>
       <c r="I17" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="161" t="s">
+      <c r="Q17" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="163" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="152" t="s">
         <v>34</v>
       </c>
@@ -40120,7 +40096,7 @@
         <v>142</v>
       </c>
       <c r="D18" s="154" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E18" s="155" t="s">
         <v>128</v>
@@ -40134,13 +40110,13 @@
       <c r="H18" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="159" t="s">
+      <c r="I18" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="159" t="s">
+      <c r="J18" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="159" t="s">
+      <c r="K18" s="157" t="s">
         <v>129</v>
       </c>
       <c r="L18" s="157" t="s">
@@ -40156,39 +40132,39 @@
         <v>129</v>
       </c>
       <c r="P18" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="158" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="153" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="154" t="n">
-        <v>506</v>
+        <v>290</v>
       </c>
       <c r="E19" s="155" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F19" s="156" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="157" t="s">
         <v>129</v>
       </c>
       <c r="H19" s="157" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19" s="157" t="s">
         <v>129</v>
       </c>
       <c r="J19" s="157" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" s="157" t="s">
         <v>129</v>
@@ -40209,39 +40185,39 @@
         <v>129</v>
       </c>
       <c r="Q19" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="152" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="153" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" s="154" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E20" s="155" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F20" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="157" t="s">
+      <c r="H20" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="157" t="s">
+      <c r="I20" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="157" t="s">
+      <c r="J20" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="157" t="s">
+      <c r="K20" s="157" t="s">
         <v>130</v>
-      </c>
-      <c r="K20" s="157" t="s">
-        <v>129</v>
       </c>
       <c r="L20" s="157" t="s">
         <v>129</v>
@@ -40262,65 +40238,65 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="153" t="s">
+    <row r="21" s="160" customFormat="true" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="154" t="n">
-        <v>291</v>
-      </c>
-      <c r="E21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="156" t="s">
+      <c r="D21" s="163" t="n">
+        <v>586</v>
+      </c>
+      <c r="E21" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="157" t="s">
+      <c r="N21" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="157" t="s">
+      <c r="O21" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="157" t="s">
+      <c r="P21" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="N21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="O21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="P21" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q21" s="158" t="s">
-        <v>129</v>
+      <c r="Q21" s="170" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="153" t="s">
-        <v>148</v>
-      </c>
       <c r="D22" s="154" t="n">
-        <v>164</v>
+        <v>507</v>
       </c>
       <c r="E22" s="155" t="s">
         <v>128</v>
@@ -40329,139 +40305,90 @@
         <v>130</v>
       </c>
       <c r="G22" s="157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="157" t="s">
         <v>130</v>
       </c>
       <c r="I22" s="157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J22" s="157" t="s">
         <v>130</v>
       </c>
       <c r="K22" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="157" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="157" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="157" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="157" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O22" s="157" t="s">
         <v>129</v>
       </c>
       <c r="P22" s="157" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="158" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="154" t="n">
-        <v>507</v>
-      </c>
-      <c r="E23" s="155" t="s">
+      <c r="C23" s="172" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="173" t="n">
+        <v>508</v>
+      </c>
+      <c r="E23" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="156" t="s">
+      <c r="F23" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="157" t="s">
+      <c r="H23" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="157" t="s">
+      <c r="I23" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="157" t="s">
+      <c r="J23" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="157" t="s">
+      <c r="K23" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="157" t="s">
+      <c r="L23" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="M23" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="157" t="s">
+      <c r="N23" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="N23" s="157" t="s">
+      <c r="O23" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="O23" s="157" t="s">
+      <c r="P23" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="P23" s="157" t="s">
+      <c r="Q23" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="Q23" s="158" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="165" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="166" t="n">
-        <v>508</v>
-      </c>
-      <c r="E24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="168" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="O24" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="P24" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q24" s="170" t="s">
-        <v>130</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:E5"/>
@@ -40497,13 +40424,13 @@
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -40512,9 +40439,9 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="171"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="106"/>
       <c r="E3" s="106"/>
@@ -40523,336 +40450,336 @@
       <c r="H3" s="106"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="171"/>
-      <c r="C4" s="172" t="s">
+      <c r="B4" s="178"/>
+      <c r="C4" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="174" t="s">
+      <c r="D5" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="174" t="s">
+      <c r="F5" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="174" t="s">
+      <c r="G5" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="175" t="s">
+      <c r="H5" s="182" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="176" t="s">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="179" t="n">
+      <c r="F6" s="117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="118" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="123" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="179" t="n">
+      <c r="G9" s="123" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="180" t="s">
+      <c r="H9" s="124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="182" t="n">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="183" t="s">
+      <c r="D11" s="123" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="184" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="183" t="s">
+      <c r="G11" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="H11" s="124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="123" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="123" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="185" t="n">
+      <c r="G12" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="123" t="n">
         <v>3</v>
       </c>
+      <c r="E13" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="181" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="186" t="s">
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="183" t="s">
+      <c r="E14" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="183" t="s">
+      <c r="F14" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="184" t="n">
+      <c r="G14" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="184" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="122" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="123" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="184" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="187" t="s">
+      <c r="G15" s="123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="181" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="182" t="n">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="184" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="184" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="183" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="122" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="123" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="183" t="s">
+      <c r="G17" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="185" t="n">
-        <v>1</v>
+      <c r="H17" s="124" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="181" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="182" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="184" t="n">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="135" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="136" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="184" t="n">
+      <c r="G18" s="136" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="185" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="184" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="185" t="n">
+      <c r="H18" s="137" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="181" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="182" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="184" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="184" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="184" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="184" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="182" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="184" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" s="123" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="181" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="186" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="185" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="181" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" s="184" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="184" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="181" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="182" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="184" t="n">
-        <v>6</v>
-      </c>
-      <c r="E17" s="184" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="189" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="190" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" s="191" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" s="191" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" s="191" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" s="191" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="192" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -40891,138 +40818,138 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="187" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="187" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="D1" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="193" t="s">
+      <c r="E1" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="194" t="s">
+      <c r="F1" s="189" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="193" t="s">
+      <c r="H1" s="191" t="s">
         <v>156</v>
-      </c>
-      <c r="F1" s="195" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="196" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="197" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="E2" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="199" t="s">
+      <c r="F2" s="195" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="196" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" s="197" t="s">
         <v>161</v>
-      </c>
-      <c r="E2" s="198" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="201" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="202" t="n">
-        <v>8</v>
-      </c>
-      <c r="H2" s="203" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="205" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="206" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="199" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="204" t="s">
+      <c r="B3" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="C3" s="200" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="193" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="207" t="n">
+      <c r="G3" s="201" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="203"/>
+      <c r="H3" s="197"/>
     </row>
     <row r="4" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="193" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="203" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="209" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="199" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="209" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="210" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="207" t="n">
+      <c r="G4" s="201" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="203"/>
+      <c r="H4" s="197"/>
     </row>
     <row r="5" customFormat="false" ht="113.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="206" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="193" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="200" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="212" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="199" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="206" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="210" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="213" t="n">
+      <c r="G5" s="207" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="203"/>
+      <c r="H5" s="197"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -41042,2696 +40969,2696 @@
   </sheetPr>
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="214" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="214" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="214" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="214" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="215" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="214" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="214" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="214" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="214" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="208" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="208" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="208" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="208" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="209" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="208" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="208" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="208" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="208" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="217" t="s">
+      <c r="B1" s="211" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="211" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="211" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="211" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="217" t="s">
+      <c r="F1" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="211" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="217" t="s">
+      <c r="H1" s="211" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="218" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="217" t="s">
+      <c r="I1" s="213" t="s">
         <v>172</v>
-      </c>
-      <c r="H1" s="217" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="219" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="222" t="s">
+      <c r="C2" s="216" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="217" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222" t="s">
+      <c r="H2" s="216" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="223" t="n">
-        <v>16</v>
-      </c>
-      <c r="G2" s="222" t="s">
+      <c r="I2" s="218" t="s">
         <v>177</v>
-      </c>
-      <c r="H2" s="222" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="224" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="225" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225" t="s">
+      <c r="C3" s="219" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="220" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" s="216" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="226" t="n">
-        <v>23</v>
-      </c>
-      <c r="G3" s="222" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="227" t="s">
-        <v>179</v>
+      <c r="I3" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="225" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225" t="s">
+      <c r="C4" s="219" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="220" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" s="216" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="226" t="n">
-        <v>29</v>
-      </c>
-      <c r="G4" s="222" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="227" t="s">
-        <v>179</v>
+      <c r="I4" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225" t="s">
+      <c r="C5" s="219" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="220" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="226" t="n">
-        <v>35</v>
-      </c>
-      <c r="G5" s="222" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="227" t="s">
-        <v>179</v>
+      <c r="I5" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="225" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225" t="s">
+      <c r="C6" s="219" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="220" t="n">
+        <v>41</v>
+      </c>
+      <c r="G6" s="216" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="226" t="n">
-        <v>41</v>
-      </c>
-      <c r="G6" s="222" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="227" t="s">
-        <v>179</v>
+      <c r="I6" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="228" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="228" t="s">
+      <c r="C7" s="222" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="219" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="220" t="n">
+        <v>428</v>
+      </c>
+      <c r="G7" s="219" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="225" t="s">
+      <c r="H7" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="226" t="n">
-        <v>428</v>
-      </c>
-      <c r="G7" s="225" t="s">
+      <c r="I7" s="221" t="s">
         <v>190</v>
-      </c>
-      <c r="H7" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="227" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="228" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="228" t="s">
+      <c r="C8" s="222" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="220" t="n">
+        <v>429</v>
+      </c>
+      <c r="G8" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="225" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="226" t="n">
-        <v>429</v>
-      </c>
-      <c r="G8" s="225" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="227" t="s">
-        <v>192</v>
+      <c r="H8" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="228" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="225" t="s">
+      <c r="C9" s="222" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="219" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="220" t="n">
+        <v>430</v>
+      </c>
+      <c r="G9" s="219" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="226" t="n">
-        <v>430</v>
-      </c>
-      <c r="G9" s="225" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="227" t="s">
-        <v>192</v>
+      <c r="I9" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="228" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="225" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="226" t="n">
+      <c r="C10" s="222" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="220" t="n">
         <v>485</v>
       </c>
-      <c r="G10" s="225" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I10" s="227" t="s">
-        <v>192</v>
+      <c r="G10" s="219" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="228" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="225" t="s">
+      <c r="C11" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="219" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="220" t="n">
+        <v>432</v>
+      </c>
+      <c r="G11" s="219" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="226" t="n">
-        <v>432</v>
-      </c>
-      <c r="G11" s="225" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="227" t="s">
-        <v>192</v>
+      <c r="I11" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="228" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="225" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="226" t="n">
+      <c r="C12" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="220" t="n">
         <v>433</v>
       </c>
-      <c r="G12" s="225" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I12" s="227" t="s">
-        <v>192</v>
+      <c r="G12" s="219" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="220" t="s">
+      <c r="B13" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="228" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="225" t="s">
+      <c r="C13" s="222" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="219" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="220" t="n">
+        <v>434</v>
+      </c>
+      <c r="G13" s="219" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="226" t="n">
-        <v>434</v>
-      </c>
-      <c r="G13" s="225" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="227" t="s">
-        <v>192</v>
+      <c r="I13" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="228" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="225" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="226" t="n">
+      <c r="C14" s="222" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="220" t="n">
         <v>435</v>
       </c>
-      <c r="G14" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I14" s="227" t="s">
-        <v>192</v>
+      <c r="G14" s="219" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="228" t="s">
+      <c r="C15" s="222" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="225" t="s">
+      <c r="E15" s="219" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="220" t="n">
+        <v>436</v>
+      </c>
+      <c r="G15" s="219" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="226" t="n">
-        <v>436</v>
-      </c>
-      <c r="G15" s="225" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="227" t="s">
-        <v>192</v>
+      <c r="I15" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="228" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="225" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="226" t="n">
+      <c r="C16" s="222" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="220" t="n">
         <v>437</v>
       </c>
-      <c r="G16" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="227" t="s">
-        <v>192</v>
+      <c r="G16" s="219" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="229" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="230" t="n">
+      <c r="C17" s="223" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="224" t="n">
         <v>491</v>
       </c>
-      <c r="G17" s="229" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="231" t="s">
-        <v>179</v>
+      <c r="G17" s="223" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="229" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="229"/>
-      <c r="E18" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="230" t="n">
+      <c r="C18" s="223" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="224" t="n">
         <v>492</v>
       </c>
-      <c r="G18" s="229" t="s">
-        <v>207</v>
-      </c>
-      <c r="H18" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" s="231" t="s">
-        <v>179</v>
+      <c r="G18" s="223" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="229" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="229"/>
-      <c r="E19" s="229" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="230" t="n">
+      <c r="C19" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="224" t="n">
         <v>493</v>
       </c>
-      <c r="G19" s="229" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="231" t="s">
-        <v>179</v>
+      <c r="G19" s="223" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="229" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="229"/>
-      <c r="E20" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="230" t="n">
+      <c r="C20" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="224" t="n">
         <v>494</v>
       </c>
-      <c r="G20" s="229" t="s">
-        <v>209</v>
-      </c>
-      <c r="H20" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="231" t="s">
-        <v>179</v>
+      <c r="G20" s="223" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="229" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="229"/>
-      <c r="E21" s="229" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="230" t="n">
+      <c r="C21" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="224" t="n">
         <v>495</v>
       </c>
-      <c r="G21" s="229" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="231" t="s">
-        <v>179</v>
+      <c r="G21" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="229" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="230" t="n">
+      <c r="C22" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="224" t="n">
         <v>496</v>
       </c>
-      <c r="G22" s="229" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="231" t="s">
-        <v>179</v>
+      <c r="G22" s="223" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="220" t="s">
+      <c r="A23" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="220" t="s">
+      <c r="B23" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="229" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="230" t="n">
+      <c r="C23" s="223" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="224" t="n">
         <v>497</v>
       </c>
-      <c r="G23" s="229" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" s="231" t="s">
-        <v>179</v>
+      <c r="G23" s="223" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="220" t="s">
+      <c r="B24" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="229" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="230" t="n">
+      <c r="C24" s="223" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="224" t="n">
         <v>498</v>
       </c>
-      <c r="G24" s="229" t="s">
-        <v>213</v>
-      </c>
-      <c r="H24" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="231" t="s">
-        <v>179</v>
+      <c r="G24" s="223" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="220" t="s">
+      <c r="A25" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="220" t="s">
+      <c r="B25" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="229" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="230" t="n">
+      <c r="C25" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="224" t="n">
         <v>499</v>
       </c>
-      <c r="G25" s="229" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25" s="231" t="s">
-        <v>179</v>
+      <c r="G25" s="223" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="220" t="s">
+      <c r="A26" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="220" t="s">
+      <c r="B26" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="229" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="229"/>
-      <c r="E26" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" s="230" t="n">
+      <c r="C26" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="223"/>
+      <c r="E26" s="223" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="224" t="n">
         <v>500</v>
       </c>
-      <c r="G26" s="229" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="231" t="s">
-        <v>179</v>
+      <c r="G26" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="220" t="s">
+      <c r="A27" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="220" t="s">
+      <c r="B27" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="225" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="225"/>
-      <c r="E27" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="226" t="n">
+      <c r="C27" s="219" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="220" t="n">
         <v>45</v>
       </c>
-      <c r="G27" s="222" t="s">
+      <c r="G27" s="216" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="221" t="s">
         <v>177</v>
-      </c>
-      <c r="H27" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="227" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="220" t="s">
+      <c r="B28" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="226" t="n">
+      <c r="C28" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="220" t="n">
         <v>50</v>
       </c>
-      <c r="G28" s="222" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="227" t="s">
+      <c r="G28" s="216" t="s">
         <v>179</v>
+      </c>
+      <c r="H28" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225" t="s">
+      <c r="C29" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="226" t="n">
+      <c r="D29" s="219"/>
+      <c r="E29" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="220" t="n">
         <v>53</v>
       </c>
-      <c r="G29" s="222" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="227" t="s">
-        <v>179</v>
+      <c r="G29" s="216" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="220" t="s">
+      <c r="B30" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="225" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="226" t="n">
+      <c r="C30" s="219" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="220" t="n">
         <v>56</v>
       </c>
-      <c r="G30" s="222" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I30" s="227" t="s">
-        <v>179</v>
+      <c r="G30" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="225" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="226" t="n">
+      <c r="C31" s="219" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="220" t="n">
         <v>59</v>
       </c>
-      <c r="G31" s="222" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="227" t="s">
-        <v>179</v>
+      <c r="G31" s="216" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="220" t="s">
+      <c r="A32" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="220" t="s">
+      <c r="B32" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="225" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F32" s="226" t="n">
+      <c r="C32" s="219" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="220" t="n">
         <v>62</v>
       </c>
-      <c r="G32" s="222" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="227" t="s">
-        <v>179</v>
+      <c r="G32" s="216" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="220" t="s">
+      <c r="A33" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="225" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" s="226" t="n">
+      <c r="C33" s="219" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="220" t="n">
         <v>65</v>
       </c>
-      <c r="G33" s="222" t="s">
-        <v>225</v>
-      </c>
-      <c r="H33" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="227" t="s">
-        <v>179</v>
+      <c r="G33" s="216" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="220" t="s">
+      <c r="A34" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="220" t="s">
+      <c r="B34" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="226" t="n">
+      <c r="C34" s="219" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="220" t="n">
         <v>68</v>
       </c>
-      <c r="G34" s="222" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I34" s="227" t="s">
-        <v>179</v>
+      <c r="G34" s="216" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="220" t="s">
+      <c r="A35" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="220" t="s">
+      <c r="B35" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="225" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="226" t="n">
+      <c r="C35" s="219" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="219"/>
+      <c r="E35" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="220" t="n">
         <v>71</v>
       </c>
-      <c r="G35" s="222" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="227" t="s">
-        <v>179</v>
+      <c r="G35" s="216" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="220" t="s">
+      <c r="B36" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="225" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="226" t="n">
+      <c r="C36" s="219" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="219"/>
+      <c r="E36" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="220" t="n">
         <v>74</v>
       </c>
-      <c r="G36" s="222" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="227" t="s">
-        <v>179</v>
+      <c r="G36" s="216" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="220" t="s">
+      <c r="A37" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="220" t="s">
+      <c r="B37" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="228" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="232" t="n">
+      <c r="C37" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="226" t="n">
         <v>486</v>
       </c>
-      <c r="G37" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="H37" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="227" t="s">
-        <v>192</v>
+      <c r="G37" s="219" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="220" t="s">
+      <c r="A38" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="220" t="s">
+      <c r="B38" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="228" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="232" t="n">
+      <c r="C38" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="226" t="n">
         <v>484</v>
       </c>
-      <c r="G38" s="225" t="s">
-        <v>235</v>
-      </c>
-      <c r="H38" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="227" t="s">
-        <v>192</v>
+      <c r="G38" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="220" t="s">
+      <c r="A39" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="220" t="s">
+      <c r="B39" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="228" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="233" t="n">
+      <c r="C39" s="222" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="227" t="n">
         <v>489</v>
       </c>
-      <c r="G39" s="225" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" s="227" t="s">
-        <v>192</v>
+      <c r="G39" s="219" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="220" t="s">
+      <c r="A40" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="220" t="s">
+      <c r="B40" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="228" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="233" t="n">
+      <c r="C40" s="222" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="227" t="n">
         <v>439</v>
       </c>
-      <c r="G40" s="225" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I40" s="227" t="s">
-        <v>192</v>
+      <c r="G40" s="219" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="220" t="s">
+      <c r="A41" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="220" t="s">
+      <c r="B41" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" s="232" t="n">
+      <c r="C41" s="222" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="226" t="n">
         <v>440</v>
       </c>
-      <c r="G41" s="225" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="227" t="s">
-        <v>192</v>
+      <c r="G41" s="219" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="220" t="s">
+      <c r="B42" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="232" t="n">
+      <c r="C42" s="222" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="226" t="n">
         <v>441</v>
       </c>
-      <c r="G42" s="225" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="227" t="s">
-        <v>192</v>
+      <c r="G42" s="219" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="220" t="s">
+      <c r="A43" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" s="234" t="n">
+      <c r="C43" s="222" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="228" t="n">
         <v>442</v>
       </c>
-      <c r="G43" s="225" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I43" s="227" t="s">
-        <v>192</v>
+      <c r="G43" s="219" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I43" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="220" t="s">
+      <c r="A44" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" s="234" t="n">
+      <c r="C44" s="222" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="228" t="n">
         <v>443</v>
       </c>
-      <c r="G44" s="225" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="227" t="s">
-        <v>192</v>
+      <c r="G44" s="219" t="s">
+        <v>239</v>
+      </c>
+      <c r="H44" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="220" t="s">
+      <c r="B45" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="228" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="234" t="n">
+      <c r="C45" s="222" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="228" t="n">
         <v>444</v>
       </c>
-      <c r="G45" s="225" t="s">
-        <v>242</v>
-      </c>
-      <c r="H45" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" s="227" t="s">
-        <v>192</v>
+      <c r="G45" s="219" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="220" t="s">
+      <c r="A46" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="228" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="234" t="n">
+      <c r="C46" s="222" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="228" t="n">
         <v>445</v>
       </c>
-      <c r="G46" s="225" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I46" s="227" t="s">
-        <v>192</v>
+      <c r="G46" s="219" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="220" t="s">
+      <c r="A47" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="220" t="s">
+      <c r="B47" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="228" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="232" t="n">
+      <c r="C47" s="222" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="226" t="n">
         <v>446</v>
       </c>
-      <c r="G47" s="225" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I47" s="227" t="s">
-        <v>192</v>
+      <c r="G47" s="219" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="220" t="s">
+      <c r="A48" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="220" t="s">
+      <c r="B48" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="228" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="232" t="n">
+      <c r="C48" s="222" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="226" t="n">
         <v>447</v>
       </c>
-      <c r="G48" s="225" t="s">
-        <v>245</v>
-      </c>
-      <c r="H48" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I48" s="227" t="s">
-        <v>192</v>
+      <c r="G48" s="219" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="220" t="s">
+      <c r="A49" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="220" t="s">
+      <c r="B49" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="228" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" s="232" t="n">
+      <c r="C49" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="226" t="n">
         <v>448</v>
       </c>
-      <c r="G49" s="225" t="s">
-        <v>246</v>
-      </c>
-      <c r="H49" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I49" s="227" t="s">
-        <v>192</v>
+      <c r="G49" s="219" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="220" t="s">
+      <c r="A50" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="220" t="s">
+      <c r="B50" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="228" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="232" t="n">
+      <c r="C50" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="226" t="n">
         <v>449</v>
       </c>
-      <c r="G50" s="225" t="s">
-        <v>247</v>
-      </c>
-      <c r="H50" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="227" t="s">
-        <v>192</v>
+      <c r="G50" s="219" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="220" t="s">
+      <c r="A51" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="220" t="s">
+      <c r="B51" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="228" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" s="232" t="n">
+      <c r="C51" s="222" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="226" t="n">
         <v>450</v>
       </c>
-      <c r="G51" s="225" t="s">
-        <v>248</v>
-      </c>
-      <c r="H51" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I51" s="227" t="s">
-        <v>192</v>
+      <c r="G51" s="219" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="220" t="s">
+      <c r="A52" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="220" t="s">
+      <c r="B52" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="228" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="232" t="n">
+      <c r="C52" s="222" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="226" t="n">
         <v>451</v>
       </c>
-      <c r="G52" s="225" t="s">
-        <v>249</v>
-      </c>
-      <c r="H52" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I52" s="227" t="s">
-        <v>192</v>
+      <c r="G52" s="219" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="220" t="s">
+      <c r="A53" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="220" t="s">
+      <c r="B53" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53" s="232" t="n">
+      <c r="C53" s="222" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="226" t="n">
         <v>452</v>
       </c>
-      <c r="G53" s="225" t="s">
-        <v>250</v>
-      </c>
-      <c r="H53" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I53" s="227" t="s">
-        <v>192</v>
+      <c r="G53" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="H53" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="220" t="s">
+      <c r="A54" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="220" t="s">
+      <c r="B54" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="232" t="n">
+      <c r="C54" s="222" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="226" t="n">
         <v>453</v>
       </c>
-      <c r="G54" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="H54" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I54" s="227" t="s">
-        <v>192</v>
+      <c r="G54" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="H54" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="220" t="s">
+      <c r="A55" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="220" t="s">
+      <c r="B55" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="228" t="s">
+      <c r="C55" s="222" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="219" t="s">
         <v>230</v>
       </c>
-      <c r="D55" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55" s="226" t="n">
+      <c r="F55" s="220" t="n">
         <v>454</v>
       </c>
-      <c r="G55" s="225" t="s">
-        <v>252</v>
-      </c>
-      <c r="H55" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I55" s="227" t="s">
-        <v>192</v>
+      <c r="G55" s="219" t="s">
+        <v>250</v>
+      </c>
+      <c r="H55" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I55" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="220" t="s">
+      <c r="A56" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="220" t="s">
+      <c r="B56" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="228" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" s="226" t="n">
+      <c r="C56" s="222" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="220" t="n">
         <v>455</v>
       </c>
-      <c r="G56" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="H56" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" s="227" t="s">
-        <v>192</v>
+      <c r="G56" s="219" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="220" t="s">
+      <c r="A57" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="220" t="s">
+      <c r="B57" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="229" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" s="229"/>
-      <c r="E57" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="230" t="n">
+      <c r="C57" s="223" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="223"/>
+      <c r="E57" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="224" t="n">
         <v>151</v>
       </c>
-      <c r="G57" s="229" t="s">
-        <v>255</v>
-      </c>
-      <c r="H57" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" s="231" t="s">
-        <v>179</v>
+      <c r="G57" s="223" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I57" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="220" t="s">
+      <c r="A58" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="220" t="s">
+      <c r="B58" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="229" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="229"/>
-      <c r="E58" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F58" s="230" t="n">
+      <c r="C58" s="223" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="223"/>
+      <c r="E58" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="224" t="n">
         <v>276</v>
       </c>
-      <c r="G58" s="229" t="s">
-        <v>257</v>
-      </c>
-      <c r="H58" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I58" s="231" t="s">
-        <v>179</v>
+      <c r="G58" s="223" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="220" t="s">
+      <c r="A59" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="229" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59" s="230" t="n">
+      <c r="C59" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="224" t="n">
         <v>152</v>
       </c>
-      <c r="G59" s="229" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I59" s="231" t="s">
-        <v>179</v>
+      <c r="G59" s="223" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I59" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="220" t="s">
+      <c r="A60" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="220" t="s">
+      <c r="B60" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="229" t="s">
-        <v>218</v>
-      </c>
-      <c r="D60" s="229"/>
-      <c r="E60" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F60" s="230" t="n">
+      <c r="C60" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="223"/>
+      <c r="E60" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="224" t="n">
         <v>372</v>
       </c>
-      <c r="G60" s="229" t="s">
-        <v>259</v>
-      </c>
-      <c r="H60" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I60" s="231" t="s">
-        <v>179</v>
+      <c r="G60" s="223" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="220" t="s">
+      <c r="A61" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="220" t="s">
+      <c r="B61" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="229" t="s">
-        <v>219</v>
-      </c>
-      <c r="D61" s="229"/>
-      <c r="E61" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F61" s="230" t="n">
+      <c r="C61" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="223"/>
+      <c r="E61" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="224" t="n">
         <v>153</v>
       </c>
-      <c r="G61" s="229" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="231" t="s">
-        <v>179</v>
+      <c r="G61" s="223" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I61" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="220" t="s">
+      <c r="A62" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="220" t="s">
+      <c r="B62" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="229" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="229"/>
-      <c r="E62" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62" s="230" t="n">
+      <c r="C62" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="223"/>
+      <c r="E62" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="224" t="n">
         <v>376</v>
       </c>
-      <c r="G62" s="229" t="s">
-        <v>261</v>
-      </c>
-      <c r="H62" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I62" s="231" t="s">
-        <v>179</v>
+      <c r="G62" s="223" t="s">
+        <v>259</v>
+      </c>
+      <c r="H62" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I62" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="220" t="s">
+      <c r="A63" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="220" t="s">
+      <c r="B63" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="229" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="229"/>
-      <c r="E63" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" s="230" t="n">
+      <c r="C63" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="223"/>
+      <c r="E63" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="224" t="n">
         <v>154</v>
       </c>
-      <c r="G63" s="229" t="s">
-        <v>262</v>
-      </c>
-      <c r="H63" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I63" s="231" t="s">
-        <v>179</v>
+      <c r="G63" s="223" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="220" t="s">
+      <c r="A64" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="220" t="s">
+      <c r="B64" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="229" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="229"/>
-      <c r="E64" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F64" s="230" t="n">
+      <c r="C64" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="223"/>
+      <c r="E64" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="224" t="n">
         <v>380</v>
       </c>
-      <c r="G64" s="229" t="s">
-        <v>263</v>
-      </c>
-      <c r="H64" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I64" s="231" t="s">
-        <v>179</v>
+      <c r="G64" s="223" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="220" t="s">
+      <c r="A65" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="220" t="s">
+      <c r="B65" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="229" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="229"/>
-      <c r="E65" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F65" s="230" t="n">
+      <c r="C65" s="223" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="223"/>
+      <c r="E65" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="224" t="n">
         <v>155</v>
       </c>
-      <c r="G65" s="229" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I65" s="231" t="s">
-        <v>179</v>
+      <c r="G65" s="223" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I65" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="220" t="s">
+      <c r="A66" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="229" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="229"/>
-      <c r="E66" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F66" s="230" t="n">
+      <c r="C66" s="223" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="223"/>
+      <c r="E66" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" s="224" t="n">
         <v>384</v>
       </c>
-      <c r="G66" s="229" t="s">
-        <v>265</v>
-      </c>
-      <c r="H66" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="231" t="s">
-        <v>179</v>
+      <c r="G66" s="223" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I66" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="220" t="s">
+      <c r="A67" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="220" t="s">
+      <c r="B67" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="229" t="s">
-        <v>222</v>
-      </c>
-      <c r="D67" s="229"/>
-      <c r="E67" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="230" t="n">
+      <c r="C67" s="223" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="223"/>
+      <c r="E67" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="224" t="n">
         <v>156</v>
       </c>
-      <c r="G67" s="229" t="s">
-        <v>266</v>
-      </c>
-      <c r="H67" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" s="231" t="s">
-        <v>179</v>
+      <c r="G67" s="223" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I67" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="220" t="s">
+      <c r="A68" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="220" t="s">
+      <c r="B68" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="229" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" s="229"/>
-      <c r="E68" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" s="230" t="n">
+      <c r="C68" s="223" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="223"/>
+      <c r="E68" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="224" t="n">
         <v>388</v>
       </c>
-      <c r="G68" s="229" t="s">
-        <v>267</v>
-      </c>
-      <c r="H68" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I68" s="231" t="s">
-        <v>179</v>
+      <c r="G68" s="223" t="s">
+        <v>265</v>
+      </c>
+      <c r="H68" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I68" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="220" t="s">
+      <c r="A69" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="220" t="s">
+      <c r="B69" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="229" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="229"/>
-      <c r="E69" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="230" t="n">
+      <c r="C69" s="223" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="223"/>
+      <c r="E69" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="224" t="n">
         <v>157</v>
       </c>
-      <c r="G69" s="229" t="s">
-        <v>268</v>
-      </c>
-      <c r="H69" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I69" s="231" t="s">
-        <v>179</v>
+      <c r="G69" s="223" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I69" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="220" t="s">
+      <c r="A70" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="220" t="s">
+      <c r="B70" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="229" t="s">
-        <v>224</v>
-      </c>
-      <c r="D70" s="229"/>
-      <c r="E70" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="230" t="n">
+      <c r="C70" s="223" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="223"/>
+      <c r="E70" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="224" t="n">
         <v>392</v>
       </c>
-      <c r="G70" s="229" t="s">
-        <v>269</v>
-      </c>
-      <c r="H70" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I70" s="231" t="s">
-        <v>179</v>
+      <c r="G70" s="223" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I70" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="220" t="s">
+      <c r="A71" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="220" t="s">
+      <c r="B71" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="229" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" s="229"/>
-      <c r="E71" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="230" t="n">
+      <c r="C71" s="223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="223"/>
+      <c r="E71" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" s="224" t="n">
         <v>158</v>
       </c>
-      <c r="G71" s="229" t="s">
-        <v>270</v>
-      </c>
-      <c r="H71" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I71" s="231" t="s">
-        <v>179</v>
+      <c r="G71" s="223" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I71" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="220" t="s">
+      <c r="A72" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="220" t="s">
+      <c r="B72" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="229" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" s="229"/>
-      <c r="E72" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="230" t="n">
+      <c r="C72" s="223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="223"/>
+      <c r="E72" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="224" t="n">
         <v>396</v>
       </c>
-      <c r="G72" s="229" t="s">
-        <v>271</v>
-      </c>
-      <c r="H72" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="231" t="s">
-        <v>179</v>
+      <c r="G72" s="223" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I72" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="220" t="s">
+      <c r="A73" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="220" t="s">
+      <c r="B73" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="229" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="229"/>
-      <c r="E73" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" s="230" t="n">
+      <c r="C73" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="223"/>
+      <c r="E73" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F73" s="224" t="n">
         <v>159</v>
       </c>
-      <c r="G73" s="229" t="s">
-        <v>272</v>
-      </c>
-      <c r="H73" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I73" s="231" t="s">
-        <v>179</v>
+      <c r="G73" s="223" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I73" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="220" t="s">
+      <c r="A74" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="220" t="s">
+      <c r="B74" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="229" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="229"/>
-      <c r="E74" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F74" s="230" t="n">
+      <c r="C74" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="223"/>
+      <c r="E74" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="224" t="n">
         <v>400</v>
       </c>
-      <c r="G74" s="229" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I74" s="231" t="s">
-        <v>179</v>
+      <c r="G74" s="223" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I74" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="220" t="s">
+      <c r="A75" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="220" t="s">
+      <c r="B75" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="229" t="s">
-        <v>230</v>
-      </c>
-      <c r="D75" s="229"/>
-      <c r="E75" s="229" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="230" t="n">
+      <c r="C75" s="223" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="223"/>
+      <c r="E75" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="224" t="n">
         <v>160</v>
       </c>
-      <c r="G75" s="229" t="s">
-        <v>274</v>
-      </c>
-      <c r="H75" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I75" s="231" t="s">
-        <v>179</v>
+      <c r="G75" s="223" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="220" t="s">
+      <c r="A76" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="220" t="s">
+      <c r="B76" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="229" t="s">
-        <v>230</v>
-      </c>
-      <c r="D76" s="229"/>
-      <c r="E76" s="229" t="s">
-        <v>256</v>
-      </c>
-      <c r="F76" s="230" t="n">
+      <c r="C76" s="223" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="223"/>
+      <c r="E76" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="224" t="n">
         <v>404</v>
       </c>
-      <c r="G76" s="229" t="s">
-        <v>275</v>
-      </c>
-      <c r="H76" s="229" t="s">
-        <v>178</v>
-      </c>
-      <c r="I76" s="231" t="s">
-        <v>179</v>
+      <c r="G76" s="223" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="I76" s="225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="228" t="s">
+      <c r="B77" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="225" t="s">
+      <c r="C77" s="219" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="219"/>
+      <c r="E77" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F77" s="227" t="n">
+        <v>456</v>
+      </c>
+      <c r="G77" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="D77" s="225"/>
-      <c r="E77" s="225" t="s">
-        <v>277</v>
-      </c>
-      <c r="F77" s="233" t="n">
-        <v>456</v>
-      </c>
-      <c r="G77" s="225" t="s">
-        <v>278</v>
-      </c>
-      <c r="H77" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I77" s="227" t="s">
-        <v>179</v>
+      <c r="H77" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I77" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="228" t="s">
+      <c r="B78" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="225" t="s">
-        <v>279</v>
-      </c>
-      <c r="D78" s="225"/>
-      <c r="E78" s="225" t="s">
+      <c r="C78" s="219" t="s">
         <v>277</v>
       </c>
-      <c r="F78" s="233" t="n">
+      <c r="D78" s="219"/>
+      <c r="E78" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" s="227" t="n">
         <v>461</v>
       </c>
-      <c r="G78" s="225" t="s">
-        <v>280</v>
-      </c>
-      <c r="H78" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I78" s="227" t="s">
-        <v>179</v>
+      <c r="G78" s="219" t="s">
+        <v>278</v>
+      </c>
+      <c r="H78" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I78" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="228" t="s">
+      <c r="B79" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="225" t="s">
-        <v>281</v>
-      </c>
-      <c r="D79" s="225"/>
-      <c r="E79" s="225" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="233" t="n">
+      <c r="C79" s="219" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" s="219"/>
+      <c r="E79" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" s="227" t="n">
         <v>466</v>
       </c>
-      <c r="G79" s="225" t="s">
-        <v>282</v>
-      </c>
-      <c r="H79" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I79" s="227" t="s">
-        <v>179</v>
+      <c r="G79" s="219" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I79" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="228" t="s">
+      <c r="B80" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="225" t="s">
-        <v>283</v>
-      </c>
-      <c r="D80" s="225"/>
-      <c r="E80" s="225" t="s">
-        <v>277</v>
-      </c>
-      <c r="F80" s="233" t="n">
+      <c r="C80" s="219" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="219"/>
+      <c r="E80" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="227" t="n">
         <v>471</v>
       </c>
-      <c r="G80" s="225" t="s">
-        <v>284</v>
-      </c>
-      <c r="H80" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I80" s="227" t="s">
-        <v>179</v>
+      <c r="G80" s="219" t="s">
+        <v>282</v>
+      </c>
+      <c r="H80" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I80" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="228" t="s">
+      <c r="B81" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="225" t="s">
-        <v>285</v>
-      </c>
-      <c r="D81" s="225"/>
-      <c r="E81" s="225" t="s">
-        <v>277</v>
-      </c>
-      <c r="F81" s="235" t="n">
+      <c r="C81" s="219" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="219"/>
+      <c r="E81" s="219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="229" t="n">
         <v>476</v>
       </c>
-      <c r="G81" s="225" t="s">
-        <v>286</v>
-      </c>
-      <c r="H81" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I81" s="227" t="s">
-        <v>179</v>
+      <c r="G81" s="219" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="228" t="s">
+      <c r="B82" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="225" t="s">
-        <v>276</v>
-      </c>
-      <c r="D82" s="225"/>
-      <c r="E82" s="225" t="s">
-        <v>287</v>
-      </c>
-      <c r="F82" s="233" t="n">
+      <c r="C82" s="219" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="219"/>
+      <c r="E82" s="219" t="s">
+        <v>285</v>
+      </c>
+      <c r="F82" s="227" t="n">
         <v>457</v>
       </c>
-      <c r="G82" s="225" t="s">
-        <v>288</v>
-      </c>
-      <c r="H82" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I82" s="227" t="s">
-        <v>179</v>
+      <c r="G82" s="219" t="s">
+        <v>286</v>
+      </c>
+      <c r="H82" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I82" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="228" t="s">
+      <c r="B83" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="225" t="s">
-        <v>279</v>
-      </c>
-      <c r="D83" s="225"/>
-      <c r="E83" s="225" t="s">
+      <c r="C83" s="219" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="219"/>
+      <c r="E83" s="219" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="227" t="n">
+        <v>462</v>
+      </c>
+      <c r="G83" s="219" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="233" t="n">
-        <v>462</v>
-      </c>
-      <c r="G83" s="225" t="s">
-        <v>289</v>
-      </c>
-      <c r="H83" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I83" s="227" t="s">
-        <v>179</v>
+      <c r="H83" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I83" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="228" t="s">
+      <c r="B84" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="225" t="s">
-        <v>281</v>
-      </c>
-      <c r="D84" s="225"/>
-      <c r="E84" s="225" t="s">
-        <v>287</v>
-      </c>
-      <c r="F84" s="233" t="n">
+      <c r="C84" s="219" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" s="227" t="n">
         <v>467</v>
       </c>
-      <c r="G84" s="225" t="s">
-        <v>290</v>
-      </c>
-      <c r="H84" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I84" s="227" t="s">
-        <v>179</v>
+      <c r="G84" s="219" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I84" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="228" t="s">
+      <c r="B85" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="225" t="s">
-        <v>283</v>
-      </c>
-      <c r="D85" s="225"/>
-      <c r="E85" s="225" t="s">
-        <v>287</v>
-      </c>
-      <c r="F85" s="233" t="n">
+      <c r="C85" s="219" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="219"/>
+      <c r="E85" s="219" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" s="227" t="n">
         <v>472</v>
       </c>
-      <c r="G85" s="225" t="s">
-        <v>291</v>
-      </c>
-      <c r="H85" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I85" s="227" t="s">
-        <v>179</v>
+      <c r="G85" s="219" t="s">
+        <v>289</v>
+      </c>
+      <c r="H85" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I85" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="228" t="s">
+      <c r="B86" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="225" t="s">
+      <c r="C86" s="219" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" s="219"/>
+      <c r="E86" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="D86" s="225"/>
-      <c r="E86" s="225" t="s">
-        <v>287</v>
-      </c>
-      <c r="F86" s="235" t="n">
+      <c r="F86" s="229" t="n">
         <v>477</v>
       </c>
-      <c r="G86" s="225" t="s">
-        <v>292</v>
-      </c>
-      <c r="H86" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="I86" s="227" t="s">
-        <v>179</v>
+      <c r="G86" s="219" t="s">
+        <v>290</v>
+      </c>
+      <c r="H86" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="I86" s="221" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="236" t="s">
+      <c r="B87" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="228" t="s">
-        <v>276</v>
-      </c>
-      <c r="D87" s="228" t="s">
+      <c r="C87" s="222" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="219" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" s="224" t="n">
+        <v>458</v>
+      </c>
+      <c r="G87" s="219" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="225" t="s">
-        <v>293</v>
-      </c>
-      <c r="F87" s="230" t="n">
-        <v>458</v>
-      </c>
-      <c r="G87" s="225" t="s">
+      <c r="H87" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I87" s="221" t="s">
         <v>190</v>
-      </c>
-      <c r="H87" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I87" s="227" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="236" t="s">
+      <c r="B88" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="228" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="228" t="s">
+      <c r="C88" s="222" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" s="224" t="n">
+        <v>459</v>
+      </c>
+      <c r="G88" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="E88" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" s="230" t="n">
-        <v>459</v>
-      </c>
-      <c r="G88" s="225" t="s">
-        <v>195</v>
-      </c>
-      <c r="H88" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I88" s="227" t="s">
-        <v>192</v>
+      <c r="H88" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="236" t="s">
+      <c r="B89" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="228" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89" s="225" t="s">
-        <v>293</v>
-      </c>
-      <c r="F89" s="230" t="n">
+      <c r="C89" s="222" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="219" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="224" t="n">
         <v>463</v>
       </c>
-      <c r="G89" s="225" t="s">
-        <v>196</v>
-      </c>
-      <c r="H89" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I89" s="227" t="s">
-        <v>192</v>
+      <c r="G89" s="219" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="236" t="s">
+      <c r="B90" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="228" t="s">
-        <v>279</v>
-      </c>
-      <c r="D90" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="F90" s="230" t="n">
+      <c r="C90" s="222" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="F90" s="224" t="n">
         <v>464</v>
       </c>
-      <c r="G90" s="225" t="s">
-        <v>197</v>
-      </c>
-      <c r="H90" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I90" s="227" t="s">
-        <v>192</v>
+      <c r="G90" s="219" t="s">
+        <v>195</v>
+      </c>
+      <c r="H90" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I90" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="236" t="s">
+      <c r="B91" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="228" t="s">
-        <v>281</v>
-      </c>
-      <c r="D91" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E91" s="225" t="s">
-        <v>293</v>
-      </c>
-      <c r="F91" s="230" t="n">
+      <c r="C91" s="222" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="219" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="224" t="n">
         <v>468</v>
       </c>
-      <c r="G91" s="225" t="s">
-        <v>198</v>
-      </c>
-      <c r="H91" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I91" s="227" t="s">
-        <v>192</v>
+      <c r="G91" s="219" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B92" s="236" t="s">
+      <c r="B92" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="228" t="s">
-        <v>281</v>
-      </c>
-      <c r="D92" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E92" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="F92" s="230" t="n">
+      <c r="C92" s="222" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="224" t="n">
         <v>469</v>
       </c>
-      <c r="G92" s="225" t="s">
-        <v>199</v>
-      </c>
-      <c r="H92" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I92" s="227" t="s">
-        <v>192</v>
+      <c r="G92" s="219" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="236" t="s">
+      <c r="B93" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="228" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E93" s="225" t="s">
-        <v>293</v>
-      </c>
-      <c r="F93" s="230" t="n">
+      <c r="C93" s="222" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="219" t="s">
+        <v>291</v>
+      </c>
+      <c r="F93" s="224" t="n">
         <v>473</v>
       </c>
-      <c r="G93" s="225" t="s">
-        <v>200</v>
-      </c>
-      <c r="H93" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I93" s="227" t="s">
-        <v>192</v>
+      <c r="G93" s="219" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="236" t="s">
+      <c r="B94" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="228" t="s">
-        <v>283</v>
-      </c>
-      <c r="D94" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E94" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="F94" s="230" t="n">
+      <c r="C94" s="222" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="F94" s="224" t="n">
         <v>474</v>
       </c>
-      <c r="G94" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="H94" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I94" s="227" t="s">
-        <v>192</v>
+      <c r="G94" s="219" t="s">
+        <v>199</v>
+      </c>
+      <c r="H94" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="236" t="s">
+      <c r="B95" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="236" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E95" s="225" t="s">
-        <v>293</v>
-      </c>
-      <c r="F95" s="230" t="n">
+      <c r="C95" s="230" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="219" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" s="224" t="n">
         <v>478</v>
       </c>
-      <c r="G95" s="225" t="s">
-        <v>202</v>
-      </c>
-      <c r="H95" s="225" t="s">
-        <v>191</v>
-      </c>
-      <c r="I95" s="227" t="s">
-        <v>192</v>
+      <c r="G95" s="219" t="s">
+        <v>200</v>
+      </c>
+      <c r="H95" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="I95" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="236" t="s">
+      <c r="B96" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="236" t="s">
-        <v>285</v>
-      </c>
-      <c r="D96" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="E96" s="237" t="s">
-        <v>294</v>
-      </c>
-      <c r="F96" s="238" t="n">
+      <c r="C96" s="230" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="222" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="231" t="s">
+        <v>292</v>
+      </c>
+      <c r="F96" s="232" t="n">
         <v>479</v>
       </c>
-      <c r="G96" s="237" t="s">
-        <v>203</v>
-      </c>
-      <c r="H96" s="237" t="s">
-        <v>191</v>
-      </c>
-      <c r="I96" s="227" t="s">
-        <v>192</v>
+      <c r="G96" s="231" t="s">
+        <v>201</v>
+      </c>
+      <c r="H96" s="231" t="s">
+        <v>189</v>
+      </c>
+      <c r="I96" s="221" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -43760,201 +43687,201 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="239" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="240" t="s">
+      <c r="A1" s="233" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="234" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="241" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="242" t="s">
-        <v>297</v>
+      <c r="A2" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="236" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="243" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="244" t="s">
-        <v>297</v>
+      <c r="A3" s="237" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="245" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="246" t="s">
+      <c r="A4" s="239" t="s">
         <v>297</v>
+      </c>
+      <c r="B4" s="240" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="243" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="244" t="s">
-        <v>297</v>
+      <c r="A5" s="237" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="243" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" s="244" t="s">
-        <v>297</v>
+      <c r="A6" s="237" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="243" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="244" t="s">
-        <v>297</v>
+      <c r="A7" s="237" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="243" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="244" t="s">
-        <v>297</v>
+      <c r="A8" s="237" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="247" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="244" t="s">
-        <v>297</v>
+      <c r="A9" s="241" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="247" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="244" t="s">
-        <v>297</v>
+      <c r="A10" s="241" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="247" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="244" t="s">
-        <v>297</v>
+      <c r="A11" s="241" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="247" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="244" t="s">
-        <v>297</v>
+      <c r="A12" s="241" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="238" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="248" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="249" t="s">
-        <v>297</v>
+      <c r="A13" s="242" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="243" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="239" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="240" t="s">
-        <v>309</v>
+      <c r="A16" s="233" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="234" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="250" t="s">
-        <v>310</v>
-      </c>
-      <c r="B17" s="242" t="s">
-        <v>311</v>
+      <c r="A17" s="244" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="236" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="251" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="244" t="s">
-        <v>311</v>
+      <c r="A18" s="245" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="251" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="244" t="s">
+      <c r="A19" s="245" t="s">
         <v>311</v>
+      </c>
+      <c r="B19" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="251" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" s="244" t="s">
-        <v>311</v>
+      <c r="A20" s="245" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="247" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="244" t="s">
-        <v>311</v>
+      <c r="A21" s="241" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="247" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="244" t="s">
-        <v>311</v>
+      <c r="A22" s="241" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="247" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="244" t="s">
-        <v>311</v>
+      <c r="A23" s="241" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="247" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="244" t="s">
-        <v>311</v>
+      <c r="A24" s="241" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="247" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" s="244" t="s">
-        <v>311</v>
+      <c r="A25" s="241" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="238" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="248" t="s">
-        <v>320</v>
-      </c>
-      <c r="B26" s="249" t="s">
-        <v>311</v>
+      <c r="A26" s="242" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="243" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -43981,284 +43908,284 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="252" t="n">
+      <c r="C1" s="246" t="n">
         <v>0.2</v>
       </c>
-      <c r="D1" s="252" t="n">
+      <c r="D1" s="246" t="n">
         <v>0.4</v>
       </c>
-      <c r="E1" s="252" t="n">
+      <c r="E1" s="246" t="n">
         <v>0.2</v>
       </c>
-      <c r="F1" s="252" t="n">
+      <c r="F1" s="246" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="248" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="248" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="248" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="254" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="254" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="248" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="256" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="257" t="s">
-        <v>325</v>
+      <c r="B3" s="250" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="249" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="256" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="257" t="s">
-        <v>325</v>
+      <c r="B4" s="250" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="250" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="257" t="s">
-        <v>325</v>
+      <c r="F5" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="250" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="257" t="s">
-        <v>325</v>
+      <c r="F6" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="249" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="250" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" s="257" t="s">
-        <v>325</v>
+      <c r="F7" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="249" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="250" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="257" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="257" t="s">
-        <v>325</v>
+      <c r="F8" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="255" t="s">
+      <c r="A9" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="256" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="257" t="s">
+      <c r="B9" s="250" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="257" t="s">
-        <v>325</v>
+      <c r="C9" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="255" t="s">
+      <c r="A10" s="249" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="256" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="257" t="s">
+      <c r="B10" s="250" t="s">
         <v>325</v>
       </c>
-      <c r="D10" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="257" t="s">
-        <v>325</v>
+      <c r="C10" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="255" t="s">
+      <c r="A11" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="256" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="257" t="s">
+      <c r="B11" s="250" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="257" t="s">
-        <v>325</v>
+      <c r="C11" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="255" t="s">
+      <c r="A12" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="256" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="257" t="s">
+      <c r="B12" s="250" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" s="257" t="s">
-        <v>325</v>
+      <c r="C12" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="255" t="s">
+      <c r="A13" s="249" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="256" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" s="257" t="s">
+      <c r="B13" s="250" t="s">
         <v>325</v>
       </c>
-      <c r="D13" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="257" t="s">
-        <v>326</v>
-      </c>
-      <c r="F13" s="257" t="s">
-        <v>325</v>
+      <c r="C13" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="251" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="251" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="258" t="s">
+      <c r="A14" s="252" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="259" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="260" t="s">
+      <c r="B14" s="253" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="260" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="260" t="s">
-        <v>326</v>
-      </c>
-      <c r="F14" s="260" t="s">
-        <v>325</v>
+      <c r="C14" s="254" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="254" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="254" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="254" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -44279,43 +44206,43 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="261" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="261" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="261" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="261" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="261" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="261" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="261" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="261" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="255" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="255" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="255" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="255" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="255" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="255" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="255" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="255" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="263" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="263" t="s">
+      <c r="B1" s="257" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="257" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="257" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="257" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="263" t="s">
+      <c r="F1" s="257" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="263" t="s">
+      <c r="G1" s="258" t="s">
         <v>330</v>
-      </c>
-      <c r="F1" s="263" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="264" t="s">
-        <v>332</v>
       </c>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -44323,24 +44250,24 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="266" t="s">
+      <c r="B2" s="260" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="261"/>
+      <c r="D2" s="262" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="260" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="268" t="s">
+      <c r="F2" s="263" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="264" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" s="266" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" s="269" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="270" t="s">
-        <v>336</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
@@ -44348,261 +44275,261 @@
       <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="208" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="272" t="n">
+      <c r="C3" s="202"/>
+      <c r="D3" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="202" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="266" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="270"/>
+      <c r="G3" s="264"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="271"/>
-      <c r="B4" s="208" t="s">
+      <c r="A4" s="265"/>
+      <c r="B4" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="208" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="272" t="n">
+      <c r="D4" s="202" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="202" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="266" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="270"/>
+      <c r="G4" s="264"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="271"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="208" t="s">
+      <c r="A5" s="265"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202" t="s">
         <v>339</v>
       </c>
-      <c r="E5" s="208" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="272"/>
-      <c r="G5" s="270"/>
+      <c r="D5" s="202" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="266"/>
+      <c r="G5" s="264"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="271"/>
-      <c r="B6" s="208" t="s">
+      <c r="A6" s="265"/>
+      <c r="B6" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="273" t="s">
-        <v>342</v>
-      </c>
-      <c r="F6" s="272" t="n">
+      <c r="C6" s="202"/>
+      <c r="D6" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="267" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="266" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="270"/>
+      <c r="G6" s="264"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="271"/>
-      <c r="B7" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="208" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="272" t="n">
+      <c r="A7" s="265"/>
+      <c r="B7" s="202" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="202" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="266" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="270"/>
+      <c r="G7" s="264"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="271" t="s">
+      <c r="A8" s="265" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="208" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="272" t="n">
+      <c r="C8" s="202"/>
+      <c r="D8" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="202" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="266" t="n">
         <v>0.05</v>
       </c>
-      <c r="G8" s="270"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="271"/>
-      <c r="B9" s="208" t="s">
+      <c r="A9" s="265"/>
+      <c r="B9" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" s="208" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" s="272" t="n">
+      <c r="C9" s="202"/>
+      <c r="D9" s="202" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="202" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="266" t="n">
         <v>0.05</v>
       </c>
-      <c r="G9" s="270"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="271"/>
-      <c r="B10" s="208" t="s">
+      <c r="A10" s="265"/>
+      <c r="B10" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="273" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="272" t="n">
+      <c r="C10" s="202"/>
+      <c r="D10" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="267" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="266" t="n">
         <v>0.05</v>
       </c>
-      <c r="G10" s="270"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="271"/>
-      <c r="B11" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208" t="s">
-        <v>337</v>
-      </c>
-      <c r="E11" s="208" t="s">
-        <v>344</v>
-      </c>
-      <c r="F11" s="272" t="n">
+      <c r="A11" s="265"/>
+      <c r="B11" s="202" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="202" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="266" t="n">
         <v>0.05</v>
       </c>
-      <c r="G11" s="270"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="268" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208" t="s">
-        <v>339</v>
-      </c>
-      <c r="E12" s="208" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="272" t="n">
+      <c r="C12" s="202"/>
+      <c r="D12" s="202" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="202" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="266" t="n">
         <v>0.1</v>
       </c>
-      <c r="G12" s="270"/>
+      <c r="G12" s="264"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="274"/>
-      <c r="B13" s="275" t="s">
+      <c r="A13" s="268"/>
+      <c r="B13" s="269" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="275" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" s="276" t="n">
+      <c r="C13" s="269"/>
+      <c r="D13" s="269" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="269" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="270" t="n">
         <v>0.1</v>
       </c>
-      <c r="G13" s="270"/>
+      <c r="G13" s="264"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="277" t="s">
+      <c r="A14" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="279"/>
-      <c r="D14" s="279" t="s">
-        <v>337</v>
-      </c>
-      <c r="E14" s="280" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" s="281" t="n">
+      <c r="C14" s="273"/>
+      <c r="D14" s="273" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="274" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="275" t="n">
         <v>0.1</v>
       </c>
-      <c r="G14" s="282" t="s">
-        <v>350</v>
+      <c r="G14" s="276" t="s">
+        <v>348</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -44610,42 +44537,42 @@
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="277"/>
-      <c r="B15" s="283" t="s">
+      <c r="A15" s="271"/>
+      <c r="B15" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="283"/>
-      <c r="D15" s="279" t="s">
-        <v>337</v>
-      </c>
-      <c r="E15" s="208" t="s">
-        <v>349</v>
-      </c>
-      <c r="F15" s="284" t="n">
+      <c r="C15" s="277"/>
+      <c r="D15" s="273" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="202" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="278" t="n">
         <v>0.05</v>
       </c>
-      <c r="G15" s="282"/>
+      <c r="G15" s="276"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="277"/>
-      <c r="B16" s="285" t="s">
+      <c r="A16" s="271"/>
+      <c r="B16" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="285"/>
-      <c r="D16" s="279" t="s">
-        <v>337</v>
-      </c>
-      <c r="E16" s="286" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" s="287" t="n">
+      <c r="C16" s="279"/>
+      <c r="D16" s="273" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="280" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="281" t="n">
         <v>0.05</v>
       </c>
-      <c r="G16" s="282"/>
+      <c r="G16" s="276"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -44665,8 +44592,8 @@
       <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="288" t="s">
-        <v>352</v>
+      <c r="A18" s="282" t="s">
+        <v>350</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -44680,11 +44607,11 @@
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="289" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="289" t="s">
-        <v>353</v>
+      <c r="A19" s="283" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="283" t="s">
+        <v>351</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
@@ -44697,10 +44624,10 @@
       <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="230" t="n">
+      <c r="B20" s="224" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0"/>
@@ -44714,10 +44641,10 @@
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="230" t="n">
+      <c r="B21" s="224" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="0"/>
@@ -44731,10 +44658,10 @@
       <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="208" t="s">
+      <c r="A22" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="230" t="n">
+      <c r="B22" s="224" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="0"/>
@@ -44748,10 +44675,10 @@
       <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="208" t="s">
-        <v>343</v>
-      </c>
-      <c r="B23" s="230" t="n">
+      <c r="A23" s="202" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="224" t="n">
         <v>4</v>
       </c>
       <c r="C23" s="0"/>
@@ -44805,7 +44732,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="127" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -44822,130 +44749,130 @@
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="290" t="n">
+      <c r="D28" s="284" t="n">
         <v>0.2</v>
       </c>
-      <c r="E28" s="290" t="n">
+      <c r="E28" s="284" t="n">
         <v>0.4</v>
       </c>
-      <c r="F28" s="290" t="n">
+      <c r="F28" s="284" t="n">
         <v>0.2</v>
       </c>
-      <c r="G28" s="290" t="n">
+      <c r="G28" s="284" t="n">
         <v>0.2</v>
       </c>
-      <c r="H28" s="291" t="n">
+      <c r="H28" s="285" t="n">
         <v>0.2</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="127" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="292" t="s">
+      <c r="A29" s="286" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="286" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="286" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="286" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="286" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" s="286" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="286" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="286" t="s">
         <v>356</v>
       </c>
-      <c r="B29" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="292" t="s">
+      <c r="J29" s="286" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="286" t="s">
         <v>357</v>
-      </c>
-      <c r="D29" s="292" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="292" t="s">
-        <v>322</v>
-      </c>
-      <c r="F29" s="292" t="s">
-        <v>323</v>
-      </c>
-      <c r="G29" s="292" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="292" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="292" t="s">
-        <v>358</v>
-      </c>
-      <c r="J29" s="292" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="292" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="202" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="202" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="287" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="287" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="287" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="287" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="287" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J30" s="287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="202" t="s">
         <v>360</v>
-      </c>
-      <c r="B30" s="208" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="208" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="293" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="293" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="293" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="293" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H30" s="293" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="293" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J30" s="293" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="208" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="202" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="202" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="202" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="287" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="288" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="287" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K31" s="202" t="s">
         <v>363</v>
-      </c>
-      <c r="B31" s="208" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="208" t="s">
-        <v>364</v>
-      </c>
-      <c r="D31" s="293" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="293" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="294" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="293" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="293" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I31" s="293" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="293" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K31" s="208" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
@@ -19,39 +19,40 @@
     <sheet name="Info" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -71,6 +72,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -532,7 +534,7 @@
     <t xml:space="preserve">มีสินค้า CC 10/15Oz  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t xml:space="preserve">มี/ไม่มี</t>
+    <t xml:space="preserve">มี,ไม่มี</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -2933,21 +2935,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -38748,7 +38750,7 @@
       <c r="AMJ53" s="103"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P45"/>
+  <autoFilter ref="A1:P1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -38774,11 +38776,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -39260,28 +39262,17 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -45491,7 +45482,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="145" t="s">
         <v>16</v>
@@ -46549,7 +46540,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="150" t="s">
         <v>24</v>
@@ -47607,7 +47598,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="150" t="s">
         <v>25</v>
@@ -48665,7 +48656,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="150" t="s">
         <v>26</v>
@@ -49723,7 +49714,7 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="150" t="s">
         <v>27</v>
@@ -50781,7 +50772,7 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="150" t="s">
         <v>135</v>
@@ -51839,7 +51830,7 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="150" t="s">
         <v>29</v>
@@ -52897,7 +52888,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="150" t="s">
         <v>30</v>
@@ -53955,7 +53946,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="150" t="s">
         <v>32</v>
@@ -55013,7 +55004,8 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
       <c r="B16" s="150" t="s">
         <v>33</v>
       </c>
@@ -55062,8 +55054,1015 @@
       <c r="Q16" s="153" t="s">
         <v>129</v>
       </c>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="0"/>
+      <c r="AK16" s="0"/>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
+      <c r="AN16" s="0"/>
+      <c r="AO16" s="0"/>
+      <c r="AP16" s="0"/>
+      <c r="AQ16" s="0"/>
+      <c r="AR16" s="0"/>
+      <c r="AS16" s="0"/>
+      <c r="AT16" s="0"/>
+      <c r="AU16" s="0"/>
+      <c r="AV16" s="0"/>
+      <c r="AW16" s="0"/>
+      <c r="AX16" s="0"/>
+      <c r="AY16" s="0"/>
+      <c r="AZ16" s="0"/>
+      <c r="BA16" s="0"/>
+      <c r="BB16" s="0"/>
+      <c r="BC16" s="0"/>
+      <c r="BD16" s="0"/>
+      <c r="BE16" s="0"/>
+      <c r="BF16" s="0"/>
+      <c r="BG16" s="0"/>
+      <c r="BH16" s="0"/>
+      <c r="BI16" s="0"/>
+      <c r="BJ16" s="0"/>
+      <c r="BK16" s="0"/>
+      <c r="BL16" s="0"/>
+      <c r="BM16" s="0"/>
+      <c r="BN16" s="0"/>
+      <c r="BO16" s="0"/>
+      <c r="BP16" s="0"/>
+      <c r="BQ16" s="0"/>
+      <c r="BR16" s="0"/>
+      <c r="BS16" s="0"/>
+      <c r="BT16" s="0"/>
+      <c r="BU16" s="0"/>
+      <c r="BV16" s="0"/>
+      <c r="BW16" s="0"/>
+      <c r="BX16" s="0"/>
+      <c r="BY16" s="0"/>
+      <c r="BZ16" s="0"/>
+      <c r="CA16" s="0"/>
+      <c r="CB16" s="0"/>
+      <c r="CC16" s="0"/>
+      <c r="CD16" s="0"/>
+      <c r="CE16" s="0"/>
+      <c r="CF16" s="0"/>
+      <c r="CG16" s="0"/>
+      <c r="CH16" s="0"/>
+      <c r="CI16" s="0"/>
+      <c r="CJ16" s="0"/>
+      <c r="CK16" s="0"/>
+      <c r="CL16" s="0"/>
+      <c r="CM16" s="0"/>
+      <c r="CN16" s="0"/>
+      <c r="CO16" s="0"/>
+      <c r="CP16" s="0"/>
+      <c r="CQ16" s="0"/>
+      <c r="CR16" s="0"/>
+      <c r="CS16" s="0"/>
+      <c r="CT16" s="0"/>
+      <c r="CU16" s="0"/>
+      <c r="CV16" s="0"/>
+      <c r="CW16" s="0"/>
+      <c r="CX16" s="0"/>
+      <c r="CY16" s="0"/>
+      <c r="CZ16" s="0"/>
+      <c r="DA16" s="0"/>
+      <c r="DB16" s="0"/>
+      <c r="DC16" s="0"/>
+      <c r="DD16" s="0"/>
+      <c r="DE16" s="0"/>
+      <c r="DF16" s="0"/>
+      <c r="DG16" s="0"/>
+      <c r="DH16" s="0"/>
+      <c r="DI16" s="0"/>
+      <c r="DJ16" s="0"/>
+      <c r="DK16" s="0"/>
+      <c r="DL16" s="0"/>
+      <c r="DM16" s="0"/>
+      <c r="DN16" s="0"/>
+      <c r="DO16" s="0"/>
+      <c r="DP16" s="0"/>
+      <c r="DQ16" s="0"/>
+      <c r="DR16" s="0"/>
+      <c r="DS16" s="0"/>
+      <c r="DT16" s="0"/>
+      <c r="DU16" s="0"/>
+      <c r="DV16" s="0"/>
+      <c r="DW16" s="0"/>
+      <c r="DX16" s="0"/>
+      <c r="DY16" s="0"/>
+      <c r="DZ16" s="0"/>
+      <c r="EA16" s="0"/>
+      <c r="EB16" s="0"/>
+      <c r="EC16" s="0"/>
+      <c r="ED16" s="0"/>
+      <c r="EE16" s="0"/>
+      <c r="EF16" s="0"/>
+      <c r="EG16" s="0"/>
+      <c r="EH16" s="0"/>
+      <c r="EI16" s="0"/>
+      <c r="EJ16" s="0"/>
+      <c r="EK16" s="0"/>
+      <c r="EL16" s="0"/>
+      <c r="EM16" s="0"/>
+      <c r="EN16" s="0"/>
+      <c r="EO16" s="0"/>
+      <c r="EP16" s="0"/>
+      <c r="EQ16" s="0"/>
+      <c r="ER16" s="0"/>
+      <c r="ES16" s="0"/>
+      <c r="ET16" s="0"/>
+      <c r="EU16" s="0"/>
+      <c r="EV16" s="0"/>
+      <c r="EW16" s="0"/>
+      <c r="EX16" s="0"/>
+      <c r="EY16" s="0"/>
+      <c r="EZ16" s="0"/>
+      <c r="FA16" s="0"/>
+      <c r="FB16" s="0"/>
+      <c r="FC16" s="0"/>
+      <c r="FD16" s="0"/>
+      <c r="FE16" s="0"/>
+      <c r="FF16" s="0"/>
+      <c r="FG16" s="0"/>
+      <c r="FH16" s="0"/>
+      <c r="FI16" s="0"/>
+      <c r="FJ16" s="0"/>
+      <c r="FK16" s="0"/>
+      <c r="FL16" s="0"/>
+      <c r="FM16" s="0"/>
+      <c r="FN16" s="0"/>
+      <c r="FO16" s="0"/>
+      <c r="FP16" s="0"/>
+      <c r="FQ16" s="0"/>
+      <c r="FR16" s="0"/>
+      <c r="FS16" s="0"/>
+      <c r="FT16" s="0"/>
+      <c r="FU16" s="0"/>
+      <c r="FV16" s="0"/>
+      <c r="FW16" s="0"/>
+      <c r="FX16" s="0"/>
+      <c r="FY16" s="0"/>
+      <c r="FZ16" s="0"/>
+      <c r="GA16" s="0"/>
+      <c r="GB16" s="0"/>
+      <c r="GC16" s="0"/>
+      <c r="GD16" s="0"/>
+      <c r="GE16" s="0"/>
+      <c r="GF16" s="0"/>
+      <c r="GG16" s="0"/>
+      <c r="GH16" s="0"/>
+      <c r="GI16" s="0"/>
+      <c r="GJ16" s="0"/>
+      <c r="GK16" s="0"/>
+      <c r="GL16" s="0"/>
+      <c r="GM16" s="0"/>
+      <c r="GN16" s="0"/>
+      <c r="GO16" s="0"/>
+      <c r="GP16" s="0"/>
+      <c r="GQ16" s="0"/>
+      <c r="GR16" s="0"/>
+      <c r="GS16" s="0"/>
+      <c r="GT16" s="0"/>
+      <c r="GU16" s="0"/>
+      <c r="GV16" s="0"/>
+      <c r="GW16" s="0"/>
+      <c r="GX16" s="0"/>
+      <c r="GY16" s="0"/>
+      <c r="GZ16" s="0"/>
+      <c r="HA16" s="0"/>
+      <c r="HB16" s="0"/>
+      <c r="HC16" s="0"/>
+      <c r="HD16" s="0"/>
+      <c r="HE16" s="0"/>
+      <c r="HF16" s="0"/>
+      <c r="HG16" s="0"/>
+      <c r="HH16" s="0"/>
+      <c r="HI16" s="0"/>
+      <c r="HJ16" s="0"/>
+      <c r="HK16" s="0"/>
+      <c r="HL16" s="0"/>
+      <c r="HM16" s="0"/>
+      <c r="HN16" s="0"/>
+      <c r="HO16" s="0"/>
+      <c r="HP16" s="0"/>
+      <c r="HQ16" s="0"/>
+      <c r="HR16" s="0"/>
+      <c r="HS16" s="0"/>
+      <c r="HT16" s="0"/>
+      <c r="HU16" s="0"/>
+      <c r="HV16" s="0"/>
+      <c r="HW16" s="0"/>
+      <c r="HX16" s="0"/>
+      <c r="HY16" s="0"/>
+      <c r="HZ16" s="0"/>
+      <c r="IA16" s="0"/>
+      <c r="IB16" s="0"/>
+      <c r="IC16" s="0"/>
+      <c r="ID16" s="0"/>
+      <c r="IE16" s="0"/>
+      <c r="IF16" s="0"/>
+      <c r="IG16" s="0"/>
+      <c r="IH16" s="0"/>
+      <c r="II16" s="0"/>
+      <c r="IJ16" s="0"/>
+      <c r="IK16" s="0"/>
+      <c r="IL16" s="0"/>
+      <c r="IM16" s="0"/>
+      <c r="IN16" s="0"/>
+      <c r="IO16" s="0"/>
+      <c r="IP16" s="0"/>
+      <c r="IQ16" s="0"/>
+      <c r="IR16" s="0"/>
+      <c r="IS16" s="0"/>
+      <c r="IT16" s="0"/>
+      <c r="IU16" s="0"/>
+      <c r="IV16" s="0"/>
+      <c r="IW16" s="0"/>
+      <c r="IX16" s="0"/>
+      <c r="IY16" s="0"/>
+      <c r="IZ16" s="0"/>
+      <c r="JA16" s="0"/>
+      <c r="JB16" s="0"/>
+      <c r="JC16" s="0"/>
+      <c r="JD16" s="0"/>
+      <c r="JE16" s="0"/>
+      <c r="JF16" s="0"/>
+      <c r="JG16" s="0"/>
+      <c r="JH16" s="0"/>
+      <c r="JI16" s="0"/>
+      <c r="JJ16" s="0"/>
+      <c r="JK16" s="0"/>
+      <c r="JL16" s="0"/>
+      <c r="JM16" s="0"/>
+      <c r="JN16" s="0"/>
+      <c r="JO16" s="0"/>
+      <c r="JP16" s="0"/>
+      <c r="JQ16" s="0"/>
+      <c r="JR16" s="0"/>
+      <c r="JS16" s="0"/>
+      <c r="JT16" s="0"/>
+      <c r="JU16" s="0"/>
+      <c r="JV16" s="0"/>
+      <c r="JW16" s="0"/>
+      <c r="JX16" s="0"/>
+      <c r="JY16" s="0"/>
+      <c r="JZ16" s="0"/>
+      <c r="KA16" s="0"/>
+      <c r="KB16" s="0"/>
+      <c r="KC16" s="0"/>
+      <c r="KD16" s="0"/>
+      <c r="KE16" s="0"/>
+      <c r="KF16" s="0"/>
+      <c r="KG16" s="0"/>
+      <c r="KH16" s="0"/>
+      <c r="KI16" s="0"/>
+      <c r="KJ16" s="0"/>
+      <c r="KK16" s="0"/>
+      <c r="KL16" s="0"/>
+      <c r="KM16" s="0"/>
+      <c r="KN16" s="0"/>
+      <c r="KO16" s="0"/>
+      <c r="KP16" s="0"/>
+      <c r="KQ16" s="0"/>
+      <c r="KR16" s="0"/>
+      <c r="KS16" s="0"/>
+      <c r="KT16" s="0"/>
+      <c r="KU16" s="0"/>
+      <c r="KV16" s="0"/>
+      <c r="KW16" s="0"/>
+      <c r="KX16" s="0"/>
+      <c r="KY16" s="0"/>
+      <c r="KZ16" s="0"/>
+      <c r="LA16" s="0"/>
+      <c r="LB16" s="0"/>
+      <c r="LC16" s="0"/>
+      <c r="LD16" s="0"/>
+      <c r="LE16" s="0"/>
+      <c r="LF16" s="0"/>
+      <c r="LG16" s="0"/>
+      <c r="LH16" s="0"/>
+      <c r="LI16" s="0"/>
+      <c r="LJ16" s="0"/>
+      <c r="LK16" s="0"/>
+      <c r="LL16" s="0"/>
+      <c r="LM16" s="0"/>
+      <c r="LN16" s="0"/>
+      <c r="LO16" s="0"/>
+      <c r="LP16" s="0"/>
+      <c r="LQ16" s="0"/>
+      <c r="LR16" s="0"/>
+      <c r="LS16" s="0"/>
+      <c r="LT16" s="0"/>
+      <c r="LU16" s="0"/>
+      <c r="LV16" s="0"/>
+      <c r="LW16" s="0"/>
+      <c r="LX16" s="0"/>
+      <c r="LY16" s="0"/>
+      <c r="LZ16" s="0"/>
+      <c r="MA16" s="0"/>
+      <c r="MB16" s="0"/>
+      <c r="MC16" s="0"/>
+      <c r="MD16" s="0"/>
+      <c r="ME16" s="0"/>
+      <c r="MF16" s="0"/>
+      <c r="MG16" s="0"/>
+      <c r="MH16" s="0"/>
+      <c r="MI16" s="0"/>
+      <c r="MJ16" s="0"/>
+      <c r="MK16" s="0"/>
+      <c r="ML16" s="0"/>
+      <c r="MM16" s="0"/>
+      <c r="MN16" s="0"/>
+      <c r="MO16" s="0"/>
+      <c r="MP16" s="0"/>
+      <c r="MQ16" s="0"/>
+      <c r="MR16" s="0"/>
+      <c r="MS16" s="0"/>
+      <c r="MT16" s="0"/>
+      <c r="MU16" s="0"/>
+      <c r="MV16" s="0"/>
+      <c r="MW16" s="0"/>
+      <c r="MX16" s="0"/>
+      <c r="MY16" s="0"/>
+      <c r="MZ16" s="0"/>
+      <c r="NA16" s="0"/>
+      <c r="NB16" s="0"/>
+      <c r="NC16" s="0"/>
+      <c r="ND16" s="0"/>
+      <c r="NE16" s="0"/>
+      <c r="NF16" s="0"/>
+      <c r="NG16" s="0"/>
+      <c r="NH16" s="0"/>
+      <c r="NI16" s="0"/>
+      <c r="NJ16" s="0"/>
+      <c r="NK16" s="0"/>
+      <c r="NL16" s="0"/>
+      <c r="NM16" s="0"/>
+      <c r="NN16" s="0"/>
+      <c r="NO16" s="0"/>
+      <c r="NP16" s="0"/>
+      <c r="NQ16" s="0"/>
+      <c r="NR16" s="0"/>
+      <c r="NS16" s="0"/>
+      <c r="NT16" s="0"/>
+      <c r="NU16" s="0"/>
+      <c r="NV16" s="0"/>
+      <c r="NW16" s="0"/>
+      <c r="NX16" s="0"/>
+      <c r="NY16" s="0"/>
+      <c r="NZ16" s="0"/>
+      <c r="OA16" s="0"/>
+      <c r="OB16" s="0"/>
+      <c r="OC16" s="0"/>
+      <c r="OD16" s="0"/>
+      <c r="OE16" s="0"/>
+      <c r="OF16" s="0"/>
+      <c r="OG16" s="0"/>
+      <c r="OH16" s="0"/>
+      <c r="OI16" s="0"/>
+      <c r="OJ16" s="0"/>
+      <c r="OK16" s="0"/>
+      <c r="OL16" s="0"/>
+      <c r="OM16" s="0"/>
+      <c r="ON16" s="0"/>
+      <c r="OO16" s="0"/>
+      <c r="OP16" s="0"/>
+      <c r="OQ16" s="0"/>
+      <c r="OR16" s="0"/>
+      <c r="OS16" s="0"/>
+      <c r="OT16" s="0"/>
+      <c r="OU16" s="0"/>
+      <c r="OV16" s="0"/>
+      <c r="OW16" s="0"/>
+      <c r="OX16" s="0"/>
+      <c r="OY16" s="0"/>
+      <c r="OZ16" s="0"/>
+      <c r="PA16" s="0"/>
+      <c r="PB16" s="0"/>
+      <c r="PC16" s="0"/>
+      <c r="PD16" s="0"/>
+      <c r="PE16" s="0"/>
+      <c r="PF16" s="0"/>
+      <c r="PG16" s="0"/>
+      <c r="PH16" s="0"/>
+      <c r="PI16" s="0"/>
+      <c r="PJ16" s="0"/>
+      <c r="PK16" s="0"/>
+      <c r="PL16" s="0"/>
+      <c r="PM16" s="0"/>
+      <c r="PN16" s="0"/>
+      <c r="PO16" s="0"/>
+      <c r="PP16" s="0"/>
+      <c r="PQ16" s="0"/>
+      <c r="PR16" s="0"/>
+      <c r="PS16" s="0"/>
+      <c r="PT16" s="0"/>
+      <c r="PU16" s="0"/>
+      <c r="PV16" s="0"/>
+      <c r="PW16" s="0"/>
+      <c r="PX16" s="0"/>
+      <c r="PY16" s="0"/>
+      <c r="PZ16" s="0"/>
+      <c r="QA16" s="0"/>
+      <c r="QB16" s="0"/>
+      <c r="QC16" s="0"/>
+      <c r="QD16" s="0"/>
+      <c r="QE16" s="0"/>
+      <c r="QF16" s="0"/>
+      <c r="QG16" s="0"/>
+      <c r="QH16" s="0"/>
+      <c r="QI16" s="0"/>
+      <c r="QJ16" s="0"/>
+      <c r="QK16" s="0"/>
+      <c r="QL16" s="0"/>
+      <c r="QM16" s="0"/>
+      <c r="QN16" s="0"/>
+      <c r="QO16" s="0"/>
+      <c r="QP16" s="0"/>
+      <c r="QQ16" s="0"/>
+      <c r="QR16" s="0"/>
+      <c r="QS16" s="0"/>
+      <c r="QT16" s="0"/>
+      <c r="QU16" s="0"/>
+      <c r="QV16" s="0"/>
+      <c r="QW16" s="0"/>
+      <c r="QX16" s="0"/>
+      <c r="QY16" s="0"/>
+      <c r="QZ16" s="0"/>
+      <c r="RA16" s="0"/>
+      <c r="RB16" s="0"/>
+      <c r="RC16" s="0"/>
+      <c r="RD16" s="0"/>
+      <c r="RE16" s="0"/>
+      <c r="RF16" s="0"/>
+      <c r="RG16" s="0"/>
+      <c r="RH16" s="0"/>
+      <c r="RI16" s="0"/>
+      <c r="RJ16" s="0"/>
+      <c r="RK16" s="0"/>
+      <c r="RL16" s="0"/>
+      <c r="RM16" s="0"/>
+      <c r="RN16" s="0"/>
+      <c r="RO16" s="0"/>
+      <c r="RP16" s="0"/>
+      <c r="RQ16" s="0"/>
+      <c r="RR16" s="0"/>
+      <c r="RS16" s="0"/>
+      <c r="RT16" s="0"/>
+      <c r="RU16" s="0"/>
+      <c r="RV16" s="0"/>
+      <c r="RW16" s="0"/>
+      <c r="RX16" s="0"/>
+      <c r="RY16" s="0"/>
+      <c r="RZ16" s="0"/>
+      <c r="SA16" s="0"/>
+      <c r="SB16" s="0"/>
+      <c r="SC16" s="0"/>
+      <c r="SD16" s="0"/>
+      <c r="SE16" s="0"/>
+      <c r="SF16" s="0"/>
+      <c r="SG16" s="0"/>
+      <c r="SH16" s="0"/>
+      <c r="SI16" s="0"/>
+      <c r="SJ16" s="0"/>
+      <c r="SK16" s="0"/>
+      <c r="SL16" s="0"/>
+      <c r="SM16" s="0"/>
+      <c r="SN16" s="0"/>
+      <c r="SO16" s="0"/>
+      <c r="SP16" s="0"/>
+      <c r="SQ16" s="0"/>
+      <c r="SR16" s="0"/>
+      <c r="SS16" s="0"/>
+      <c r="ST16" s="0"/>
+      <c r="SU16" s="0"/>
+      <c r="SV16" s="0"/>
+      <c r="SW16" s="0"/>
+      <c r="SX16" s="0"/>
+      <c r="SY16" s="0"/>
+      <c r="SZ16" s="0"/>
+      <c r="TA16" s="0"/>
+      <c r="TB16" s="0"/>
+      <c r="TC16" s="0"/>
+      <c r="TD16" s="0"/>
+      <c r="TE16" s="0"/>
+      <c r="TF16" s="0"/>
+      <c r="TG16" s="0"/>
+      <c r="TH16" s="0"/>
+      <c r="TI16" s="0"/>
+      <c r="TJ16" s="0"/>
+      <c r="TK16" s="0"/>
+      <c r="TL16" s="0"/>
+      <c r="TM16" s="0"/>
+      <c r="TN16" s="0"/>
+      <c r="TO16" s="0"/>
+      <c r="TP16" s="0"/>
+      <c r="TQ16" s="0"/>
+      <c r="TR16" s="0"/>
+      <c r="TS16" s="0"/>
+      <c r="TT16" s="0"/>
+      <c r="TU16" s="0"/>
+      <c r="TV16" s="0"/>
+      <c r="TW16" s="0"/>
+      <c r="TX16" s="0"/>
+      <c r="TY16" s="0"/>
+      <c r="TZ16" s="0"/>
+      <c r="UA16" s="0"/>
+      <c r="UB16" s="0"/>
+      <c r="UC16" s="0"/>
+      <c r="UD16" s="0"/>
+      <c r="UE16" s="0"/>
+      <c r="UF16" s="0"/>
+      <c r="UG16" s="0"/>
+      <c r="UH16" s="0"/>
+      <c r="UI16" s="0"/>
+      <c r="UJ16" s="0"/>
+      <c r="UK16" s="0"/>
+      <c r="UL16" s="0"/>
+      <c r="UM16" s="0"/>
+      <c r="UN16" s="0"/>
+      <c r="UO16" s="0"/>
+      <c r="UP16" s="0"/>
+      <c r="UQ16" s="0"/>
+      <c r="UR16" s="0"/>
+      <c r="US16" s="0"/>
+      <c r="UT16" s="0"/>
+      <c r="UU16" s="0"/>
+      <c r="UV16" s="0"/>
+      <c r="UW16" s="0"/>
+      <c r="UX16" s="0"/>
+      <c r="UY16" s="0"/>
+      <c r="UZ16" s="0"/>
+      <c r="VA16" s="0"/>
+      <c r="VB16" s="0"/>
+      <c r="VC16" s="0"/>
+      <c r="VD16" s="0"/>
+      <c r="VE16" s="0"/>
+      <c r="VF16" s="0"/>
+      <c r="VG16" s="0"/>
+      <c r="VH16" s="0"/>
+      <c r="VI16" s="0"/>
+      <c r="VJ16" s="0"/>
+      <c r="VK16" s="0"/>
+      <c r="VL16" s="0"/>
+      <c r="VM16" s="0"/>
+      <c r="VN16" s="0"/>
+      <c r="VO16" s="0"/>
+      <c r="VP16" s="0"/>
+      <c r="VQ16" s="0"/>
+      <c r="VR16" s="0"/>
+      <c r="VS16" s="0"/>
+      <c r="VT16" s="0"/>
+      <c r="VU16" s="0"/>
+      <c r="VV16" s="0"/>
+      <c r="VW16" s="0"/>
+      <c r="VX16" s="0"/>
+      <c r="VY16" s="0"/>
+      <c r="VZ16" s="0"/>
+      <c r="WA16" s="0"/>
+      <c r="WB16" s="0"/>
+      <c r="WC16" s="0"/>
+      <c r="WD16" s="0"/>
+      <c r="WE16" s="0"/>
+      <c r="WF16" s="0"/>
+      <c r="WG16" s="0"/>
+      <c r="WH16" s="0"/>
+      <c r="WI16" s="0"/>
+      <c r="WJ16" s="0"/>
+      <c r="WK16" s="0"/>
+      <c r="WL16" s="0"/>
+      <c r="WM16" s="0"/>
+      <c r="WN16" s="0"/>
+      <c r="WO16" s="0"/>
+      <c r="WP16" s="0"/>
+      <c r="WQ16" s="0"/>
+      <c r="WR16" s="0"/>
+      <c r="WS16" s="0"/>
+      <c r="WT16" s="0"/>
+      <c r="WU16" s="0"/>
+      <c r="WV16" s="0"/>
+      <c r="WW16" s="0"/>
+      <c r="WX16" s="0"/>
+      <c r="WY16" s="0"/>
+      <c r="WZ16" s="0"/>
+      <c r="XA16" s="0"/>
+      <c r="XB16" s="0"/>
+      <c r="XC16" s="0"/>
+      <c r="XD16" s="0"/>
+      <c r="XE16" s="0"/>
+      <c r="XF16" s="0"/>
+      <c r="XG16" s="0"/>
+      <c r="XH16" s="0"/>
+      <c r="XI16" s="0"/>
+      <c r="XJ16" s="0"/>
+      <c r="XK16" s="0"/>
+      <c r="XL16" s="0"/>
+      <c r="XM16" s="0"/>
+      <c r="XN16" s="0"/>
+      <c r="XO16" s="0"/>
+      <c r="XP16" s="0"/>
+      <c r="XQ16" s="0"/>
+      <c r="XR16" s="0"/>
+      <c r="XS16" s="0"/>
+      <c r="XT16" s="0"/>
+      <c r="XU16" s="0"/>
+      <c r="XV16" s="0"/>
+      <c r="XW16" s="0"/>
+      <c r="XX16" s="0"/>
+      <c r="XY16" s="0"/>
+      <c r="XZ16" s="0"/>
+      <c r="YA16" s="0"/>
+      <c r="YB16" s="0"/>
+      <c r="YC16" s="0"/>
+      <c r="YD16" s="0"/>
+      <c r="YE16" s="0"/>
+      <c r="YF16" s="0"/>
+      <c r="YG16" s="0"/>
+      <c r="YH16" s="0"/>
+      <c r="YI16" s="0"/>
+      <c r="YJ16" s="0"/>
+      <c r="YK16" s="0"/>
+      <c r="YL16" s="0"/>
+      <c r="YM16" s="0"/>
+      <c r="YN16" s="0"/>
+      <c r="YO16" s="0"/>
+      <c r="YP16" s="0"/>
+      <c r="YQ16" s="0"/>
+      <c r="YR16" s="0"/>
+      <c r="YS16" s="0"/>
+      <c r="YT16" s="0"/>
+      <c r="YU16" s="0"/>
+      <c r="YV16" s="0"/>
+      <c r="YW16" s="0"/>
+      <c r="YX16" s="0"/>
+      <c r="YY16" s="0"/>
+      <c r="YZ16" s="0"/>
+      <c r="ZA16" s="0"/>
+      <c r="ZB16" s="0"/>
+      <c r="ZC16" s="0"/>
+      <c r="ZD16" s="0"/>
+      <c r="ZE16" s="0"/>
+      <c r="ZF16" s="0"/>
+      <c r="ZG16" s="0"/>
+      <c r="ZH16" s="0"/>
+      <c r="ZI16" s="0"/>
+      <c r="ZJ16" s="0"/>
+      <c r="ZK16" s="0"/>
+      <c r="ZL16" s="0"/>
+      <c r="ZM16" s="0"/>
+      <c r="ZN16" s="0"/>
+      <c r="ZO16" s="0"/>
+      <c r="ZP16" s="0"/>
+      <c r="ZQ16" s="0"/>
+      <c r="ZR16" s="0"/>
+      <c r="ZS16" s="0"/>
+      <c r="ZT16" s="0"/>
+      <c r="ZU16" s="0"/>
+      <c r="ZV16" s="0"/>
+      <c r="ZW16" s="0"/>
+      <c r="ZX16" s="0"/>
+      <c r="ZY16" s="0"/>
+      <c r="ZZ16" s="0"/>
+      <c r="AAA16" s="0"/>
+      <c r="AAB16" s="0"/>
+      <c r="AAC16" s="0"/>
+      <c r="AAD16" s="0"/>
+      <c r="AAE16" s="0"/>
+      <c r="AAF16" s="0"/>
+      <c r="AAG16" s="0"/>
+      <c r="AAH16" s="0"/>
+      <c r="AAI16" s="0"/>
+      <c r="AAJ16" s="0"/>
+      <c r="AAK16" s="0"/>
+      <c r="AAL16" s="0"/>
+      <c r="AAM16" s="0"/>
+      <c r="AAN16" s="0"/>
+      <c r="AAO16" s="0"/>
+      <c r="AAP16" s="0"/>
+      <c r="AAQ16" s="0"/>
+      <c r="AAR16" s="0"/>
+      <c r="AAS16" s="0"/>
+      <c r="AAT16" s="0"/>
+      <c r="AAU16" s="0"/>
+      <c r="AAV16" s="0"/>
+      <c r="AAW16" s="0"/>
+      <c r="AAX16" s="0"/>
+      <c r="AAY16" s="0"/>
+      <c r="AAZ16" s="0"/>
+      <c r="ABA16" s="0"/>
+      <c r="ABB16" s="0"/>
+      <c r="ABC16" s="0"/>
+      <c r="ABD16" s="0"/>
+      <c r="ABE16" s="0"/>
+      <c r="ABF16" s="0"/>
+      <c r="ABG16" s="0"/>
+      <c r="ABH16" s="0"/>
+      <c r="ABI16" s="0"/>
+      <c r="ABJ16" s="0"/>
+      <c r="ABK16" s="0"/>
+      <c r="ABL16" s="0"/>
+      <c r="ABM16" s="0"/>
+      <c r="ABN16" s="0"/>
+      <c r="ABO16" s="0"/>
+      <c r="ABP16" s="0"/>
+      <c r="ABQ16" s="0"/>
+      <c r="ABR16" s="0"/>
+      <c r="ABS16" s="0"/>
+      <c r="ABT16" s="0"/>
+      <c r="ABU16" s="0"/>
+      <c r="ABV16" s="0"/>
+      <c r="ABW16" s="0"/>
+      <c r="ABX16" s="0"/>
+      <c r="ABY16" s="0"/>
+      <c r="ABZ16" s="0"/>
+      <c r="ACA16" s="0"/>
+      <c r="ACB16" s="0"/>
+      <c r="ACC16" s="0"/>
+      <c r="ACD16" s="0"/>
+      <c r="ACE16" s="0"/>
+      <c r="ACF16" s="0"/>
+      <c r="ACG16" s="0"/>
+      <c r="ACH16" s="0"/>
+      <c r="ACI16" s="0"/>
+      <c r="ACJ16" s="0"/>
+      <c r="ACK16" s="0"/>
+      <c r="ACL16" s="0"/>
+      <c r="ACM16" s="0"/>
+      <c r="ACN16" s="0"/>
+      <c r="ACO16" s="0"/>
+      <c r="ACP16" s="0"/>
+      <c r="ACQ16" s="0"/>
+      <c r="ACR16" s="0"/>
+      <c r="ACS16" s="0"/>
+      <c r="ACT16" s="0"/>
+      <c r="ACU16" s="0"/>
+      <c r="ACV16" s="0"/>
+      <c r="ACW16" s="0"/>
+      <c r="ACX16" s="0"/>
+      <c r="ACY16" s="0"/>
+      <c r="ACZ16" s="0"/>
+      <c r="ADA16" s="0"/>
+      <c r="ADB16" s="0"/>
+      <c r="ADC16" s="0"/>
+      <c r="ADD16" s="0"/>
+      <c r="ADE16" s="0"/>
+      <c r="ADF16" s="0"/>
+      <c r="ADG16" s="0"/>
+      <c r="ADH16" s="0"/>
+      <c r="ADI16" s="0"/>
+      <c r="ADJ16" s="0"/>
+      <c r="ADK16" s="0"/>
+      <c r="ADL16" s="0"/>
+      <c r="ADM16" s="0"/>
+      <c r="ADN16" s="0"/>
+      <c r="ADO16" s="0"/>
+      <c r="ADP16" s="0"/>
+      <c r="ADQ16" s="0"/>
+      <c r="ADR16" s="0"/>
+      <c r="ADS16" s="0"/>
+      <c r="ADT16" s="0"/>
+      <c r="ADU16" s="0"/>
+      <c r="ADV16" s="0"/>
+      <c r="ADW16" s="0"/>
+      <c r="ADX16" s="0"/>
+      <c r="ADY16" s="0"/>
+      <c r="ADZ16" s="0"/>
+      <c r="AEA16" s="0"/>
+      <c r="AEB16" s="0"/>
+      <c r="AEC16" s="0"/>
+      <c r="AED16" s="0"/>
+      <c r="AEE16" s="0"/>
+      <c r="AEF16" s="0"/>
+      <c r="AEG16" s="0"/>
+      <c r="AEH16" s="0"/>
+      <c r="AEI16" s="0"/>
+      <c r="AEJ16" s="0"/>
+      <c r="AEK16" s="0"/>
+      <c r="AEL16" s="0"/>
+      <c r="AEM16" s="0"/>
+      <c r="AEN16" s="0"/>
+      <c r="AEO16" s="0"/>
+      <c r="AEP16" s="0"/>
+      <c r="AEQ16" s="0"/>
+      <c r="AER16" s="0"/>
+      <c r="AES16" s="0"/>
+      <c r="AET16" s="0"/>
+      <c r="AEU16" s="0"/>
+      <c r="AEV16" s="0"/>
+      <c r="AEW16" s="0"/>
+      <c r="AEX16" s="0"/>
+      <c r="AEY16" s="0"/>
+      <c r="AEZ16" s="0"/>
+      <c r="AFA16" s="0"/>
+      <c r="AFB16" s="0"/>
+      <c r="AFC16" s="0"/>
+      <c r="AFD16" s="0"/>
+      <c r="AFE16" s="0"/>
+      <c r="AFF16" s="0"/>
+      <c r="AFG16" s="0"/>
+      <c r="AFH16" s="0"/>
+      <c r="AFI16" s="0"/>
+      <c r="AFJ16" s="0"/>
+      <c r="AFK16" s="0"/>
+      <c r="AFL16" s="0"/>
+      <c r="AFM16" s="0"/>
+      <c r="AFN16" s="0"/>
+      <c r="AFO16" s="0"/>
+      <c r="AFP16" s="0"/>
+      <c r="AFQ16" s="0"/>
+      <c r="AFR16" s="0"/>
+      <c r="AFS16" s="0"/>
+      <c r="AFT16" s="0"/>
+      <c r="AFU16" s="0"/>
+      <c r="AFV16" s="0"/>
+      <c r="AFW16" s="0"/>
+      <c r="AFX16" s="0"/>
+      <c r="AFY16" s="0"/>
+      <c r="AFZ16" s="0"/>
+      <c r="AGA16" s="0"/>
+      <c r="AGB16" s="0"/>
+      <c r="AGC16" s="0"/>
+      <c r="AGD16" s="0"/>
+      <c r="AGE16" s="0"/>
+      <c r="AGF16" s="0"/>
+      <c r="AGG16" s="0"/>
+      <c r="AGH16" s="0"/>
+      <c r="AGI16" s="0"/>
+      <c r="AGJ16" s="0"/>
+      <c r="AGK16" s="0"/>
+      <c r="AGL16" s="0"/>
+      <c r="AGM16" s="0"/>
+      <c r="AGN16" s="0"/>
+      <c r="AGO16" s="0"/>
+      <c r="AGP16" s="0"/>
+      <c r="AGQ16" s="0"/>
+      <c r="AGR16" s="0"/>
+      <c r="AGS16" s="0"/>
+      <c r="AGT16" s="0"/>
+      <c r="AGU16" s="0"/>
+      <c r="AGV16" s="0"/>
+      <c r="AGW16" s="0"/>
+      <c r="AGX16" s="0"/>
+      <c r="AGY16" s="0"/>
+      <c r="AGZ16" s="0"/>
+      <c r="AHA16" s="0"/>
+      <c r="AHB16" s="0"/>
+      <c r="AHC16" s="0"/>
+      <c r="AHD16" s="0"/>
+      <c r="AHE16" s="0"/>
+      <c r="AHF16" s="0"/>
+      <c r="AHG16" s="0"/>
+      <c r="AHH16" s="0"/>
+      <c r="AHI16" s="0"/>
+      <c r="AHJ16" s="0"/>
+      <c r="AHK16" s="0"/>
+      <c r="AHL16" s="0"/>
+      <c r="AHM16" s="0"/>
+      <c r="AHN16" s="0"/>
+      <c r="AHO16" s="0"/>
+      <c r="AHP16" s="0"/>
+      <c r="AHQ16" s="0"/>
+      <c r="AHR16" s="0"/>
+      <c r="AHS16" s="0"/>
+      <c r="AHT16" s="0"/>
+      <c r="AHU16" s="0"/>
+      <c r="AHV16" s="0"/>
+      <c r="AHW16" s="0"/>
+      <c r="AHX16" s="0"/>
+      <c r="AHY16" s="0"/>
+      <c r="AHZ16" s="0"/>
+      <c r="AIA16" s="0"/>
+      <c r="AIB16" s="0"/>
+      <c r="AIC16" s="0"/>
+      <c r="AID16" s="0"/>
+      <c r="AIE16" s="0"/>
+      <c r="AIF16" s="0"/>
+      <c r="AIG16" s="0"/>
+      <c r="AIH16" s="0"/>
+      <c r="AII16" s="0"/>
+      <c r="AIJ16" s="0"/>
+      <c r="AIK16" s="0"/>
+      <c r="AIL16" s="0"/>
+      <c r="AIM16" s="0"/>
+      <c r="AIN16" s="0"/>
+      <c r="AIO16" s="0"/>
+      <c r="AIP16" s="0"/>
+      <c r="AIQ16" s="0"/>
+      <c r="AIR16" s="0"/>
+      <c r="AIS16" s="0"/>
+      <c r="AIT16" s="0"/>
+      <c r="AIU16" s="0"/>
+      <c r="AIV16" s="0"/>
+      <c r="AIW16" s="0"/>
+      <c r="AIX16" s="0"/>
+      <c r="AIY16" s="0"/>
+      <c r="AIZ16" s="0"/>
+      <c r="AJA16" s="0"/>
+      <c r="AJB16" s="0"/>
+      <c r="AJC16" s="0"/>
+      <c r="AJD16" s="0"/>
+      <c r="AJE16" s="0"/>
+      <c r="AJF16" s="0"/>
+      <c r="AJG16" s="0"/>
+      <c r="AJH16" s="0"/>
+      <c r="AJI16" s="0"/>
+      <c r="AJJ16" s="0"/>
+      <c r="AJK16" s="0"/>
+      <c r="AJL16" s="0"/>
+      <c r="AJM16" s="0"/>
+      <c r="AJN16" s="0"/>
+      <c r="AJO16" s="0"/>
+      <c r="AJP16" s="0"/>
+      <c r="AJQ16" s="0"/>
+      <c r="AJR16" s="0"/>
+      <c r="AJS16" s="0"/>
+      <c r="AJT16" s="0"/>
+      <c r="AJU16" s="0"/>
+      <c r="AJV16" s="0"/>
+      <c r="AJW16" s="0"/>
+      <c r="AJX16" s="0"/>
+      <c r="AJY16" s="0"/>
+      <c r="AJZ16" s="0"/>
+      <c r="AKA16" s="0"/>
+      <c r="AKB16" s="0"/>
+      <c r="AKC16" s="0"/>
+      <c r="AKD16" s="0"/>
+      <c r="AKE16" s="0"/>
+      <c r="AKF16" s="0"/>
+      <c r="AKG16" s="0"/>
+      <c r="AKH16" s="0"/>
+      <c r="AKI16" s="0"/>
+      <c r="AKJ16" s="0"/>
+      <c r="AKK16" s="0"/>
+      <c r="AKL16" s="0"/>
+      <c r="AKM16" s="0"/>
+      <c r="AKN16" s="0"/>
+      <c r="AKO16" s="0"/>
+      <c r="AKP16" s="0"/>
+      <c r="AKQ16" s="0"/>
+      <c r="AKR16" s="0"/>
+      <c r="AKS16" s="0"/>
+      <c r="AKT16" s="0"/>
+      <c r="AKU16" s="0"/>
+      <c r="AKV16" s="0"/>
+      <c r="AKW16" s="0"/>
+      <c r="AKX16" s="0"/>
+      <c r="AKY16" s="0"/>
+      <c r="AKZ16" s="0"/>
+      <c r="ALA16" s="0"/>
+      <c r="ALB16" s="0"/>
+      <c r="ALC16" s="0"/>
+      <c r="ALD16" s="0"/>
+      <c r="ALE16" s="0"/>
+      <c r="ALF16" s="0"/>
+      <c r="ALG16" s="0"/>
+      <c r="ALH16" s="0"/>
+      <c r="ALI16" s="0"/>
+      <c r="ALJ16" s="0"/>
+      <c r="ALK16" s="0"/>
+      <c r="ALL16" s="0"/>
+      <c r="ALM16" s="0"/>
+      <c r="ALN16" s="0"/>
+      <c r="ALO16" s="0"/>
+      <c r="ALP16" s="0"/>
+      <c r="ALQ16" s="0"/>
+      <c r="ALR16" s="0"/>
+      <c r="ALS16" s="0"/>
+      <c r="ALT16" s="0"/>
+      <c r="ALU16" s="0"/>
+      <c r="ALV16" s="0"/>
+      <c r="ALW16" s="0"/>
+      <c r="ALX16" s="0"/>
+      <c r="ALY16" s="0"/>
+      <c r="ALZ16" s="0"/>
+      <c r="AMA16" s="0"/>
+      <c r="AMB16" s="0"/>
+      <c r="AMC16" s="0"/>
+      <c r="AMD16" s="0"/>
+      <c r="AME16" s="0"/>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="150" t="s">
         <v>33</v>
@@ -56121,7 +57120,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
       <c r="B18" s="150" t="s">
         <v>34</v>
@@ -57179,7 +58178,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="150" t="s">
         <v>34</v>
@@ -58237,7 +59236,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="150" t="s">
         <v>35</v>
@@ -59295,7 +60294,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="150" t="s">
         <v>35</v>
       </c>
@@ -59345,7 +60344,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="150" t="s">
         <v>36</v>
       </c>
@@ -59395,7 +60394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="156" t="s">
         <v>36</v>
       </c>
@@ -59482,7 +60481,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -59870,12 +60869,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="103.692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -60028,12 +61027,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="186" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="186" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="186" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="186" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="186" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="186" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="187" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="186" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="186" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="186" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="186" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="186" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="186" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
@@ -62739,7 +63738,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -62960,7 +63959,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -63265,12 +64264,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="233" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="233" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="233" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="233" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="233" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="233" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="233" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="233" width="109.153846153846"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="233" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="233" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="233" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="233" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
@@ -47,12 +47,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -73,6 +75,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -84,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="362">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -553,9 +557,6 @@
   </si>
   <si>
     <t xml:space="preserve">มีสินค้า Coke No Sugar 330/450ml  อย่างน้อย 12 ขวด?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC 450ml</t>
   </si>
   <si>
     <t xml:space="preserve">มีสินค้า CC 450 ml  อย่างน้อย 12 ขวด?</t>
@@ -1767,7 +1768,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2244,7 +2245,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2266,6 +2267,10 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2296,7 +2301,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2928,28 +2933,28 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.8016194331984"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="84.3036437246964"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -38769,18 +38774,18 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="10" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -38907,15 +38912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="127" customFormat="true" ht="123.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="128" customFormat="true" ht="123.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="112"/>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="127" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="122" t="s">
@@ -38939,13 +38944,13 @@
     </row>
     <row r="9" customFormat="false" ht="50.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="112"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="127" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="122" t="s">
@@ -38972,10 +38977,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="129" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="122" t="n">
@@ -38997,15 +39002,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="112"/>
       <c r="B11" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="127" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="122" t="n">
@@ -39026,7 +39031,7 @@
       <c r="J11" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="129"/>
+      <c r="K11" s="130"/>
     </row>
     <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="112"/>
@@ -39036,7 +39041,7 @@
       <c r="C12" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="131" t="s">
         <v>111</v>
       </c>
       <c r="E12" s="122" t="n">
@@ -39060,13 +39065,13 @@
     </row>
     <row r="13" customFormat="false" ht="38.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="112"/>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="127" t="s">
         <v>113</v>
       </c>
       <c r="E13" s="122" t="s">
@@ -39093,10 +39098,10 @@
       <c r="B14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="127" t="s">
         <v>115</v>
       </c>
       <c r="E14" s="122" t="n">
@@ -39123,10 +39128,10 @@
       <c r="B15" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="127" t="s">
         <v>117</v>
       </c>
       <c r="E15" s="122" t="n">
@@ -39150,13 +39155,13 @@
     </row>
     <row r="16" customFormat="false" ht="279.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="112"/>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="131" t="s">
+      <c r="D16" s="132" t="s">
         <v>119</v>
       </c>
       <c r="E16" s="122" t="s">
@@ -39183,10 +39188,10 @@
       <c r="B17" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="127" t="s">
         <v>121</v>
       </c>
       <c r="E17" s="122" t="n">
@@ -39208,33 +39213,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="112"/>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="135" t="n">
+      <c r="E18" s="136" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="136" t="n">
+      <c r="F18" s="137" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="136" t="n">
+      <c r="G18" s="137" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="136" t="n">
+      <c r="H18" s="137" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="136" t="n">
+      <c r="I18" s="137" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="137" t="n">
+      <c r="J18" s="138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39262,16 +39267,16 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
@@ -41330,12 +41335,12 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="106" t="s">
         <v>124</v>
       </c>
@@ -42360,10 +42365,10 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="106" t="s">
         <v>88</v>
       </c>
@@ -43388,34 +43393,34 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140" t="s">
+      <c r="G5" s="140"/>
+      <c r="H5" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140" t="s">
+      <c r="I5" s="141"/>
+      <c r="J5" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140" t="s">
+      <c r="M5" s="141"/>
+      <c r="N5" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="141" t="s">
+      <c r="O5" s="141"/>
+      <c r="P5" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="141"/>
+      <c r="Q5" s="142"/>
       <c r="R5" s="0"/>
       <c r="S5" s="0"/>
       <c r="T5" s="0"/>
@@ -44426,52 +44431,52 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="143" t="s">
+      <c r="J6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="144" t="s">
+      <c r="K6" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="L6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="144" t="s">
+      <c r="M6" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="143" t="s">
+      <c r="N6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="144" t="s">
+      <c r="O6" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="143" t="s">
+      <c r="P6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="144" t="s">
+      <c r="Q6" s="145" t="s">
         <v>45</v>
       </c>
       <c r="R6" s="0"/>
@@ -45484,52 +45489,52 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="147" t="n">
+      <c r="D7" s="148" t="n">
         <v>582</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="149" t="s">
+      <c r="F7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="149" t="s">
+      <c r="H7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="149" t="s">
+      <c r="J7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="149" t="s">
+      <c r="K7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="149" t="s">
+      <c r="L7" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="149" t="s">
+      <c r="M7" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="N7" s="149" t="s">
+      <c r="N7" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="149" t="s">
+      <c r="O7" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="149" t="s">
+      <c r="P7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="Q7" s="149" t="s">
+      <c r="Q7" s="150" t="s">
         <v>129</v>
       </c>
       <c r="R7" s="0"/>
@@ -46542,52 +46547,52 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="152" t="n">
+      <c r="D8" s="153" t="n">
         <v>583</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="153" t="s">
+      <c r="F8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="153" t="s">
+      <c r="G8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="153" t="s">
+      <c r="H8" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="153" t="s">
+      <c r="I8" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="153" t="s">
+      <c r="K8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="153" t="s">
+      <c r="L8" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="153" t="s">
+      <c r="M8" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N8" s="153" t="s">
+      <c r="N8" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="153" t="s">
+      <c r="O8" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P8" s="153" t="s">
+      <c r="P8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q8" s="153" t="s">
+      <c r="Q8" s="154" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="0"/>
@@ -47600,52 +47605,52 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="152" t="n">
+      <c r="D9" s="153" t="n">
         <v>584</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="155" t="s">
+      <c r="K9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="155" t="s">
+      <c r="L9" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="155" t="s">
+      <c r="M9" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="N9" s="155" t="s">
+      <c r="N9" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="155" t="s">
+      <c r="O9" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="155" t="s">
+      <c r="P9" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="155" t="s">
+      <c r="Q9" s="156" t="s">
         <v>129</v>
       </c>
       <c r="R9" s="0"/>
@@ -48658,52 +48663,52 @@
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="152" t="n">
+      <c r="D10" s="153" t="n">
         <v>585</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="155" t="s">
+      <c r="J10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="155" t="s">
+      <c r="K10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="155" t="s">
+      <c r="L10" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="155" t="s">
+      <c r="M10" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="N10" s="155" t="s">
+      <c r="N10" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="155" t="s">
+      <c r="O10" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="155" t="s">
+      <c r="P10" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="Q10" s="155" t="s">
+      <c r="Q10" s="156" t="s">
         <v>129</v>
       </c>
       <c r="R10" s="0"/>
@@ -49716,52 +49721,52 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="152" t="n">
+      <c r="D11" s="153" t="n">
         <v>586</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="153" t="s">
+      <c r="F11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="153" t="s">
+      <c r="G11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="153" t="s">
+      <c r="H11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="153" t="s">
+      <c r="I11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="153" t="s">
+      <c r="J11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="153" t="s">
+      <c r="K11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="153" t="s">
+      <c r="L11" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="153" t="s">
+      <c r="M11" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="153" t="s">
+      <c r="N11" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="153" t="s">
+      <c r="O11" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="153" t="s">
+      <c r="P11" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="153" t="s">
+      <c r="Q11" s="154" t="s">
         <v>130</v>
       </c>
       <c r="R11" s="0"/>
@@ -50774,52 +50779,52 @@
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="154" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="152" t="n">
+      <c r="D12" s="153" t="n">
         <v>587</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="153" t="s">
+      <c r="F12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="153" t="s">
+      <c r="G12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="153" t="s">
+      <c r="H12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="153" t="s">
+      <c r="J12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="153" t="s">
+      <c r="K12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="153" t="s">
+      <c r="L12" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="153" t="s">
+      <c r="M12" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="153" t="s">
+      <c r="N12" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="153" t="s">
+      <c r="O12" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P12" s="153" t="s">
+      <c r="P12" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q12" s="153" t="s">
+      <c r="Q12" s="154" t="s">
         <v>130</v>
       </c>
       <c r="R12" s="0"/>
@@ -51832,52 +51837,52 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="152" t="n">
+      <c r="C13" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="153" t="n">
         <v>588</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="153" t="s">
+      <c r="F13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="153" t="s">
+      <c r="G13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="153" t="s">
+      <c r="H13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="153" t="s">
+      <c r="I13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="153" t="s">
+      <c r="J13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="153" t="s">
+      <c r="K13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="153" t="s">
+      <c r="L13" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="153" t="s">
+      <c r="M13" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="153" t="s">
+      <c r="N13" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O13" s="153" t="s">
+      <c r="O13" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="153" t="s">
+      <c r="P13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q13" s="153" t="s">
+      <c r="Q13" s="154" t="s">
         <v>130</v>
       </c>
       <c r="R13" s="0"/>
@@ -52890,52 +52895,52 @@
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="151" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="152" t="n">
+      <c r="C14" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="153" t="n">
         <v>589</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="155" t="s">
+      <c r="I14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="155" t="s">
+      <c r="J14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="155" t="s">
+      <c r="K14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="155" t="s">
+      <c r="L14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="155" t="s">
+      <c r="M14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="155" t="s">
+      <c r="N14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="155" t="s">
+      <c r="O14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="155" t="s">
+      <c r="P14" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="155" t="s">
+      <c r="Q14" s="156" t="s">
         <v>129</v>
       </c>
       <c r="R14" s="0"/>
@@ -53948,52 +53953,52 @@
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="151" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="152" t="n">
+      <c r="C15" s="152" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="153" t="n">
         <v>590</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="153" t="s">
+      <c r="F15" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="153" t="s">
+      <c r="G15" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="153" t="s">
+      <c r="H15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="153" t="s">
+      <c r="I15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="153" t="s">
+      <c r="J15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="153" t="s">
+      <c r="K15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="153" t="s">
+      <c r="L15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="153" t="s">
+      <c r="M15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="153" t="s">
+      <c r="N15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="153" t="s">
+      <c r="O15" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="153" t="s">
+      <c r="P15" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q15" s="153" t="s">
+      <c r="Q15" s="154" t="s">
         <v>130</v>
       </c>
       <c r="R15" s="0"/>
@@ -55006,52 +55011,52 @@
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="152" t="n">
+      <c r="C16" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="153" t="n">
         <v>591</v>
       </c>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="153" t="s">
+      <c r="F16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="153" t="s">
+      <c r="G16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="153" t="s">
+      <c r="H16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="153" t="s">
+      <c r="I16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="153" t="s">
+      <c r="J16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="153" t="s">
+      <c r="K16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="153" t="s">
+      <c r="L16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="153" t="s">
+      <c r="M16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N16" s="153" t="s">
+      <c r="N16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="153" t="s">
+      <c r="O16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="153" t="s">
+      <c r="P16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="153" t="s">
+      <c r="Q16" s="154" t="s">
         <v>129</v>
       </c>
       <c r="R16" s="0"/>
@@ -56064,52 +56069,52 @@
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="154" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="152" t="n">
+      <c r="C17" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="153" t="n">
         <v>592</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="153" t="s">
+      <c r="F17" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="153" t="s">
+      <c r="H17" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="153" t="s">
+      <c r="I17" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="153" t="s">
+      <c r="J17" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="153" t="s">
+      <c r="K17" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="153" t="s">
+      <c r="L17" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="153" t="s">
+      <c r="M17" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="N17" s="153" t="s">
+      <c r="N17" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="153" t="s">
+      <c r="O17" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="153" t="s">
+      <c r="P17" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="Q17" s="153" t="s">
+      <c r="Q17" s="154" t="s">
         <v>129</v>
       </c>
       <c r="R17" s="0"/>
@@ -57122,52 +57127,52 @@
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="154" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="152" t="n">
+      <c r="C18" s="155" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="153" t="n">
         <v>593</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="153" t="s">
+      <c r="F18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="153" t="s">
+      <c r="G18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="153" t="s">
+      <c r="H18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="153" t="s">
+      <c r="I18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="153" t="s">
+      <c r="J18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="153" t="s">
+      <c r="K18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="153" t="s">
+      <c r="L18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="153" t="s">
+      <c r="M18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="153" t="s">
+      <c r="N18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="153" t="s">
+      <c r="O18" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="153" t="s">
+      <c r="P18" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="153" t="s">
+      <c r="Q18" s="154" t="s">
         <v>129</v>
       </c>
       <c r="R18" s="0"/>
@@ -58180,52 +58185,52 @@
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="154" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="152" t="n">
+      <c r="C19" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="153" t="n">
         <v>594</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="E19" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="153" t="s">
+      <c r="F19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="153" t="s">
+      <c r="G19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="153" t="s">
+      <c r="H19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="153" t="s">
+      <c r="I19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="153" t="s">
+      <c r="J19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="153" t="s">
+      <c r="K19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="153" t="s">
+      <c r="L19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="153" t="s">
+      <c r="M19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="153" t="s">
+      <c r="N19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="153" t="s">
+      <c r="O19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="153" t="s">
+      <c r="P19" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="Q19" s="153" t="s">
+      <c r="Q19" s="154" t="s">
         <v>130</v>
       </c>
       <c r="R19" s="0"/>
@@ -59238,52 +59243,52 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="152" t="n">
+      <c r="C20" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="153" t="n">
         <v>595</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="153" t="s">
+      <c r="F20" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="153" t="s">
+      <c r="G20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="153" t="s">
+      <c r="H20" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="153" t="s">
+      <c r="I20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="153" t="s">
+      <c r="J20" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="153" t="s">
+      <c r="K20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="153" t="s">
+      <c r="L20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="153" t="s">
+      <c r="M20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N20" s="153" t="s">
+      <c r="N20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="153" t="s">
+      <c r="O20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="153" t="s">
+      <c r="P20" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="Q20" s="153" t="s">
+      <c r="Q20" s="154" t="s">
         <v>129</v>
       </c>
       <c r="R20" s="0"/>
@@ -60295,152 +60300,152 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="152" t="n">
+      <c r="C21" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="153" t="n">
         <v>596</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="153" t="s">
+      <c r="F21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="153" t="s">
+      <c r="G21" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="153" t="s">
+      <c r="H21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="153" t="s">
+      <c r="I21" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="153" t="s">
+      <c r="J21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="153" t="s">
+      <c r="K21" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="153" t="s">
+      <c r="L21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="153" t="s">
+      <c r="M21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N21" s="153" t="s">
+      <c r="N21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="O21" s="153" t="s">
+      <c r="O21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P21" s="153" t="s">
+      <c r="P21" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="Q21" s="153" t="s">
+      <c r="Q21" s="154" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="152" t="n">
+      <c r="C22" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="153" t="n">
         <v>597</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="153" t="s">
+      <c r="G22" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="153" t="s">
+      <c r="H22" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="153" t="s">
+      <c r="I22" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="153" t="s">
+      <c r="J22" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="153" t="s">
+      <c r="K22" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="153" t="s">
+      <c r="L22" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="M22" s="153" t="s">
+      <c r="M22" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="N22" s="153" t="s">
+      <c r="N22" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="153" t="s">
+      <c r="O22" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="153" t="s">
+      <c r="P22" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="Q22" s="153" t="s">
+      <c r="Q22" s="154" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="151" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="157" t="n">
+      <c r="C23" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="158" t="n">
         <v>598</v>
       </c>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="158" t="s">
+      <c r="F23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="158" t="s">
+      <c r="G23" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="158" t="s">
+      <c r="H23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="158" t="s">
+      <c r="I23" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="158" t="s">
+      <c r="J23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="158" t="s">
+      <c r="K23" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="158" t="s">
+      <c r="L23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="M23" s="158" t="s">
+      <c r="M23" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="158" t="s">
+      <c r="N23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="O23" s="158" t="s">
+      <c r="O23" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="158" t="s">
+      <c r="P23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="Q23" s="158" t="s">
+      <c r="Q23" s="159" t="s">
         <v>130</v>
       </c>
     </row>
@@ -60475,13 +60480,13 @@
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -60490,9 +60495,9 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="159"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="106"/>
       <c r="E3" s="106"/>
@@ -60501,41 +60506,41 @@
       <c r="H3" s="106"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
     </row>
     <row r="5" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="162" t="s">
+      <c r="D5" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="163" t="s">
+      <c r="H5" s="164" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="116" t="s">
@@ -60558,7 +60563,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="151" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="122" t="n">
@@ -60581,7 +60586,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="151" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="122" t="s">
@@ -60604,7 +60609,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="151" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="122" t="s">
@@ -60627,7 +60632,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="151" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="122" t="n">
@@ -60650,7 +60655,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="151" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="122" t="n">
@@ -60673,7 +60678,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="151" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="122" t="n">
@@ -60696,7 +60701,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="151" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="122" t="s">
@@ -60719,7 +60724,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="165" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="122" t="n">
@@ -60742,7 +60747,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="151" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="122" t="n">
@@ -60765,7 +60770,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="151" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="122" t="s">
@@ -60788,7 +60793,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="151" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="122" t="n">
@@ -60811,25 +60816,25 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="135" t="n">
+      <c r="C18" s="136" t="n">
         <v>8</v>
       </c>
-      <c r="D18" s="136" t="n">
+      <c r="D18" s="137" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="136" t="n">
+      <c r="E18" s="137" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="136" t="n">
+      <c r="F18" s="137" t="n">
         <v>5</v>
       </c>
-      <c r="G18" s="136" t="n">
+      <c r="G18" s="137" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="137" t="n">
+      <c r="H18" s="138" t="n">
         <v>6</v>
       </c>
     </row>
@@ -60869,138 +60874,138 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.51012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="167" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="C1" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="D1" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="E1" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="F1" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="168" t="s">
+      <c r="H1" s="170" t="s">
         <v>154</v>
-      </c>
-      <c r="H1" s="169" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="D2" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="E2" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="170" t="s">
+      <c r="F2" s="174" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="175" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" s="176" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" s="173" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="174" t="n">
-        <v>8</v>
-      </c>
-      <c r="H2" s="175" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="179" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="178" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="171" t="s">
+      <c r="D3" s="172" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="177" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="173" t="s">
+      <c r="F3" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="179" t="n">
+      <c r="G3" s="180" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="175"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="D4" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="182" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="179" t="n">
+      <c r="G4" s="180" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="175"/>
+      <c r="H4" s="176"/>
     </row>
     <row r="5" customFormat="false" ht="113.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="184" t="s">
+      <c r="B5" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="182" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="185" t="n">
+      <c r="F5" s="183" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="175"/>
+      <c r="H5" s="176"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -61020,2696 +61025,2696 @@
   </sheetPr>
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="186" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="186" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="186" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="186" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="187" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="186" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="186" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="186" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="186" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="187" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="187" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="187" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="187" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="188" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="187" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="187" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="187" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="187" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="189" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="189" t="s">
+      <c r="B1" s="190" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="190" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="189" t="s">
+      <c r="E1" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="189" t="s">
+      <c r="F1" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="190" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="190" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="189" t="s">
+      <c r="H1" s="190" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="189" t="s">
+      <c r="I1" s="192" t="s">
         <v>170</v>
-      </c>
-      <c r="I1" s="191" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="195" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194" t="s">
+      <c r="F2" s="196" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" s="195" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="195" t="n">
-        <v>16</v>
-      </c>
-      <c r="G2" s="194" t="s">
+      <c r="H2" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="I2" s="197" t="s">
         <v>175</v>
-      </c>
-      <c r="I2" s="196" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="199" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="198" t="n">
-        <v>23</v>
-      </c>
-      <c r="G3" s="194" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="197" t="s">
+      <c r="H3" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I3" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="199" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="198" t="n">
-        <v>29</v>
-      </c>
-      <c r="G4" s="194" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="197" t="s">
+      <c r="H4" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I4" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="197" t="s">
+      <c r="C5" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="199" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="198" t="n">
-        <v>35</v>
-      </c>
-      <c r="G5" s="194" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="197" t="s">
+      <c r="H5" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I5" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="199" t="n">
+        <v>41</v>
+      </c>
+      <c r="G6" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="198" t="n">
-        <v>41</v>
-      </c>
-      <c r="G6" s="194" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="197" t="s">
+      <c r="H6" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I6" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="200" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="200" t="s">
+      <c r="C7" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="197" t="s">
+      <c r="F7" s="199" t="n">
+        <v>428</v>
+      </c>
+      <c r="G7" s="198" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="198" t="n">
-        <v>428</v>
-      </c>
-      <c r="G7" s="197" t="s">
+      <c r="H7" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="197" t="s">
+      <c r="I7" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I7" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="200" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="200" t="s">
+      <c r="C8" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="197" t="s">
+      <c r="F8" s="199" t="n">
+        <v>429</v>
+      </c>
+      <c r="G8" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="198" t="n">
-        <v>429</v>
-      </c>
-      <c r="G8" s="197" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="197" t="s">
+      <c r="H8" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I8" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="200" t="s">
+      <c r="C9" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="198" t="n">
+      <c r="F9" s="199" t="n">
         <v>430</v>
       </c>
-      <c r="G9" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="197" t="s">
+      <c r="G9" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I9" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="200" t="s">
+      <c r="C10" s="201" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="198" t="n">
+      <c r="F10" s="199" t="n">
         <v>485</v>
       </c>
-      <c r="G10" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="197" t="s">
+      <c r="G10" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I10" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="200" t="s">
+      <c r="C11" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="198" t="n">
+      <c r="F11" s="199" t="n">
         <v>432</v>
       </c>
-      <c r="G11" s="197" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="197" t="s">
+      <c r="G11" s="198" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I11" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="200" t="s">
+      <c r="C12" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="198" t="n">
+      <c r="F12" s="199" t="n">
         <v>433</v>
       </c>
-      <c r="G12" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="197" t="s">
+      <c r="G12" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I12" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="200" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="200" t="s">
+      <c r="C13" s="201" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="198" t="n">
+      <c r="F13" s="199" t="n">
         <v>434</v>
       </c>
-      <c r="G13" s="197" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="197" t="s">
+      <c r="G13" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I13" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="200" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="200" t="s">
+      <c r="C14" s="201" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="198" t="n">
+      <c r="F14" s="199" t="n">
         <v>435</v>
       </c>
-      <c r="G14" s="197" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="197" t="s">
+      <c r="G14" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I14" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="200" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="200" t="s">
+      <c r="C15" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="198" t="n">
+      <c r="F15" s="199" t="n">
         <v>436</v>
       </c>
-      <c r="G15" s="197" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="197" t="s">
+      <c r="G15" s="198" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I15" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="200" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="200" t="s">
+      <c r="C16" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="198" t="n">
+      <c r="F16" s="199" t="n">
         <v>437</v>
       </c>
-      <c r="G16" s="197" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="197" t="s">
+      <c r="G16" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I16" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="201" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201" t="s">
+      <c r="C17" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="203" t="n">
+        <v>491</v>
+      </c>
+      <c r="G17" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="202" t="n">
-        <v>491</v>
-      </c>
-      <c r="G17" s="201" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I17" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="201" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201" t="s">
+      <c r="C18" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="203" t="n">
+        <v>492</v>
+      </c>
+      <c r="G18" s="202" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="202" t="n">
-        <v>492</v>
-      </c>
-      <c r="G18" s="201" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="201" t="s">
+      <c r="H18" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I18" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="201" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="202" t="n">
+      <c r="C19" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="203" t="n">
         <v>493</v>
       </c>
-      <c r="G19" s="201" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="201" t="s">
+      <c r="G19" s="202" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I19" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="201" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="202" t="n">
+      <c r="C20" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="203" t="n">
         <v>494</v>
       </c>
-      <c r="G20" s="201" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="201" t="s">
+      <c r="G20" s="202" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I20" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="192" t="s">
+      <c r="B21" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="202" t="n">
+      <c r="C21" s="202" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="202"/>
+      <c r="E21" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="203" t="n">
         <v>495</v>
       </c>
-      <c r="G21" s="201" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="201" t="s">
+      <c r="G21" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I21" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="192" t="s">
+      <c r="B22" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="202" t="n">
+      <c r="C22" s="202" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="203" t="n">
         <v>496</v>
       </c>
-      <c r="G22" s="201" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="201" t="s">
+      <c r="G22" s="202" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I22" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="192" t="s">
+      <c r="B23" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="201" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="202" t="n">
+      <c r="C23" s="202" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="203" t="n">
         <v>497</v>
       </c>
-      <c r="G23" s="201" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="201" t="s">
+      <c r="G23" s="202" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I23" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="192" t="s">
+      <c r="B24" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="201" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="202" t="n">
+      <c r="C24" s="202" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="203" t="n">
         <v>498</v>
       </c>
-      <c r="G24" s="201" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="201" t="s">
+      <c r="G24" s="202" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I24" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="192" t="s">
+      <c r="B25" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="201" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="F25" s="202" t="n">
+      <c r="C25" s="202" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="203" t="n">
         <v>499</v>
       </c>
-      <c r="G25" s="201" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="201" t="s">
+      <c r="G25" s="202" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I25" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="192" t="s">
+      <c r="B26" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="201" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="202" t="n">
+      <c r="C26" s="202" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="203" t="n">
         <v>500</v>
       </c>
-      <c r="G26" s="201" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26" s="201" t="s">
+      <c r="G26" s="202" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I26" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="192" t="s">
+      <c r="A27" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="192" t="s">
+      <c r="B27" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="197" t="s">
+      <c r="C27" s="198" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="198" t="n">
+      <c r="F27" s="199" t="n">
         <v>45</v>
       </c>
-      <c r="G27" s="194" t="s">
+      <c r="G27" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="197" t="s">
+      <c r="I27" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I27" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="192" t="s">
+      <c r="A28" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="197" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197" t="s">
+      <c r="C28" s="198" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="198" t="n">
+      <c r="D28" s="198"/>
+      <c r="E28" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="199" t="n">
         <v>50</v>
       </c>
-      <c r="G28" s="194" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="197" t="s">
+      <c r="G28" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I28" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="197" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="198" t="n">
+      <c r="C29" s="198" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="199" t="n">
         <v>53</v>
       </c>
-      <c r="G29" s="194" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="197" t="s">
+      <c r="G29" s="195" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I29" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="192" t="s">
+      <c r="A30" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="192" t="s">
+      <c r="B30" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="197" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="198" t="n">
+      <c r="C30" s="198" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="199" t="n">
         <v>56</v>
       </c>
-      <c r="G30" s="194" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="197" t="s">
+      <c r="G30" s="195" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I30" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="192" t="s">
+      <c r="A31" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="197" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="198" t="n">
+      <c r="C31" s="198" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="199" t="n">
         <v>59</v>
       </c>
-      <c r="G31" s="194" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="197" t="s">
+      <c r="G31" s="195" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I31" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="197" t="s">
+      <c r="C32" s="198" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="199" t="n">
+        <v>62</v>
+      </c>
+      <c r="G32" s="195" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="198" t="n">
-        <v>62</v>
-      </c>
-      <c r="G32" s="194" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="197" t="s">
+      <c r="H32" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I32" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="197" t="s">
+      <c r="C33" s="198" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="199" t="n">
+        <v>65</v>
+      </c>
+      <c r="G33" s="195" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="198" t="n">
-        <v>65</v>
-      </c>
-      <c r="G33" s="194" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="197" t="s">
+      <c r="H33" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I33" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="192" t="s">
+      <c r="A34" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="192" t="s">
+      <c r="B34" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="C34" s="198" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="199" t="n">
+        <v>68</v>
+      </c>
+      <c r="G34" s="195" t="s">
         <v>223</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="198" t="n">
-        <v>68</v>
-      </c>
-      <c r="G34" s="194" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="197" t="s">
+      <c r="H34" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I34" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="192" t="s">
+      <c r="A35" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="197" t="s">
+      <c r="C35" s="198" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="199" t="n">
+        <v>71</v>
+      </c>
+      <c r="G35" s="195" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="198" t="n">
-        <v>71</v>
-      </c>
-      <c r="G35" s="194" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="197" t="s">
+      <c r="H35" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I35" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="197" t="s">
+      <c r="C36" s="198" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="199" t="n">
+        <v>74</v>
+      </c>
+      <c r="G36" s="195" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="198" t="n">
-        <v>74</v>
-      </c>
-      <c r="G36" s="194" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="197" t="s">
+      <c r="H36" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I36" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="192" t="s">
+      <c r="B37" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="200" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="197" t="s">
+      <c r="C37" s="201" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="205" t="n">
+        <v>486</v>
+      </c>
+      <c r="G37" s="198" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="204" t="n">
-        <v>486</v>
-      </c>
-      <c r="G37" s="197" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="197" t="s">
+      <c r="H37" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I37" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="192" t="s">
+      <c r="B38" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="200" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="197" t="s">
+      <c r="C38" s="201" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="205" t="n">
+        <v>484</v>
+      </c>
+      <c r="G38" s="198" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="204" t="n">
-        <v>484</v>
-      </c>
-      <c r="G38" s="197" t="s">
-        <v>232</v>
-      </c>
-      <c r="H38" s="197" t="s">
+      <c r="H38" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I38" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="192" t="s">
+      <c r="A39" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="192" t="s">
+      <c r="B39" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="200" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="205" t="n">
+      <c r="C39" s="201" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="206" t="n">
         <v>489</v>
       </c>
-      <c r="G39" s="197" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="197" t="s">
+      <c r="G39" s="198" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I39" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="192" t="s">
+      <c r="A40" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="192" t="s">
+      <c r="B40" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="200" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="205" t="n">
+      <c r="C40" s="201" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="206" t="n">
         <v>439</v>
       </c>
-      <c r="G40" s="197" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="197" t="s">
+      <c r="G40" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I40" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="192" t="s">
+      <c r="A41" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="192" t="s">
+      <c r="B41" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="200" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="204" t="n">
+      <c r="C41" s="201" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="205" t="n">
         <v>440</v>
       </c>
-      <c r="G41" s="197" t="s">
-        <v>235</v>
-      </c>
-      <c r="H41" s="197" t="s">
+      <c r="G41" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I41" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I41" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="192" t="s">
+      <c r="A42" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="192" t="s">
+      <c r="B42" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="200" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="204" t="n">
+      <c r="C42" s="201" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="205" t="n">
         <v>441</v>
       </c>
-      <c r="G42" s="197" t="s">
-        <v>236</v>
-      </c>
-      <c r="H42" s="197" t="s">
+      <c r="G42" s="198" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I42" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="192" t="s">
+      <c r="A43" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="200" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="206" t="n">
+      <c r="C43" s="201" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="207" t="n">
         <v>442</v>
       </c>
-      <c r="G43" s="197" t="s">
-        <v>237</v>
-      </c>
-      <c r="H43" s="197" t="s">
+      <c r="G43" s="198" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I43" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="192" t="s">
+      <c r="B44" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="200" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="206" t="n">
+      <c r="C44" s="201" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="207" t="n">
         <v>443</v>
       </c>
-      <c r="G44" s="197" t="s">
-        <v>238</v>
-      </c>
-      <c r="H44" s="197" t="s">
+      <c r="G44" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I44" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="200" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="206" t="n">
+      <c r="C45" s="201" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="207" t="n">
         <v>444</v>
       </c>
-      <c r="G45" s="197" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="197" t="s">
+      <c r="G45" s="198" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I45" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="192" t="s">
+      <c r="A46" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="192" t="s">
+      <c r="B46" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="200" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="206" t="n">
+      <c r="C46" s="201" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="207" t="n">
         <v>445</v>
       </c>
-      <c r="G46" s="197" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" s="197" t="s">
+      <c r="G46" s="198" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I46" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="192" t="s">
+      <c r="B47" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="200" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="204" t="n">
+      <c r="C47" s="201" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="205" t="n">
         <v>446</v>
       </c>
-      <c r="G47" s="197" t="s">
-        <v>241</v>
-      </c>
-      <c r="H47" s="197" t="s">
+      <c r="G47" s="198" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I47" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="192" t="s">
+      <c r="A48" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="192" t="s">
+      <c r="B48" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="200" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="204" t="n">
+      <c r="C48" s="201" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="205" t="n">
         <v>447</v>
       </c>
-      <c r="G48" s="197" t="s">
-        <v>242</v>
-      </c>
-      <c r="H48" s="197" t="s">
+      <c r="G48" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I48" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="192" t="s">
+      <c r="A49" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="192" t="s">
+      <c r="B49" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="200" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="204" t="n">
+      <c r="C49" s="201" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="205" t="n">
         <v>448</v>
       </c>
-      <c r="G49" s="197" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" s="197" t="s">
+      <c r="G49" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I49" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I49" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="192" t="s">
+      <c r="B50" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="200" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="204" t="n">
+      <c r="C50" s="201" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="205" t="n">
         <v>449</v>
       </c>
-      <c r="G50" s="197" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" s="197" t="s">
+      <c r="G50" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I50" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="192" t="s">
+      <c r="A51" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="192" t="s">
+      <c r="B51" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="200" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="204" t="n">
+      <c r="C51" s="201" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="205" t="n">
         <v>450</v>
       </c>
-      <c r="G51" s="197" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="197" t="s">
+      <c r="G51" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I51" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="192" t="s">
+      <c r="A52" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="192" t="s">
+      <c r="B52" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="200" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="204" t="n">
+      <c r="C52" s="201" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="205" t="n">
         <v>451</v>
       </c>
-      <c r="G52" s="197" t="s">
-        <v>246</v>
-      </c>
-      <c r="H52" s="197" t="s">
+      <c r="G52" s="198" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I52" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I52" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="192" t="s">
+      <c r="A53" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="192" t="s">
+      <c r="B53" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="200" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F53" s="204" t="n">
+      <c r="C53" s="201" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="205" t="n">
         <v>452</v>
       </c>
-      <c r="G53" s="197" t="s">
-        <v>247</v>
-      </c>
-      <c r="H53" s="197" t="s">
+      <c r="G53" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I53" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I53" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="192" t="s">
+      <c r="A54" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="192" t="s">
+      <c r="B54" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="200" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="204" t="n">
+      <c r="C54" s="201" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="205" t="n">
         <v>453</v>
       </c>
-      <c r="G54" s="197" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="197" t="s">
+      <c r="G54" s="198" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I54" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="192" t="s">
+      <c r="A55" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="192" t="s">
+      <c r="B55" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="200" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="198" t="n">
+      <c r="C55" s="201" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="199" t="n">
         <v>454</v>
       </c>
-      <c r="G55" s="197" t="s">
-        <v>249</v>
-      </c>
-      <c r="H55" s="197" t="s">
+      <c r="G55" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="H55" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I55" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I55" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="192" t="s">
+      <c r="A56" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="192" t="s">
+      <c r="B56" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="200" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="197" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" s="198" t="n">
+      <c r="C56" s="201" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="199" t="n">
         <v>455</v>
       </c>
-      <c r="G56" s="197" t="s">
-        <v>250</v>
-      </c>
-      <c r="H56" s="197" t="s">
+      <c r="G56" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="H56" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I56" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I56" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="192" t="s">
+      <c r="A57" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="192" t="s">
+      <c r="B57" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="201" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="201"/>
-      <c r="E57" s="201" t="s">
+      <c r="C57" s="202" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F57" s="203" t="n">
+        <v>151</v>
+      </c>
+      <c r="G57" s="202" t="s">
         <v>251</v>
       </c>
-      <c r="F57" s="202" t="n">
-        <v>151</v>
-      </c>
-      <c r="G57" s="201" t="s">
-        <v>252</v>
-      </c>
-      <c r="H57" s="201" t="s">
+      <c r="H57" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I57" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="192" t="s">
+      <c r="A58" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="192" t="s">
+      <c r="B58" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="201" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="201"/>
-      <c r="E58" s="201" t="s">
+      <c r="C58" s="202" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="202"/>
+      <c r="E58" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="203" t="n">
+        <v>276</v>
+      </c>
+      <c r="G58" s="202" t="s">
         <v>253</v>
       </c>
-      <c r="F58" s="202" t="n">
-        <v>276</v>
-      </c>
-      <c r="G58" s="201" t="s">
-        <v>254</v>
-      </c>
-      <c r="H58" s="201" t="s">
+      <c r="H58" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I58" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="192" t="s">
+      <c r="A59" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="201" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" s="201"/>
-      <c r="E59" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" s="202" t="n">
+      <c r="C59" s="202" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="202"/>
+      <c r="E59" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="203" t="n">
         <v>152</v>
       </c>
-      <c r="G59" s="201" t="s">
-        <v>255</v>
-      </c>
-      <c r="H59" s="201" t="s">
+      <c r="G59" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I59" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="192" t="s">
+      <c r="A60" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="192" t="s">
+      <c r="B60" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="201" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="201"/>
-      <c r="E60" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F60" s="202" t="n">
+      <c r="C60" s="202" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="202"/>
+      <c r="E60" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="203" t="n">
         <v>372</v>
       </c>
-      <c r="G60" s="201" t="s">
-        <v>256</v>
-      </c>
-      <c r="H60" s="201" t="s">
+      <c r="G60" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="H60" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I60" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="192" t="s">
+      <c r="A61" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="192" t="s">
+      <c r="B61" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="201" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="201"/>
-      <c r="E61" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="202" t="n">
+      <c r="C61" s="202" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="202"/>
+      <c r="E61" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" s="203" t="n">
         <v>153</v>
       </c>
-      <c r="G61" s="201" t="s">
-        <v>257</v>
-      </c>
-      <c r="H61" s="201" t="s">
+      <c r="G61" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I61" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I61" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="192" t="s">
+      <c r="A62" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="192" t="s">
+      <c r="B62" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="201" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" s="201"/>
-      <c r="E62" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="202" t="n">
+      <c r="C62" s="202" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" s="203" t="n">
         <v>376</v>
       </c>
-      <c r="G62" s="201" t="s">
-        <v>258</v>
-      </c>
-      <c r="H62" s="201" t="s">
+      <c r="G62" s="202" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I62" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="192" t="s">
+      <c r="A63" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="192" t="s">
+      <c r="B63" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="201" t="s">
-        <v>217</v>
-      </c>
-      <c r="D63" s="201"/>
-      <c r="E63" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="202" t="n">
+      <c r="C63" s="202" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="202"/>
+      <c r="E63" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="203" t="n">
         <v>154</v>
       </c>
-      <c r="G63" s="201" t="s">
-        <v>259</v>
-      </c>
-      <c r="H63" s="201" t="s">
+      <c r="G63" s="202" t="s">
+        <v>258</v>
+      </c>
+      <c r="H63" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I63" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I63" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="192" t="s">
+      <c r="A64" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="192" t="s">
+      <c r="B64" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="201" t="s">
-        <v>217</v>
-      </c>
-      <c r="D64" s="201"/>
-      <c r="E64" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" s="202" t="n">
+      <c r="C64" s="202" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="202"/>
+      <c r="E64" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" s="203" t="n">
         <v>380</v>
       </c>
-      <c r="G64" s="201" t="s">
-        <v>260</v>
-      </c>
-      <c r="H64" s="201" t="s">
+      <c r="G64" s="202" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I64" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I64" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="192" t="s">
+      <c r="A65" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="192" t="s">
+      <c r="B65" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="201" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="201"/>
-      <c r="E65" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F65" s="202" t="n">
+      <c r="C65" s="202" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="202"/>
+      <c r="E65" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="203" t="n">
         <v>155</v>
       </c>
-      <c r="G65" s="201" t="s">
-        <v>261</v>
-      </c>
-      <c r="H65" s="201" t="s">
+      <c r="G65" s="202" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I65" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I65" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="192" t="s">
+      <c r="A66" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="192" t="s">
+      <c r="B66" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="201" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="201"/>
-      <c r="E66" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F66" s="202" t="n">
+      <c r="C66" s="202" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="202"/>
+      <c r="E66" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="203" t="n">
         <v>384</v>
       </c>
-      <c r="G66" s="201" t="s">
-        <v>262</v>
-      </c>
-      <c r="H66" s="201" t="s">
+      <c r="G66" s="202" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I66" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="192" t="s">
+      <c r="A67" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="192" t="s">
+      <c r="B67" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="201" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="202" t="n">
+      <c r="C67" s="202" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="202"/>
+      <c r="E67" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="203" t="n">
         <v>156</v>
       </c>
-      <c r="G67" s="201" t="s">
-        <v>263</v>
-      </c>
-      <c r="H67" s="201" t="s">
+      <c r="G67" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I67" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I67" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="192" t="s">
+      <c r="A68" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="192" t="s">
+      <c r="B68" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="201" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="201"/>
-      <c r="E68" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" s="202" t="n">
+      <c r="C68" s="202" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="202"/>
+      <c r="E68" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="203" t="n">
         <v>388</v>
       </c>
-      <c r="G68" s="201" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="201" t="s">
+      <c r="G68" s="202" t="s">
+        <v>263</v>
+      </c>
+      <c r="H68" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I68" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I68" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="192" t="s">
+      <c r="A69" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="192" t="s">
+      <c r="B69" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="201" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="201"/>
-      <c r="E69" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="202" t="n">
+      <c r="C69" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="202"/>
+      <c r="E69" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="203" t="n">
         <v>157</v>
       </c>
-      <c r="G69" s="201" t="s">
-        <v>265</v>
-      </c>
-      <c r="H69" s="201" t="s">
+      <c r="G69" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="H69" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I69" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="192" t="s">
+      <c r="A70" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="192" t="s">
+      <c r="B70" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="201" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="202" t="n">
+      <c r="C70" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="202"/>
+      <c r="E70" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" s="203" t="n">
         <v>392</v>
       </c>
-      <c r="G70" s="201" t="s">
-        <v>266</v>
-      </c>
-      <c r="H70" s="201" t="s">
+      <c r="G70" s="202" t="s">
+        <v>265</v>
+      </c>
+      <c r="H70" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I70" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I70" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="192" t="s">
+      <c r="A71" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="192" t="s">
+      <c r="B71" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="201" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="201"/>
-      <c r="E71" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F71" s="202" t="n">
+      <c r="C71" s="202" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="202"/>
+      <c r="E71" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" s="203" t="n">
         <v>158</v>
       </c>
-      <c r="G71" s="201" t="s">
-        <v>267</v>
-      </c>
-      <c r="H71" s="201" t="s">
+      <c r="G71" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I71" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I71" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="192" t="s">
+      <c r="A72" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="192" t="s">
+      <c r="B72" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="201" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" s="201"/>
-      <c r="E72" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" s="202" t="n">
+      <c r="C72" s="202" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="202"/>
+      <c r="E72" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F72" s="203" t="n">
         <v>396</v>
       </c>
-      <c r="G72" s="201" t="s">
-        <v>268</v>
-      </c>
-      <c r="H72" s="201" t="s">
+      <c r="G72" s="202" t="s">
+        <v>267</v>
+      </c>
+      <c r="H72" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I72" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I72" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="192" t="s">
+      <c r="A73" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="192" t="s">
+      <c r="B73" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="201" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="201"/>
-      <c r="E73" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="202" t="n">
+      <c r="C73" s="202" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="202"/>
+      <c r="E73" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" s="203" t="n">
         <v>159</v>
       </c>
-      <c r="G73" s="201" t="s">
-        <v>269</v>
-      </c>
-      <c r="H73" s="201" t="s">
+      <c r="G73" s="202" t="s">
+        <v>268</v>
+      </c>
+      <c r="H73" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I73" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I73" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="192" t="s">
+      <c r="A74" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="192" t="s">
+      <c r="B74" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="201" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" s="201"/>
-      <c r="E74" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="202" t="n">
+      <c r="C74" s="202" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="202"/>
+      <c r="E74" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="203" t="n">
         <v>400</v>
       </c>
-      <c r="G74" s="201" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" s="201" t="s">
+      <c r="G74" s="202" t="s">
+        <v>269</v>
+      </c>
+      <c r="H74" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I74" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I74" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="192" t="s">
+      <c r="A75" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="192" t="s">
+      <c r="B75" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="201" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="201"/>
-      <c r="E75" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F75" s="202" t="n">
+      <c r="C75" s="202" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="202"/>
+      <c r="E75" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="203" t="n">
         <v>160</v>
       </c>
-      <c r="G75" s="201" t="s">
-        <v>271</v>
-      </c>
-      <c r="H75" s="201" t="s">
+      <c r="G75" s="202" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I75" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I75" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="192" t="s">
+      <c r="A76" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="192" t="s">
+      <c r="B76" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="201" t="s">
-        <v>227</v>
-      </c>
-      <c r="D76" s="201"/>
-      <c r="E76" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" s="202" t="n">
+      <c r="C76" s="202" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="202"/>
+      <c r="E76" s="202" t="s">
+        <v>252</v>
+      </c>
+      <c r="F76" s="203" t="n">
         <v>404</v>
       </c>
-      <c r="G76" s="201" t="s">
-        <v>272</v>
-      </c>
-      <c r="H76" s="201" t="s">
+      <c r="G76" s="202" t="s">
+        <v>271</v>
+      </c>
+      <c r="H76" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="I76" s="204" t="s">
         <v>175</v>
-      </c>
-      <c r="I76" s="203" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="200" t="s">
+      <c r="B77" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="197" t="s">
+      <c r="C77" s="198" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="198"/>
+      <c r="E77" s="198" t="s">
         <v>273</v>
       </c>
-      <c r="D77" s="197"/>
-      <c r="E77" s="197" t="s">
+      <c r="F77" s="206" t="n">
+        <v>456</v>
+      </c>
+      <c r="G77" s="198" t="s">
         <v>274</v>
       </c>
-      <c r="F77" s="205" t="n">
-        <v>456</v>
-      </c>
-      <c r="G77" s="197" t="s">
-        <v>275</v>
-      </c>
-      <c r="H77" s="197" t="s">
+      <c r="H77" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I77" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="200" t="s">
+      <c r="B78" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="197" t="s">
+      <c r="C78" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="198"/>
+      <c r="E78" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="F78" s="206" t="n">
+        <v>461</v>
+      </c>
+      <c r="G78" s="198" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="197"/>
-      <c r="E78" s="197" t="s">
-        <v>274</v>
-      </c>
-      <c r="F78" s="205" t="n">
-        <v>461</v>
-      </c>
-      <c r="G78" s="197" t="s">
-        <v>277</v>
-      </c>
-      <c r="H78" s="197" t="s">
+      <c r="H78" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I78" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I78" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="200" t="s">
+      <c r="B79" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="197" t="s">
+      <c r="C79" s="198" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="198"/>
+      <c r="E79" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="F79" s="206" t="n">
+        <v>466</v>
+      </c>
+      <c r="G79" s="198" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="197"/>
-      <c r="E79" s="197" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" s="205" t="n">
-        <v>466</v>
-      </c>
-      <c r="G79" s="197" t="s">
-        <v>279</v>
-      </c>
-      <c r="H79" s="197" t="s">
+      <c r="H79" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I79" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I79" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="200" t="s">
+      <c r="B80" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="197" t="s">
+      <c r="C80" s="198" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" s="198"/>
+      <c r="E80" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="F80" s="206" t="n">
+        <v>471</v>
+      </c>
+      <c r="G80" s="198" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="197"/>
-      <c r="E80" s="197" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="205" t="n">
-        <v>471</v>
-      </c>
-      <c r="G80" s="197" t="s">
-        <v>281</v>
-      </c>
-      <c r="H80" s="197" t="s">
+      <c r="H80" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I80" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I80" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="197" t="s">
+      <c r="C81" s="198" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="198"/>
+      <c r="E81" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="208" t="n">
+        <v>476</v>
+      </c>
+      <c r="G81" s="198" t="s">
         <v>282</v>
       </c>
-      <c r="D81" s="197"/>
-      <c r="E81" s="197" t="s">
-        <v>274</v>
-      </c>
-      <c r="F81" s="207" t="n">
-        <v>476</v>
-      </c>
-      <c r="G81" s="197" t="s">
-        <v>283</v>
-      </c>
-      <c r="H81" s="197" t="s">
+      <c r="H81" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I81" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="200" t="s">
+      <c r="B82" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="197" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="197"/>
-      <c r="E82" s="197" t="s">
+      <c r="C82" s="198" t="s">
+        <v>272</v>
+      </c>
+      <c r="D82" s="198"/>
+      <c r="E82" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="206" t="n">
+        <v>457</v>
+      </c>
+      <c r="G82" s="198" t="s">
         <v>284</v>
       </c>
-      <c r="F82" s="205" t="n">
-        <v>457</v>
-      </c>
-      <c r="G82" s="197" t="s">
-        <v>285</v>
-      </c>
-      <c r="H82" s="197" t="s">
+      <c r="H82" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I82" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="200" t="s">
+      <c r="B83" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="197" t="s">
-        <v>276</v>
-      </c>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197" t="s">
-        <v>284</v>
-      </c>
-      <c r="F83" s="205" t="n">
+      <c r="C83" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="206" t="n">
         <v>462</v>
       </c>
-      <c r="G83" s="197" t="s">
-        <v>286</v>
-      </c>
-      <c r="H83" s="197" t="s">
+      <c r="G83" s="198" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I83" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="200" t="s">
+      <c r="B84" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="197" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="197"/>
-      <c r="E84" s="197" t="s">
-        <v>284</v>
-      </c>
-      <c r="F84" s="205" t="n">
+      <c r="C84" s="198" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="198"/>
+      <c r="E84" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="F84" s="206" t="n">
         <v>467</v>
       </c>
-      <c r="G84" s="197" t="s">
-        <v>287</v>
-      </c>
-      <c r="H84" s="197" t="s">
+      <c r="G84" s="198" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I84" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I84" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="200" t="s">
+      <c r="B85" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="197" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197" t="s">
-        <v>284</v>
-      </c>
-      <c r="F85" s="205" t="n">
+      <c r="C85" s="198" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="206" t="n">
         <v>472</v>
       </c>
-      <c r="G85" s="197" t="s">
-        <v>288</v>
-      </c>
-      <c r="H85" s="197" t="s">
+      <c r="G85" s="198" t="s">
+        <v>287</v>
+      </c>
+      <c r="H85" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I85" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I85" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="200" t="s">
+      <c r="B86" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="197" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="197"/>
-      <c r="E86" s="197" t="s">
-        <v>284</v>
-      </c>
-      <c r="F86" s="207" t="n">
+      <c r="C86" s="198" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="198"/>
+      <c r="E86" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="F86" s="208" t="n">
         <v>477</v>
       </c>
-      <c r="G86" s="197" t="s">
-        <v>289</v>
-      </c>
-      <c r="H86" s="197" t="s">
+      <c r="G86" s="198" t="s">
+        <v>288</v>
+      </c>
+      <c r="H86" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="I86" s="200" t="s">
         <v>175</v>
-      </c>
-      <c r="I86" s="199" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="208" t="s">
+      <c r="B87" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="200" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E87" s="197" t="s">
-        <v>290</v>
-      </c>
-      <c r="F87" s="202" t="n">
+      <c r="C87" s="201" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="198" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="203" t="n">
         <v>458</v>
       </c>
-      <c r="G87" s="197" t="s">
+      <c r="G87" s="198" t="s">
+        <v>186</v>
+      </c>
+      <c r="H87" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="H87" s="197" t="s">
+      <c r="I87" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I87" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="208" t="s">
+      <c r="B88" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="200" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" s="197" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="202" t="n">
+      <c r="C88" s="201" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="198" t="s">
+        <v>290</v>
+      </c>
+      <c r="F88" s="203" t="n">
         <v>459</v>
       </c>
-      <c r="G88" s="197" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="197" t="s">
+      <c r="G88" s="198" t="s">
+        <v>191</v>
+      </c>
+      <c r="H88" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I88" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I88" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="208" t="s">
+      <c r="B89" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="200" t="s">
-        <v>276</v>
-      </c>
-      <c r="D89" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="197" t="s">
-        <v>290</v>
-      </c>
-      <c r="F89" s="202" t="n">
+      <c r="C89" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="198" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="203" t="n">
         <v>463</v>
       </c>
-      <c r="G89" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="H89" s="197" t="s">
+      <c r="G89" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="H89" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I89" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I89" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="208" t="s">
+      <c r="B90" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="200" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E90" s="197" t="s">
-        <v>291</v>
-      </c>
-      <c r="F90" s="202" t="n">
+      <c r="C90" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="198" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="203" t="n">
         <v>464</v>
       </c>
-      <c r="G90" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="H90" s="197" t="s">
+      <c r="G90" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="H90" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I90" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I90" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="208" t="s">
+      <c r="B91" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="200" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="197" t="s">
-        <v>290</v>
-      </c>
-      <c r="F91" s="202" t="n">
+      <c r="C91" s="201" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="198" t="s">
+        <v>289</v>
+      </c>
+      <c r="F91" s="203" t="n">
         <v>468</v>
       </c>
-      <c r="G91" s="197" t="s">
-        <v>195</v>
-      </c>
-      <c r="H91" s="197" t="s">
+      <c r="G91" s="198" t="s">
+        <v>194</v>
+      </c>
+      <c r="H91" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I91" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I91" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B92" s="208" t="s">
+      <c r="B92" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="200" t="s">
-        <v>278</v>
-      </c>
-      <c r="D92" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E92" s="197" t="s">
-        <v>291</v>
-      </c>
-      <c r="F92" s="202" t="n">
+      <c r="C92" s="201" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="198" t="s">
+        <v>290</v>
+      </c>
+      <c r="F92" s="203" t="n">
         <v>469</v>
       </c>
-      <c r="G92" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="H92" s="197" t="s">
+      <c r="G92" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="H92" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I92" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I92" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="208" t="s">
+      <c r="B93" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E93" s="197" t="s">
-        <v>290</v>
-      </c>
-      <c r="F93" s="202" t="n">
+      <c r="C93" s="201" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="198" t="s">
+        <v>289</v>
+      </c>
+      <c r="F93" s="203" t="n">
         <v>473</v>
       </c>
-      <c r="G93" s="197" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" s="197" t="s">
+      <c r="G93" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I93" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I93" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="208" t="s">
+      <c r="B94" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="200" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E94" s="197" t="s">
-        <v>291</v>
-      </c>
-      <c r="F94" s="202" t="n">
+      <c r="C94" s="201" t="s">
+        <v>279</v>
+      </c>
+      <c r="D94" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="198" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="203" t="n">
         <v>474</v>
       </c>
-      <c r="G94" s="197" t="s">
-        <v>198</v>
-      </c>
-      <c r="H94" s="197" t="s">
+      <c r="G94" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I94" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I94" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="208" t="s">
+      <c r="B95" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="208" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="200" t="s">
-        <v>185</v>
-      </c>
-      <c r="E95" s="197" t="s">
-        <v>290</v>
-      </c>
-      <c r="F95" s="202" t="n">
+      <c r="C95" s="209" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="198" t="s">
+        <v>289</v>
+      </c>
+      <c r="F95" s="203" t="n">
         <v>478</v>
       </c>
-      <c r="G95" s="197" t="s">
-        <v>199</v>
-      </c>
-      <c r="H95" s="197" t="s">
+      <c r="G95" s="198" t="s">
+        <v>198</v>
+      </c>
+      <c r="H95" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I95" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I95" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="208" t="s">
+      <c r="B96" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="208" t="s">
-        <v>282</v>
-      </c>
-      <c r="D96" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E96" s="209" t="s">
-        <v>291</v>
-      </c>
-      <c r="F96" s="210" t="n">
+      <c r="C96" s="209" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="210" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" s="211" t="n">
         <v>479</v>
       </c>
-      <c r="G96" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="H96" s="209" t="s">
+      <c r="G96" s="210" t="s">
+        <v>199</v>
+      </c>
+      <c r="H96" s="210" t="s">
+        <v>187</v>
+      </c>
+      <c r="I96" s="200" t="s">
         <v>188</v>
-      </c>
-      <c r="I96" s="199" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -63733,206 +63738,206 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="211" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="212" t="s">
+      <c r="A1" s="212" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="213" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="215" t="s">
         <v>293</v>
-      </c>
-      <c r="B2" s="214" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="215" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="216" t="s">
+      <c r="A3" s="216" t="s">
         <v>294</v>
+      </c>
+      <c r="B3" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="217" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="218" t="s">
-        <v>294</v>
+      <c r="A4" s="218" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="219" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="215" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="216" t="s">
-        <v>294</v>
+      <c r="A5" s="216" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="215" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="216" t="s">
-        <v>294</v>
+      <c r="A6" s="216" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="215" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="216" t="s">
-        <v>294</v>
+      <c r="A7" s="216" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="215" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="216" t="s">
-        <v>294</v>
+      <c r="A8" s="216" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="219" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="216" t="s">
-        <v>294</v>
+      <c r="A9" s="220" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="219" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="216" t="s">
-        <v>294</v>
+      <c r="A10" s="220" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="219" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="216" t="s">
-        <v>294</v>
+      <c r="A11" s="220" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="219" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="216" t="s">
-        <v>294</v>
+      <c r="A12" s="220" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="217" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="220" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="221" t="s">
-        <v>294</v>
+      <c r="A13" s="221" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="222" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="211" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="212" t="s">
-        <v>306</v>
+      <c r="A16" s="212" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="213" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="223" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="215" t="s">
         <v>307</v>
-      </c>
-      <c r="B17" s="214" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="223" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="216" t="s">
+      <c r="A18" s="224" t="s">
         <v>308</v>
+      </c>
+      <c r="B18" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="223" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="216" t="s">
-        <v>308</v>
+      <c r="A19" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="223" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="216" t="s">
-        <v>308</v>
+      <c r="A20" s="224" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="219" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="216" t="s">
-        <v>308</v>
+      <c r="A21" s="220" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="219" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="216" t="s">
-        <v>308</v>
+      <c r="A22" s="220" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="219" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" s="216" t="s">
-        <v>308</v>
+      <c r="A23" s="220" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="219" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="216" t="s">
-        <v>308</v>
+      <c r="A24" s="220" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="219" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="216" t="s">
-        <v>308</v>
+      <c r="A25" s="220" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="217" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="220" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="221" t="s">
-        <v>308</v>
+      <c r="A26" s="221" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="222" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -63966,277 +63971,277 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="224" t="n">
+      <c r="C1" s="225" t="n">
         <v>0.2</v>
       </c>
-      <c r="D1" s="224" t="n">
+      <c r="D1" s="225" t="n">
         <v>0.4</v>
       </c>
-      <c r="E1" s="224" t="n">
+      <c r="E1" s="225" t="n">
         <v>0.2</v>
       </c>
-      <c r="F1" s="224" t="n">
+      <c r="F1" s="225" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="227" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="227" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="227" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="226" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="226" t="s">
+      <c r="E2" s="227" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="226" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="226" t="s">
+      <c r="F2" s="227" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="229" t="s">
-        <v>322</v>
+      <c r="D3" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="229" t="s">
-        <v>322</v>
+      <c r="D4" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="228" t="s">
+      <c r="B5" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="229" t="s">
+      <c r="D5" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="229" t="s">
-        <v>322</v>
+      <c r="F5" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="229" t="s">
+      <c r="D6" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="229" t="s">
-        <v>322</v>
+      <c r="F6" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="229" t="s">
+      <c r="D7" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F7" s="229" t="s">
-        <v>322</v>
+      <c r="F7" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="229" t="s">
+      <c r="D8" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="229" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="229" t="s">
-        <v>322</v>
+      <c r="F8" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="229" t="s">
+      <c r="B9" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="229" t="s">
+      <c r="E9" s="230" t="s">
         <v>322</v>
+      </c>
+      <c r="F9" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="227" t="s">
+      <c r="A10" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="229" t="s">
+      <c r="B10" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="229" t="s">
+      <c r="E10" s="230" t="s">
         <v>322</v>
+      </c>
+      <c r="F10" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="229" t="s">
+      <c r="B11" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="229" t="s">
+      <c r="E11" s="230" t="s">
         <v>322</v>
+      </c>
+      <c r="F11" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="227" t="s">
+      <c r="A12" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="229" t="s">
+      <c r="B12" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="229" t="s">
+      <c r="E12" s="230" t="s">
         <v>322</v>
+      </c>
+      <c r="F12" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="227" t="s">
+      <c r="A13" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="228" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="229" t="s">
+      <c r="B13" s="229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="230" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="229" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="229" t="s">
+      <c r="E13" s="230" t="s">
         <v>322</v>
+      </c>
+      <c r="F13" s="230" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="231" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="232" t="s">
+      <c r="B14" s="232" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="233" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="233" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="232" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="232" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="232" t="s">
+      <c r="E14" s="233" t="s">
         <v>322</v>
+      </c>
+      <c r="F14" s="233" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -64263,37 +64268,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="233" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="233" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="233" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="233" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="233" width="109.153846153846"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="233" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="233" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="233" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="234" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="234" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="234" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="234" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="234" width="111.080971659919"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="234" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="234" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="234" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="235" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="235" t="s">
+      <c r="B1" s="236" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="236" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="236" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="235" t="s">
+      <c r="E1" s="236" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="235" t="s">
+      <c r="F1" s="236" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="235" t="s">
+      <c r="G1" s="237" t="s">
         <v>328</v>
-      </c>
-      <c r="G1" s="236" t="s">
-        <v>329</v>
       </c>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -64301,24 +64306,24 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="239" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="241" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="240" t="s">
+      <c r="E2" s="239" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="238" t="s">
+      <c r="F2" s="242" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="243" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="241" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="242" t="s">
-        <v>333</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
@@ -64326,261 +64331,261 @@
       <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="181" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="180" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="244" t="n">
+      <c r="F3" s="245" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="242"/>
+      <c r="G3" s="243"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="243"/>
-      <c r="B4" s="180" t="s">
+      <c r="A4" s="244"/>
+      <c r="B4" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="180" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="244" t="n">
+      <c r="F4" s="245" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="242"/>
+      <c r="G4" s="243"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="243"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="180" t="s">
-        <v>336</v>
-      </c>
-      <c r="E5" s="180" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="242"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="245"/>
+      <c r="G5" s="243"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="243"/>
-      <c r="B6" s="180" t="s">
+      <c r="A6" s="244"/>
+      <c r="B6" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180" t="s">
-        <v>334</v>
-      </c>
-      <c r="E6" s="245" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="244" t="n">
+      <c r="C6" s="181"/>
+      <c r="D6" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="246" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="245" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="242"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="243"/>
-      <c r="B7" s="180" t="s">
+      <c r="A7" s="244"/>
+      <c r="B7" s="181" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="180" t="s">
-        <v>341</v>
-      </c>
-      <c r="F7" s="244" t="n">
+      <c r="F7" s="245" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="242"/>
+      <c r="G7" s="243"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="180" t="s">
-        <v>342</v>
-      </c>
-      <c r="F8" s="244" t="n">
+      <c r="C8" s="181"/>
+      <c r="D8" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="181" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="245" t="n">
         <v>0.05</v>
       </c>
-      <c r="G8" s="242"/>
+      <c r="G8" s="243"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="243"/>
-      <c r="B9" s="180" t="s">
+      <c r="A9" s="244"/>
+      <c r="B9" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180" t="s">
-        <v>336</v>
-      </c>
-      <c r="E9" s="180" t="s">
-        <v>343</v>
-      </c>
-      <c r="F9" s="244" t="n">
+      <c r="C9" s="181"/>
+      <c r="D9" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="181" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="245" t="n">
         <v>0.05</v>
       </c>
-      <c r="G9" s="242"/>
+      <c r="G9" s="243"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="243"/>
-      <c r="B10" s="180" t="s">
+      <c r="A10" s="244"/>
+      <c r="B10" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="245" t="s">
-        <v>344</v>
-      </c>
-      <c r="F10" s="244" t="n">
+      <c r="C10" s="181"/>
+      <c r="D10" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="246" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="245" t="n">
         <v>0.05</v>
       </c>
-      <c r="G10" s="242"/>
+      <c r="G10" s="243"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="243"/>
-      <c r="B11" s="180" t="s">
+      <c r="A11" s="244"/>
+      <c r="B11" s="181" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11" s="180" t="s">
-        <v>341</v>
-      </c>
-      <c r="F11" s="244" t="n">
+      <c r="F11" s="245" t="n">
         <v>0.05</v>
       </c>
-      <c r="G11" s="242"/>
+      <c r="G11" s="243"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="247" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="180" t="s">
-        <v>345</v>
-      </c>
-      <c r="F12" s="244" t="n">
+      <c r="C12" s="181"/>
+      <c r="D12" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="245" t="n">
         <v>0.1</v>
       </c>
-      <c r="G12" s="242"/>
+      <c r="G12" s="243"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="246"/>
-      <c r="B13" s="247" t="s">
+      <c r="A13" s="247"/>
+      <c r="B13" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247" t="s">
-        <v>336</v>
-      </c>
-      <c r="E13" s="247" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="248" t="n">
+      <c r="C13" s="248"/>
+      <c r="D13" s="248" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="248" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="249" t="n">
         <v>0.1</v>
       </c>
-      <c r="G13" s="242"/>
+      <c r="G13" s="243"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="250" t="s">
+      <c r="B14" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251" t="s">
-        <v>334</v>
-      </c>
-      <c r="E14" s="252" t="s">
+      <c r="C14" s="252"/>
+      <c r="D14" s="252" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="253" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="254" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="255" t="s">
         <v>346</v>
-      </c>
-      <c r="F14" s="253" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="254" t="s">
-        <v>347</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -64588,42 +64593,42 @@
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="249"/>
-      <c r="B15" s="255" t="s">
+      <c r="A15" s="250"/>
+      <c r="B15" s="256" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="255"/>
-      <c r="D15" s="251" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="180" t="s">
-        <v>346</v>
-      </c>
-      <c r="F15" s="256" t="n">
+      <c r="C15" s="256"/>
+      <c r="D15" s="252" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="181" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="257" t="n">
         <v>0.05</v>
       </c>
-      <c r="G15" s="254"/>
+      <c r="G15" s="255"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="249"/>
-      <c r="B16" s="257" t="s">
+      <c r="A16" s="250"/>
+      <c r="B16" s="258" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="257"/>
-      <c r="D16" s="251" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="258" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="259" t="n">
+      <c r="C16" s="258"/>
+      <c r="D16" s="252" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="259" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="260" t="n">
         <v>0.05</v>
       </c>
-      <c r="G16" s="254"/>
+      <c r="G16" s="255"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -64643,8 +64648,8 @@
       <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="260" t="s">
-        <v>349</v>
+      <c r="A18" s="261" t="s">
+        <v>348</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -64658,11 +64663,11 @@
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="261" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="261" t="s">
-        <v>350</v>
+      <c r="A19" s="262" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="262" t="s">
+        <v>349</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
@@ -64675,10 +64680,10 @@
       <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="180" t="s">
+      <c r="A20" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="202" t="n">
+      <c r="B20" s="203" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0"/>
@@ -64692,10 +64697,10 @@
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="202" t="n">
+      <c r="B21" s="203" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="0"/>
@@ -64709,10 +64714,10 @@
       <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="180" t="s">
+      <c r="A22" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="202" t="n">
+      <c r="B22" s="203" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="0"/>
@@ -64726,10 +64731,10 @@
       <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="180" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" s="202" t="n">
+      <c r="A23" s="181" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="203" t="n">
         <v>4</v>
       </c>
       <c r="C23" s="0"/>
@@ -64782,8 +64787,8 @@
       <c r="K26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="127" t="s">
-        <v>351</v>
+      <c r="A27" s="128" t="s">
+        <v>350</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -64800,130 +64805,130 @@
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="262" t="n">
+      <c r="D28" s="263" t="n">
         <v>0.2</v>
       </c>
-      <c r="E28" s="262" t="n">
+      <c r="E28" s="263" t="n">
         <v>0.4</v>
       </c>
-      <c r="F28" s="262" t="n">
+      <c r="F28" s="263" t="n">
         <v>0.2</v>
       </c>
-      <c r="G28" s="262" t="n">
+      <c r="G28" s="263" t="n">
         <v>0.2</v>
       </c>
-      <c r="H28" s="263" t="n">
+      <c r="H28" s="264" t="n">
         <v>0.2</v>
       </c>
       <c r="I28" s="0"/>
-      <c r="J28" s="127" t="s">
-        <v>352</v>
+      <c r="J28" s="128" t="s">
+        <v>351</v>
       </c>
       <c r="K28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="264" t="s">
+      <c r="A29" s="265" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="265" t="s">
         <v>353</v>
       </c>
-      <c r="B29" s="264" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="264" t="s">
+      <c r="D29" s="265" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="265" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" s="265" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="265" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="265" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="265" t="s">
         <v>354</v>
       </c>
-      <c r="D29" s="264" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="264" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="264" t="s">
-        <v>320</v>
-      </c>
-      <c r="G29" s="264" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="264" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="264" t="s">
+      <c r="J29" s="265" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="265" t="s">
         <v>355</v>
-      </c>
-      <c r="J29" s="264" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="264" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="B30" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="180" t="s">
+      <c r="D30" s="266" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="266" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="266" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="266" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="266" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="266" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J30" s="266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="181" t="s">
         <v>358</v>
-      </c>
-      <c r="D30" s="265" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="265" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="265" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="265" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H30" s="265" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="265" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J30" s="265" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="180" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="181" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="181" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="180" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="180" t="s">
+      <c r="D31" s="266" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="266" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="267" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="266" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="266" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="266" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K31" s="181" t="s">
         <v>361</v>
-      </c>
-      <c r="D31" s="265" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="265" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="266" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="265" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="265" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I31" s="265" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="265" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K31" s="180" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
+++ b/Projects/CCTH/Data/Template_TT_after_Feb2018.xlsx
@@ -49,12 +49,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -77,6 +79,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -538,7 +542,7 @@
     <t xml:space="preserve">มีสินค้า CC 10/15Oz  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t xml:space="preserve">มี,ไม่มี</t>
+    <t xml:space="preserve">มี</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -1362,13 +1366,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1377,6 +1374,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1768,7 +1772,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="267">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2365,11 +2369,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2393,7 +2393,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2441,7 +2441,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2553,7 +2553,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2565,7 +2565,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2589,19 +2589,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2940,21 +2940,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="84.3036437246964"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -38781,11 +38781,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="10" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -39264,19 +39264,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
@@ -45487,7 +45487,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="146" t="s">
         <v>16</v>
@@ -45498,43 +45498,43 @@
       <c r="D7" s="148" t="n">
         <v>582</v>
       </c>
-      <c r="E7" s="149" t="s">
+      <c r="E7" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="150" t="s">
+      <c r="H7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="150" t="s">
+      <c r="I7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="150" t="s">
+      <c r="J7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="150" t="s">
+      <c r="K7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="150" t="s">
+      <c r="L7" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="150" t="s">
+      <c r="M7" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="N7" s="150" t="s">
+      <c r="N7" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="150" t="s">
+      <c r="O7" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="150" t="s">
+      <c r="P7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="Q7" s="150" t="s">
+      <c r="Q7" s="149" t="s">
         <v>129</v>
       </c>
       <c r="R7" s="0"/>
@@ -46545,54 +46545,54 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="153" t="n">
+      <c r="D8" s="152" t="n">
         <v>583</v>
       </c>
-      <c r="E8" s="149" t="s">
+      <c r="E8" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="154" t="s">
+      <c r="H8" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="154" t="s">
+      <c r="J8" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="154" t="s">
+      <c r="K8" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="154" t="s">
+      <c r="L8" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="154" t="s">
+      <c r="M8" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N8" s="154" t="s">
+      <c r="N8" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="154" t="s">
+      <c r="O8" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="P8" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q8" s="154" t="s">
+      <c r="Q8" s="153" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="0"/>
@@ -47603,54 +47603,54 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="153" t="n">
+      <c r="D9" s="152" t="n">
         <v>584</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="156" t="s">
+      <c r="J9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="156" t="s">
+      <c r="K9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="156" t="s">
+      <c r="L9" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="156" t="s">
+      <c r="M9" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="N9" s="156" t="s">
+      <c r="N9" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="156" t="s">
+      <c r="O9" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="156" t="s">
+      <c r="P9" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="156" t="s">
+      <c r="Q9" s="155" t="s">
         <v>129</v>
       </c>
       <c r="R9" s="0"/>
@@ -48661,54 +48661,54 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="153" t="n">
+      <c r="D10" s="152" t="n">
         <v>585</v>
       </c>
-      <c r="E10" s="149" t="s">
+      <c r="E10" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="156" t="s">
+      <c r="F10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="156" t="s">
+      <c r="H10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="156" t="s">
+      <c r="I10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="156" t="s">
+      <c r="J10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="156" t="s">
+      <c r="K10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="156" t="s">
+      <c r="L10" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="156" t="s">
+      <c r="M10" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="N10" s="156" t="s">
+      <c r="N10" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="156" t="s">
+      <c r="O10" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="Q10" s="156" t="s">
+      <c r="Q10" s="155" t="s">
         <v>129</v>
       </c>
       <c r="R10" s="0"/>
@@ -49719,54 +49719,54 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="153" t="n">
+      <c r="D11" s="152" t="n">
         <v>586</v>
       </c>
-      <c r="E11" s="149" t="s">
+      <c r="E11" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="154" t="s">
+      <c r="F11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="154" t="s">
+      <c r="J11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="154" t="s">
+      <c r="K11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="154" t="s">
+      <c r="L11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="154" t="s">
+      <c r="M11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="154" t="s">
+      <c r="N11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="154" t="s">
+      <c r="O11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="154" t="s">
+      <c r="P11" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="154" t="s">
+      <c r="Q11" s="153" t="s">
         <v>130</v>
       </c>
       <c r="R11" s="0"/>
@@ -50777,54 +50777,54 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="153" t="n">
+      <c r="D12" s="152" t="n">
         <v>587</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="154" t="s">
+      <c r="F12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="154" t="s">
+      <c r="H12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="154" t="s">
+      <c r="I12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="154" t="s">
+      <c r="J12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="154" t="s">
+      <c r="K12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="154" t="s">
+      <c r="L12" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="154" t="s">
+      <c r="M12" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="154" t="s">
+      <c r="N12" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="154" t="s">
+      <c r="O12" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P12" s="154" t="s">
+      <c r="P12" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q12" s="154" t="s">
+      <c r="Q12" s="153" t="s">
         <v>130</v>
       </c>
       <c r="R12" s="0"/>
@@ -51835,54 +51835,54 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="153" t="n">
+      <c r="D13" s="152" t="n">
         <v>588</v>
       </c>
-      <c r="E13" s="149" t="s">
+      <c r="E13" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="154" t="s">
+      <c r="F13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="154" t="s">
+      <c r="G13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="154" t="s">
+      <c r="H13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="154" t="s">
+      <c r="I13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="154" t="s">
+      <c r="J13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="154" t="s">
+      <c r="K13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="154" t="s">
+      <c r="L13" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="154" t="s">
+      <c r="M13" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="154" t="s">
+      <c r="N13" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O13" s="154" t="s">
+      <c r="O13" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="154" t="s">
+      <c r="P13" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q13" s="154" t="s">
+      <c r="Q13" s="153" t="s">
         <v>130</v>
       </c>
       <c r="R13" s="0"/>
@@ -52893,54 +52893,54 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="153" t="n">
+      <c r="D14" s="152" t="n">
         <v>589</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="G14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="156" t="s">
+      <c r="H14" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="156" t="s">
+      <c r="I14" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="156" t="s">
+      <c r="J14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="156" t="s">
+      <c r="K14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="156" t="s">
+      <c r="L14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="156" t="s">
+      <c r="M14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="156" t="s">
+      <c r="N14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="156" t="s">
+      <c r="O14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="156" t="s">
+      <c r="P14" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="156" t="s">
+      <c r="Q14" s="155" t="s">
         <v>129</v>
       </c>
       <c r="R14" s="0"/>
@@ -53951,54 +53951,54 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="153" t="n">
+      <c r="D15" s="152" t="n">
         <v>590</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="E15" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="154" t="s">
+      <c r="I15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="154" t="s">
+      <c r="J15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="154" t="s">
+      <c r="K15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="154" t="s">
+      <c r="L15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="154" t="s">
+      <c r="M15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="154" t="s">
+      <c r="N15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="154" t="s">
+      <c r="O15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="154" t="s">
+      <c r="P15" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q15" s="154" t="s">
+      <c r="Q15" s="153" t="s">
         <v>130</v>
       </c>
       <c r="R15" s="0"/>
@@ -55009,54 +55009,54 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="153" t="n">
+      <c r="D16" s="152" t="n">
         <v>591</v>
       </c>
-      <c r="E16" s="149" t="s">
+      <c r="E16" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="154" t="s">
+      <c r="F16" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="154" t="s">
+      <c r="I16" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="154" t="s">
+      <c r="J16" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="154" t="s">
+      <c r="K16" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="154" t="s">
+      <c r="M16" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N16" s="154" t="s">
+      <c r="N16" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="154" t="s">
+      <c r="O16" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="154" t="s">
+      <c r="P16" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="154" t="s">
+      <c r="Q16" s="153" t="s">
         <v>129</v>
       </c>
       <c r="R16" s="0"/>
@@ -56067,54 +56067,54 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="153" t="n">
+      <c r="D17" s="152" t="n">
         <v>592</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="E17" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="154" t="s">
+      <c r="F17" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="154" t="s">
+      <c r="H17" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="154" t="s">
+      <c r="I17" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="154" t="s">
+      <c r="J17" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="154" t="s">
+      <c r="K17" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="154" t="s">
+      <c r="L17" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="154" t="s">
+      <c r="M17" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="N17" s="154" t="s">
+      <c r="N17" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="154" t="s">
+      <c r="O17" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="154" t="s">
+      <c r="P17" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="Q17" s="154" t="s">
+      <c r="Q17" s="153" t="s">
         <v>129</v>
       </c>
       <c r="R17" s="0"/>
@@ -57125,54 +57125,54 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="153" t="n">
+      <c r="D18" s="152" t="n">
         <v>593</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="154" t="s">
+      <c r="F18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="154" t="s">
+      <c r="G18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="154" t="s">
+      <c r="H18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="154" t="s">
+      <c r="I18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="154" t="s">
+      <c r="J18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="154" t="s">
+      <c r="K18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="154" t="s">
+      <c r="L18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="154" t="s">
+      <c r="M18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="154" t="s">
+      <c r="N18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="154" t="s">
+      <c r="O18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="154" t="s">
+      <c r="P18" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q18" s="154" t="s">
+      <c r="Q18" s="153" t="s">
         <v>129</v>
       </c>
       <c r="R18" s="0"/>
@@ -58183,54 +58183,54 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="153" t="n">
+      <c r="D19" s="152" t="n">
         <v>594</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="E19" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="154" t="s">
+      <c r="F19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="G19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="154" t="s">
+      <c r="H19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="154" t="s">
+      <c r="I19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="154" t="s">
+      <c r="J19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="154" t="s">
+      <c r="K19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="154" t="s">
+      <c r="L19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="154" t="s">
+      <c r="M19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="154" t="s">
+      <c r="N19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="154" t="s">
+      <c r="O19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="154" t="s">
+      <c r="P19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="Q19" s="154" t="s">
+      <c r="Q19" s="153" t="s">
         <v>130</v>
       </c>
       <c r="R19" s="0"/>
@@ -59241,54 +59241,54 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="153" t="n">
+      <c r="D20" s="152" t="n">
         <v>595</v>
       </c>
-      <c r="E20" s="149" t="s">
+      <c r="E20" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="154" t="s">
+      <c r="F20" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="154" t="s">
+      <c r="G20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="154" t="s">
+      <c r="H20" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="154" t="s">
+      <c r="I20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="154" t="s">
+      <c r="J20" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="154" t="s">
+      <c r="K20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="154" t="s">
+      <c r="L20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="154" t="s">
+      <c r="M20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N20" s="154" t="s">
+      <c r="N20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="154" t="s">
+      <c r="O20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="154" t="s">
+      <c r="P20" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="Q20" s="154" t="s">
+      <c r="Q20" s="153" t="s">
         <v>129</v>
       </c>
       <c r="R20" s="0"/>
@@ -60299,157 +60299,156 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="151" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="153" t="n">
+      <c r="D21" s="152" t="n">
         <v>596</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="154" t="s">
+      <c r="F21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="154" t="s">
+      <c r="I21" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="154" t="s">
+      <c r="J21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="154" t="s">
+      <c r="K21" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="154" t="s">
+      <c r="L21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="154" t="s">
+      <c r="M21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N21" s="154" t="s">
+      <c r="N21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="O21" s="154" t="s">
+      <c r="O21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P21" s="154" t="s">
+      <c r="P21" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="Q21" s="154" t="s">
+      <c r="Q21" s="153" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="151" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="153" t="n">
+      <c r="D22" s="152" t="n">
         <v>597</v>
       </c>
-      <c r="E22" s="149" t="s">
+      <c r="E22" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="154" t="s">
+      <c r="F22" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="154" t="s">
+      <c r="H22" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="154" t="s">
+      <c r="I22" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="154" t="s">
+      <c r="J22" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="154" t="s">
+      <c r="K22" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="154" t="s">
+      <c r="L22" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="M22" s="154" t="s">
+      <c r="M22" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N22" s="154" t="s">
+      <c r="N22" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="154" t="s">
+      <c r="O22" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="154" t="s">
+      <c r="P22" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="Q22" s="154" t="s">
+      <c r="Q22" s="153" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="157" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="158" t="n">
+      <c r="D23" s="157" t="n">
         <v>598</v>
       </c>
-      <c r="E23" s="149" t="s">
+      <c r="E23" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="159" t="s">
+      <c r="F23" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="159" t="s">
+      <c r="G23" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="159" t="s">
+      <c r="H23" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="159" t="s">
+      <c r="I23" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="159" t="s">
+      <c r="J23" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="159" t="s">
+      <c r="K23" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="159" t="s">
+      <c r="L23" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="M23" s="159" t="s">
+      <c r="M23" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="159" t="s">
+      <c r="N23" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="O23" s="159" t="s">
+      <c r="O23" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="159" t="s">
+      <c r="P23" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="Q23" s="159" t="s">
+      <c r="Q23" s="158" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:E5"/>
@@ -60486,7 +60485,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -60495,7 +60494,7 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="160"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="106" t="s">
         <v>147</v>
       </c>
@@ -60506,36 +60505,36 @@
       <c r="H3" s="106"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
     </row>
     <row r="5" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="E5" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="163" t="s">
+      <c r="F5" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="163" t="s">
         <v>97</v>
       </c>
     </row>
@@ -60563,7 +60562,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="122" t="n">
@@ -60586,7 +60585,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="150" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="122" t="s">
@@ -60609,7 +60608,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="150" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="122" t="s">
@@ -60632,7 +60631,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="150" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="122" t="n">
@@ -60655,7 +60654,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="150" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="122" t="n">
@@ -60678,7 +60677,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="150" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="122" t="n">
@@ -60701,7 +60700,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="150" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="122" t="s">
@@ -60724,7 +60723,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="164" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="122" t="n">
@@ -60747,7 +60746,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="150" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="122" t="n">
@@ -60770,7 +60769,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="150" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="122" t="s">
@@ -60793,7 +60792,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="150" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="122" t="n">
@@ -60816,7 +60815,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="156" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="136" t="n">
@@ -60874,138 +60873,138 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="107.441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="168" t="s">
+      <c r="F1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="169" t="s">
+      <c r="G1" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="169" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="172" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="175" t="n">
+      <c r="G2" s="174" t="n">
         <v>8</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="175" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="172" t="s">
+      <c r="D3" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="176" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="180" t="n">
+      <c r="G3" s="179" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="176"/>
+      <c r="H3" s="175"/>
     </row>
     <row r="4" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="182" t="s">
+      <c r="E4" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="183" t="s">
+      <c r="F4" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="180" t="n">
+      <c r="G4" s="179" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="176"/>
+      <c r="H4" s="175"/>
     </row>
     <row r="5" customFormat="false" ht="113.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="179" t="s">
+      <c r="E5" s="178" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="183" t="s">
+      <c r="F5" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="186" t="n">
+      <c r="G5" s="185" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="176"/>
+      <c r="H5" s="175"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -61031,2129 +61030,2129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="187" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="187" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="187" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="187" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="188" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="187" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="187" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="187" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="187" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="186" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="186" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="186" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="186" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="187" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="186" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="186" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="186" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="186" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="E1" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="191" t="s">
+      <c r="F1" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="H1" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="192" t="s">
+      <c r="I1" s="191" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="194" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="196" t="n">
+      <c r="F2" s="195" t="n">
         <v>16</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="194" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="194" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="196" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="197" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198" t="s">
+      <c r="D3" s="197"/>
+      <c r="E3" s="197" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="199" t="n">
+      <c r="F3" s="198" t="n">
         <v>23</v>
       </c>
-      <c r="G3" s="195" t="s">
+      <c r="G3" s="194" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="198" t="s">
+      <c r="H3" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198" t="s">
+      <c r="D4" s="197"/>
+      <c r="E4" s="197" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="199" t="n">
+      <c r="F4" s="198" t="n">
         <v>29</v>
       </c>
-      <c r="G4" s="195" t="s">
+      <c r="G4" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="200" t="s">
+      <c r="I4" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="197" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198" t="s">
+      <c r="D5" s="197"/>
+      <c r="E5" s="197" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="199" t="n">
+      <c r="F5" s="198" t="n">
         <v>35</v>
       </c>
-      <c r="G5" s="195" t="s">
+      <c r="G5" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="198" t="s">
+      <c r="H5" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="200" t="s">
+      <c r="I5" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="197" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198" t="s">
+      <c r="D6" s="197"/>
+      <c r="E6" s="197" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="199" t="n">
+      <c r="F6" s="198" t="n">
         <v>41</v>
       </c>
-      <c r="G6" s="195" t="s">
+      <c r="G6" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="198" t="s">
+      <c r="H6" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="200" t="s">
+      <c r="I6" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="C7" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="197" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="199" t="n">
+      <c r="F7" s="198" t="n">
         <v>428</v>
       </c>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="200" t="s">
+      <c r="I7" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="201" t="s">
+      <c r="C8" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="198" t="s">
+      <c r="E8" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="199" t="n">
+      <c r="F8" s="198" t="n">
         <v>429</v>
       </c>
-      <c r="G8" s="198" t="s">
+      <c r="G8" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="198" t="s">
+      <c r="H8" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="200" t="s">
+      <c r="I8" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="198" t="s">
+      <c r="E9" s="197" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="199" t="n">
+      <c r="F9" s="198" t="n">
         <v>430</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="198" t="s">
+      <c r="H9" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="200" t="s">
+      <c r="I9" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="193" t="s">
+      <c r="A10" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="198" t="s">
+      <c r="E10" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="199" t="n">
+      <c r="F10" s="198" t="n">
         <v>485</v>
       </c>
-      <c r="G10" s="198" t="s">
+      <c r="G10" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="H10" s="198" t="s">
+      <c r="H10" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="200" t="s">
+      <c r="I10" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="201" t="s">
+      <c r="D11" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="198" t="s">
+      <c r="E11" s="197" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="199" t="n">
+      <c r="F11" s="198" t="n">
         <v>432</v>
       </c>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="198" t="s">
+      <c r="H11" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I11" s="200" t="s">
+      <c r="I11" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="201" t="s">
+      <c r="D12" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="198" t="s">
+      <c r="E12" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="199" t="n">
+      <c r="F12" s="198" t="n">
         <v>433</v>
       </c>
-      <c r="G12" s="198" t="s">
+      <c r="G12" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="198" t="s">
+      <c r="H12" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="200" t="s">
+      <c r="I12" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="193" t="s">
+      <c r="B13" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="201" t="s">
+      <c r="D13" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="198" t="s">
+      <c r="E13" s="197" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="199" t="n">
+      <c r="F13" s="198" t="n">
         <v>434</v>
       </c>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="197" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="198" t="s">
+      <c r="H13" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="200" t="s">
+      <c r="I13" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="201" t="s">
+      <c r="D14" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="198" t="s">
+      <c r="E14" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="199" t="n">
+      <c r="F14" s="198" t="n">
         <v>435</v>
       </c>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="198" t="s">
+      <c r="H14" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I14" s="200" t="s">
+      <c r="I14" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="201" t="s">
+      <c r="D15" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E15" s="197" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="199" t="n">
+      <c r="F15" s="198" t="n">
         <v>436</v>
       </c>
-      <c r="G15" s="198" t="s">
+      <c r="G15" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H15" s="198" t="s">
+      <c r="H15" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="200" t="s">
+      <c r="I15" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="193" t="s">
+      <c r="A16" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="201" t="s">
+      <c r="D16" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="199" t="n">
+      <c r="F16" s="198" t="n">
         <v>437</v>
       </c>
-      <c r="G16" s="198" t="s">
+      <c r="G16" s="197" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="198" t="s">
+      <c r="H16" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="200" t="s">
+      <c r="I16" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="193" t="s">
+      <c r="A17" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="202" t="s">
+      <c r="C17" s="201" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202" t="s">
+      <c r="D17" s="201"/>
+      <c r="E17" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="203" t="n">
+      <c r="F17" s="202" t="n">
         <v>491</v>
       </c>
-      <c r="G17" s="202" t="s">
+      <c r="G17" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I17" s="204" t="s">
+      <c r="I17" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="193" t="s">
+      <c r="A18" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="202" t="s">
+      <c r="C18" s="201" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202" t="s">
+      <c r="D18" s="201"/>
+      <c r="E18" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="203" t="n">
+      <c r="F18" s="202" t="n">
         <v>492</v>
       </c>
-      <c r="G18" s="202" t="s">
+      <c r="G18" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="202" t="s">
+      <c r="H18" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I18" s="204" t="s">
+      <c r="I18" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="193" t="s">
+      <c r="A19" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="193" t="s">
+      <c r="B19" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="202" t="s">
+      <c r="C19" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202" t="s">
+      <c r="D19" s="201"/>
+      <c r="E19" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="203" t="n">
+      <c r="F19" s="202" t="n">
         <v>493</v>
       </c>
-      <c r="G19" s="202" t="s">
+      <c r="G19" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="202" t="s">
+      <c r="H19" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="204" t="s">
+      <c r="I19" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="193" t="s">
+      <c r="A20" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="202" t="s">
+      <c r="C20" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202" t="s">
+      <c r="D20" s="201"/>
+      <c r="E20" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="203" t="n">
+      <c r="F20" s="202" t="n">
         <v>494</v>
       </c>
-      <c r="G20" s="202" t="s">
+      <c r="G20" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="202" t="s">
+      <c r="H20" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I20" s="204" t="s">
+      <c r="I20" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="202" t="s">
+      <c r="C21" s="201" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202" t="s">
+      <c r="D21" s="201"/>
+      <c r="E21" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="203" t="n">
+      <c r="F21" s="202" t="n">
         <v>495</v>
       </c>
-      <c r="G21" s="202" t="s">
+      <c r="G21" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="H21" s="202" t="s">
+      <c r="H21" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="204" t="s">
+      <c r="I21" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="193" t="s">
+      <c r="A22" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="202" t="s">
+      <c r="C22" s="201" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="203" t="n">
+      <c r="F22" s="202" t="n">
         <v>496</v>
       </c>
-      <c r="G22" s="202" t="s">
+      <c r="G22" s="201" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="202" t="s">
+      <c r="H22" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="204" t="s">
+      <c r="I22" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="202" t="s">
+      <c r="C23" s="201" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202" t="s">
+      <c r="D23" s="201"/>
+      <c r="E23" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="203" t="n">
+      <c r="F23" s="202" t="n">
         <v>497</v>
       </c>
-      <c r="G23" s="202" t="s">
+      <c r="G23" s="201" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="202" t="s">
+      <c r="H23" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="204" t="s">
+      <c r="I23" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="193" t="s">
+      <c r="B24" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="202" t="s">
+      <c r="C24" s="201" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202" t="s">
+      <c r="D24" s="201"/>
+      <c r="E24" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="203" t="n">
+      <c r="F24" s="202" t="n">
         <v>498</v>
       </c>
-      <c r="G24" s="202" t="s">
+      <c r="G24" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="H24" s="202" t="s">
+      <c r="H24" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="204" t="s">
+      <c r="I24" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="193" t="s">
+      <c r="B25" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="202" t="s">
+      <c r="C25" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202" t="s">
+      <c r="D25" s="201"/>
+      <c r="E25" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="203" t="n">
+      <c r="F25" s="202" t="n">
         <v>499</v>
       </c>
-      <c r="G25" s="202" t="s">
+      <c r="G25" s="201" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="202" t="s">
+      <c r="H25" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="204" t="s">
+      <c r="I25" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="202" t="s">
+      <c r="C26" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202" t="s">
+      <c r="D26" s="201"/>
+      <c r="E26" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="203" t="n">
+      <c r="F26" s="202" t="n">
         <v>500</v>
       </c>
-      <c r="G26" s="202" t="s">
+      <c r="G26" s="201" t="s">
         <v>211</v>
       </c>
-      <c r="H26" s="202" t="s">
+      <c r="H26" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I26" s="204" t="s">
+      <c r="I26" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="193" t="s">
+      <c r="A27" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="193" t="s">
+      <c r="B27" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="198" t="s">
+      <c r="C27" s="197" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198" t="s">
+      <c r="D27" s="197"/>
+      <c r="E27" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="199" t="n">
+      <c r="F27" s="198" t="n">
         <v>45</v>
       </c>
-      <c r="G27" s="195" t="s">
+      <c r="G27" s="194" t="s">
         <v>173</v>
       </c>
-      <c r="H27" s="198" t="s">
+      <c r="H27" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="200" t="s">
+      <c r="I27" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="193" t="s">
+      <c r="A28" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="193" t="s">
+      <c r="B28" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="198" t="s">
+      <c r="C28" s="197" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198" t="s">
+      <c r="D28" s="197"/>
+      <c r="E28" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="199" t="n">
+      <c r="F28" s="198" t="n">
         <v>50</v>
       </c>
-      <c r="G28" s="195" t="s">
+      <c r="G28" s="194" t="s">
         <v>177</v>
       </c>
-      <c r="H28" s="198" t="s">
+      <c r="H28" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="200" t="s">
+      <c r="I28" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="193" t="s">
+      <c r="A29" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="198" t="s">
+      <c r="C29" s="197" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198" t="s">
+      <c r="D29" s="197"/>
+      <c r="E29" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="199" t="n">
+      <c r="F29" s="198" t="n">
         <v>53</v>
       </c>
-      <c r="G29" s="195" t="s">
+      <c r="G29" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="198" t="s">
+      <c r="H29" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I29" s="200" t="s">
+      <c r="I29" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="193" t="s">
+      <c r="A30" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="193" t="s">
+      <c r="B30" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="198" t="s">
+      <c r="C30" s="197" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198" t="s">
+      <c r="D30" s="197"/>
+      <c r="E30" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="199" t="n">
+      <c r="F30" s="198" t="n">
         <v>56</v>
       </c>
-      <c r="G30" s="195" t="s">
+      <c r="G30" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="198" t="s">
+      <c r="H30" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I30" s="200" t="s">
+      <c r="I30" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="193" t="s">
+      <c r="A31" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="193" t="s">
+      <c r="B31" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="198" t="s">
+      <c r="C31" s="197" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198" t="s">
+      <c r="D31" s="197"/>
+      <c r="E31" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="199" t="n">
+      <c r="F31" s="198" t="n">
         <v>59</v>
       </c>
-      <c r="G31" s="195" t="s">
+      <c r="G31" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H31" s="198" t="s">
+      <c r="H31" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I31" s="200" t="s">
+      <c r="I31" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="193" t="s">
+      <c r="A32" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="193" t="s">
+      <c r="B32" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="197" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198" t="s">
+      <c r="D32" s="197"/>
+      <c r="E32" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="199" t="n">
+      <c r="F32" s="198" t="n">
         <v>62</v>
       </c>
-      <c r="G32" s="195" t="s">
+      <c r="G32" s="194" t="s">
         <v>219</v>
       </c>
-      <c r="H32" s="198" t="s">
+      <c r="H32" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="200" t="s">
+      <c r="I32" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="193" t="s">
+      <c r="A33" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="197" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198" t="s">
+      <c r="D33" s="197"/>
+      <c r="E33" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="199" t="n">
+      <c r="F33" s="198" t="n">
         <v>65</v>
       </c>
-      <c r="G33" s="195" t="s">
+      <c r="G33" s="194" t="s">
         <v>221</v>
       </c>
-      <c r="H33" s="198" t="s">
+      <c r="H33" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I33" s="200" t="s">
+      <c r="I33" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="193" t="s">
+      <c r="A34" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="197" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198" t="s">
+      <c r="D34" s="197"/>
+      <c r="E34" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="199" t="n">
+      <c r="F34" s="198" t="n">
         <v>68</v>
       </c>
-      <c r="G34" s="195" t="s">
+      <c r="G34" s="194" t="s">
         <v>223</v>
       </c>
-      <c r="H34" s="198" t="s">
+      <c r="H34" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I34" s="200" t="s">
+      <c r="I34" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="193" t="s">
+      <c r="A35" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="197" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198" t="s">
+      <c r="D35" s="197"/>
+      <c r="E35" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F35" s="199" t="n">
+      <c r="F35" s="198" t="n">
         <v>71</v>
       </c>
-      <c r="G35" s="195" t="s">
+      <c r="G35" s="194" t="s">
         <v>225</v>
       </c>
-      <c r="H35" s="198" t="s">
+      <c r="H35" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I35" s="200" t="s">
+      <c r="I35" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="193" t="s">
+      <c r="B36" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="198" t="s">
+      <c r="C36" s="197" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198" t="s">
+      <c r="D36" s="197"/>
+      <c r="E36" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="199" t="n">
+      <c r="F36" s="198" t="n">
         <v>74</v>
       </c>
-      <c r="G36" s="195" t="s">
+      <c r="G36" s="194" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="198" t="s">
+      <c r="H36" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I36" s="200" t="s">
+      <c r="I36" s="199" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="193" t="s">
+      <c r="A37" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="201" t="s">
+      <c r="C37" s="200" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="201" t="s">
+      <c r="D37" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="198" t="s">
+      <c r="E37" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="205" t="n">
+      <c r="F37" s="204" t="n">
         <v>486</v>
       </c>
-      <c r="G37" s="198" t="s">
+      <c r="G37" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="H37" s="198" t="s">
+      <c r="H37" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="200" t="s">
+      <c r="I37" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="193" t="s">
+      <c r="A38" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="201" t="s">
+      <c r="C38" s="200" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="201" t="s">
+      <c r="D38" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="198" t="s">
+      <c r="E38" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="205" t="n">
+      <c r="F38" s="204" t="n">
         <v>484</v>
       </c>
-      <c r="G38" s="198" t="s">
+      <c r="G38" s="197" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="198" t="s">
+      <c r="H38" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I38" s="200" t="s">
+      <c r="I38" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="193" t="s">
+      <c r="A39" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="193" t="s">
+      <c r="B39" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="201" t="s">
+      <c r="C39" s="200" t="s">
         <v>214</v>
       </c>
-      <c r="D39" s="201" t="s">
+      <c r="D39" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="198" t="s">
+      <c r="E39" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="206" t="n">
+      <c r="F39" s="205" t="n">
         <v>489</v>
       </c>
-      <c r="G39" s="198" t="s">
+      <c r="G39" s="197" t="s">
         <v>232</v>
       </c>
-      <c r="H39" s="198" t="s">
+      <c r="H39" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I39" s="200" t="s">
+      <c r="I39" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="193" t="s">
+      <c r="A40" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="193" t="s">
+      <c r="B40" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="201" t="s">
+      <c r="C40" s="200" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="201" t="s">
+      <c r="D40" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="198" t="s">
+      <c r="E40" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="206" t="n">
+      <c r="F40" s="205" t="n">
         <v>439</v>
       </c>
-      <c r="G40" s="198" t="s">
+      <c r="G40" s="197" t="s">
         <v>233</v>
       </c>
-      <c r="H40" s="198" t="s">
+      <c r="H40" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I40" s="200" t="s">
+      <c r="I40" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="193" t="s">
+      <c r="A41" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="193" t="s">
+      <c r="B41" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="201" t="s">
+      <c r="C41" s="200" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="201" t="s">
+      <c r="D41" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="198" t="s">
+      <c r="E41" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="205" t="n">
+      <c r="F41" s="204" t="n">
         <v>440</v>
       </c>
-      <c r="G41" s="198" t="s">
+      <c r="G41" s="197" t="s">
         <v>234</v>
       </c>
-      <c r="H41" s="198" t="s">
+      <c r="H41" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I41" s="200" t="s">
+      <c r="I41" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="193" t="s">
+      <c r="A42" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="193" t="s">
+      <c r="B42" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="201" t="s">
+      <c r="C42" s="200" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="201" t="s">
+      <c r="D42" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="198" t="s">
+      <c r="E42" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F42" s="205" t="n">
+      <c r="F42" s="204" t="n">
         <v>441</v>
       </c>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="197" t="s">
         <v>235</v>
       </c>
-      <c r="H42" s="198" t="s">
+      <c r="H42" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I42" s="200" t="s">
+      <c r="I42" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="201" t="s">
+      <c r="C43" s="200" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="201" t="s">
+      <c r="D43" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="198" t="s">
+      <c r="E43" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="207" t="n">
+      <c r="F43" s="206" t="n">
         <v>442</v>
       </c>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="197" t="s">
         <v>236</v>
       </c>
-      <c r="H43" s="198" t="s">
+      <c r="H43" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="200" t="s">
+      <c r="I43" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="193" t="s">
+      <c r="B44" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="201" t="s">
+      <c r="C44" s="200" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="201" t="s">
+      <c r="D44" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="198" t="s">
+      <c r="E44" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="207" t="n">
+      <c r="F44" s="206" t="n">
         <v>443</v>
       </c>
-      <c r="G44" s="198" t="s">
+      <c r="G44" s="197" t="s">
         <v>237</v>
       </c>
-      <c r="H44" s="198" t="s">
+      <c r="H44" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="200" t="s">
+      <c r="I44" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="201" t="s">
+      <c r="C45" s="200" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="201" t="s">
+      <c r="D45" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="198" t="s">
+      <c r="E45" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F45" s="207" t="n">
+      <c r="F45" s="206" t="n">
         <v>444</v>
       </c>
-      <c r="G45" s="198" t="s">
+      <c r="G45" s="197" t="s">
         <v>238</v>
       </c>
-      <c r="H45" s="198" t="s">
+      <c r="H45" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="200" t="s">
+      <c r="I45" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="193" t="s">
+      <c r="A46" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="193" t="s">
+      <c r="B46" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="201" t="s">
+      <c r="C46" s="200" t="s">
         <v>217</v>
       </c>
-      <c r="D46" s="201" t="s">
+      <c r="D46" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="198" t="s">
+      <c r="E46" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="207" t="n">
+      <c r="F46" s="206" t="n">
         <v>445</v>
       </c>
-      <c r="G46" s="198" t="s">
+      <c r="G46" s="197" t="s">
         <v>239</v>
       </c>
-      <c r="H46" s="198" t="s">
+      <c r="H46" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I46" s="200" t="s">
+      <c r="I46" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="193" t="s">
+      <c r="A47" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="201" t="s">
+      <c r="C47" s="200" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="201" t="s">
+      <c r="D47" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="198" t="s">
+      <c r="E47" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="205" t="n">
+      <c r="F47" s="204" t="n">
         <v>446</v>
       </c>
-      <c r="G47" s="198" t="s">
+      <c r="G47" s="197" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="198" t="s">
+      <c r="H47" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="200" t="s">
+      <c r="I47" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="193" t="s">
+      <c r="B48" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="201" t="s">
+      <c r="C48" s="200" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="201" t="s">
+      <c r="D48" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="198" t="s">
+      <c r="E48" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F48" s="205" t="n">
+      <c r="F48" s="204" t="n">
         <v>447</v>
       </c>
-      <c r="G48" s="198" t="s">
+      <c r="G48" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="H48" s="198" t="s">
+      <c r="H48" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="200" t="s">
+      <c r="I48" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="193" t="s">
+      <c r="A49" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="201" t="s">
+      <c r="C49" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="201" t="s">
+      <c r="D49" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E49" s="198" t="s">
+      <c r="E49" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F49" s="205" t="n">
+      <c r="F49" s="204" t="n">
         <v>448</v>
       </c>
-      <c r="G49" s="198" t="s">
+      <c r="G49" s="197" t="s">
         <v>242</v>
       </c>
-      <c r="H49" s="198" t="s">
+      <c r="H49" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I49" s="200" t="s">
+      <c r="I49" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="193" t="s">
+      <c r="A50" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="193" t="s">
+      <c r="B50" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="201" t="s">
+      <c r="C50" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="201" t="s">
+      <c r="D50" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="198" t="s">
+      <c r="E50" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F50" s="205" t="n">
+      <c r="F50" s="204" t="n">
         <v>449</v>
       </c>
-      <c r="G50" s="198" t="s">
+      <c r="G50" s="197" t="s">
         <v>243</v>
       </c>
-      <c r="H50" s="198" t="s">
+      <c r="H50" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I50" s="200" t="s">
+      <c r="I50" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="193" t="s">
+      <c r="A51" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="193" t="s">
+      <c r="B51" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="201" t="s">
+      <c r="C51" s="200" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="201" t="s">
+      <c r="D51" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="198" t="s">
+      <c r="E51" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="205" t="n">
+      <c r="F51" s="204" t="n">
         <v>450</v>
       </c>
-      <c r="G51" s="198" t="s">
+      <c r="G51" s="197" t="s">
         <v>244</v>
       </c>
-      <c r="H51" s="198" t="s">
+      <c r="H51" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I51" s="200" t="s">
+      <c r="I51" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="193" t="s">
+      <c r="A52" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="201" t="s">
+      <c r="C52" s="200" t="s">
         <v>222</v>
       </c>
-      <c r="D52" s="201" t="s">
+      <c r="D52" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="198" t="s">
+      <c r="E52" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F52" s="205" t="n">
+      <c r="F52" s="204" t="n">
         <v>451</v>
       </c>
-      <c r="G52" s="198" t="s">
+      <c r="G52" s="197" t="s">
         <v>245</v>
       </c>
-      <c r="H52" s="198" t="s">
+      <c r="H52" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I52" s="200" t="s">
+      <c r="I52" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="193" t="s">
+      <c r="A53" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="193" t="s">
+      <c r="B53" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="201" t="s">
+      <c r="C53" s="200" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="201" t="s">
+      <c r="D53" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E53" s="198" t="s">
+      <c r="E53" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="205" t="n">
+      <c r="F53" s="204" t="n">
         <v>452</v>
       </c>
-      <c r="G53" s="198" t="s">
+      <c r="G53" s="197" t="s">
         <v>246</v>
       </c>
-      <c r="H53" s="198" t="s">
+      <c r="H53" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I53" s="200" t="s">
+      <c r="I53" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="193" t="s">
+      <c r="A54" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="193" t="s">
+      <c r="B54" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="201" t="s">
+      <c r="C54" s="200" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="201" t="s">
+      <c r="D54" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="198" t="s">
+      <c r="E54" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F54" s="205" t="n">
+      <c r="F54" s="204" t="n">
         <v>453</v>
       </c>
-      <c r="G54" s="198" t="s">
+      <c r="G54" s="197" t="s">
         <v>247</v>
       </c>
-      <c r="H54" s="198" t="s">
+      <c r="H54" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="200" t="s">
+      <c r="I54" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="193" t="s">
+      <c r="A55" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="193" t="s">
+      <c r="B55" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="201" t="s">
+      <c r="C55" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="201" t="s">
+      <c r="D55" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="198" t="s">
+      <c r="E55" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="199" t="n">
+      <c r="F55" s="198" t="n">
         <v>454</v>
       </c>
-      <c r="G55" s="198" t="s">
+      <c r="G55" s="197" t="s">
         <v>248</v>
       </c>
-      <c r="H55" s="198" t="s">
+      <c r="H55" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I55" s="200" t="s">
+      <c r="I55" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="193" t="s">
+      <c r="A56" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="201" t="s">
+      <c r="C56" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="201" t="s">
+      <c r="D56" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="198" t="s">
+      <c r="E56" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="199" t="n">
+      <c r="F56" s="198" t="n">
         <v>455</v>
       </c>
-      <c r="G56" s="198" t="s">
+      <c r="G56" s="197" t="s">
         <v>249</v>
       </c>
-      <c r="H56" s="198" t="s">
+      <c r="H56" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I56" s="200" t="s">
+      <c r="I56" s="199" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="193" t="s">
+      <c r="A57" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="193" t="s">
+      <c r="B57" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="202" t="s">
+      <c r="C57" s="201" t="s">
         <v>212</v>
       </c>
-      <c r="D57" s="202"/>
-      <c r="E57" s="202" t="s">
+      <c r="D57" s="201"/>
+      <c r="E57" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="203" t="n">
+      <c r="F57" s="202" t="n">
         <v>151</v>
       </c>
-      <c r="G57" s="202" t="s">
+      <c r="G57" s="201" t="s">
         <v>251</v>
       </c>
-      <c r="H57" s="202" t="s">
+      <c r="H57" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="204" t="s">
+      <c r="I57" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="193" t="s">
+      <c r="A58" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="193" t="s">
+      <c r="B58" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="202" t="s">
+      <c r="C58" s="201" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="202"/>
-      <c r="E58" s="202" t="s">
+      <c r="D58" s="201"/>
+      <c r="E58" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F58" s="203" t="n">
+      <c r="F58" s="202" t="n">
         <v>276</v>
       </c>
-      <c r="G58" s="202" t="s">
+      <c r="G58" s="201" t="s">
         <v>253</v>
       </c>
-      <c r="H58" s="202" t="s">
+      <c r="H58" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I58" s="204" t="s">
+      <c r="I58" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="193" t="s">
+      <c r="A59" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="193" t="s">
+      <c r="B59" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="202" t="s">
+      <c r="C59" s="201" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="202"/>
-      <c r="E59" s="202" t="s">
+      <c r="D59" s="201"/>
+      <c r="E59" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F59" s="203" t="n">
+      <c r="F59" s="202" t="n">
         <v>152</v>
       </c>
-      <c r="G59" s="202" t="s">
+      <c r="G59" s="201" t="s">
         <v>254</v>
       </c>
-      <c r="H59" s="202" t="s">
+      <c r="H59" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I59" s="204" t="s">
+      <c r="I59" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="193" t="s">
+      <c r="A60" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="193" t="s">
+      <c r="B60" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="202" t="s">
+      <c r="C60" s="201" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="202"/>
-      <c r="E60" s="202" t="s">
+      <c r="D60" s="201"/>
+      <c r="E60" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F60" s="203" t="n">
+      <c r="F60" s="202" t="n">
         <v>372</v>
       </c>
-      <c r="G60" s="202" t="s">
+      <c r="G60" s="201" t="s">
         <v>255</v>
       </c>
-      <c r="H60" s="202" t="s">
+      <c r="H60" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I60" s="204" t="s">
+      <c r="I60" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="193" t="s">
+      <c r="A61" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="193" t="s">
+      <c r="B61" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="202" t="s">
+      <c r="C61" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="202"/>
-      <c r="E61" s="202" t="s">
+      <c r="D61" s="201"/>
+      <c r="E61" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F61" s="203" t="n">
+      <c r="F61" s="202" t="n">
         <v>153</v>
       </c>
-      <c r="G61" s="202" t="s">
+      <c r="G61" s="201" t="s">
         <v>256</v>
       </c>
-      <c r="H61" s="202" t="s">
+      <c r="H61" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I61" s="204" t="s">
+      <c r="I61" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="193" t="s">
+      <c r="A62" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="193" t="s">
+      <c r="B62" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="202" t="s">
+      <c r="C62" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="202"/>
-      <c r="E62" s="202" t="s">
+      <c r="D62" s="201"/>
+      <c r="E62" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F62" s="203" t="n">
+      <c r="F62" s="202" t="n">
         <v>376</v>
       </c>
-      <c r="G62" s="202" t="s">
+      <c r="G62" s="201" t="s">
         <v>257</v>
       </c>
-      <c r="H62" s="202" t="s">
+      <c r="H62" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I62" s="204" t="s">
+      <c r="I62" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="193" t="s">
+      <c r="A63" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="193" t="s">
+      <c r="B63" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="202" t="s">
+      <c r="C63" s="201" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="202"/>
-      <c r="E63" s="202" t="s">
+      <c r="D63" s="201"/>
+      <c r="E63" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F63" s="203" t="n">
+      <c r="F63" s="202" t="n">
         <v>154</v>
       </c>
-      <c r="G63" s="202" t="s">
+      <c r="G63" s="201" t="s">
         <v>258</v>
       </c>
-      <c r="H63" s="202" t="s">
+      <c r="H63" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I63" s="204" t="s">
+      <c r="I63" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="193" t="s">
+      <c r="A64" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="193" t="s">
+      <c r="B64" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="202" t="s">
+      <c r="C64" s="201" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="202"/>
-      <c r="E64" s="202" t="s">
+      <c r="D64" s="201"/>
+      <c r="E64" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F64" s="203" t="n">
+      <c r="F64" s="202" t="n">
         <v>380</v>
       </c>
-      <c r="G64" s="202" t="s">
+      <c r="G64" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="H64" s="202" t="s">
+      <c r="H64" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I64" s="204" t="s">
+      <c r="I64" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="193" t="s">
+      <c r="A65" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="193" t="s">
+      <c r="B65" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="202" t="s">
+      <c r="C65" s="201" t="s">
         <v>217</v>
       </c>
-      <c r="D65" s="202"/>
-      <c r="E65" s="202" t="s">
+      <c r="D65" s="201"/>
+      <c r="E65" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F65" s="203" t="n">
+      <c r="F65" s="202" t="n">
         <v>155</v>
       </c>
-      <c r="G65" s="202" t="s">
+      <c r="G65" s="201" t="s">
         <v>260</v>
       </c>
-      <c r="H65" s="202" t="s">
+      <c r="H65" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I65" s="204" t="s">
+      <c r="I65" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="193" t="s">
+      <c r="A66" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="193" t="s">
+      <c r="B66" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="202" t="s">
+      <c r="C66" s="201" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="202"/>
-      <c r="E66" s="202" t="s">
+      <c r="D66" s="201"/>
+      <c r="E66" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F66" s="203" t="n">
+      <c r="F66" s="202" t="n">
         <v>384</v>
       </c>
-      <c r="G66" s="202" t="s">
+      <c r="G66" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="H66" s="202" t="s">
+      <c r="H66" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I66" s="204" t="s">
+      <c r="I66" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="193" t="s">
+      <c r="A67" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="193" t="s">
+      <c r="B67" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="202" t="s">
+      <c r="C67" s="201" t="s">
         <v>218</v>
       </c>
-      <c r="D67" s="202"/>
-      <c r="E67" s="202" t="s">
+      <c r="D67" s="201"/>
+      <c r="E67" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="203" t="n">
+      <c r="F67" s="202" t="n">
         <v>156</v>
       </c>
-      <c r="G67" s="202" t="s">
+      <c r="G67" s="201" t="s">
         <v>262</v>
       </c>
-      <c r="H67" s="202" t="s">
+      <c r="H67" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="204" t="s">
+      <c r="I67" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="193" t="s">
+      <c r="A68" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="202" t="s">
+      <c r="C68" s="201" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="202"/>
-      <c r="E68" s="202" t="s">
+      <c r="D68" s="201"/>
+      <c r="E68" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F68" s="203" t="n">
+      <c r="F68" s="202" t="n">
         <v>388</v>
       </c>
-      <c r="G68" s="202" t="s">
+      <c r="G68" s="201" t="s">
         <v>263</v>
       </c>
-      <c r="H68" s="202" t="s">
+      <c r="H68" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I68" s="204" t="s">
+      <c r="I68" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="193" t="s">
+      <c r="A69" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="193" t="s">
+      <c r="B69" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="202" t="s">
+      <c r="C69" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="202"/>
-      <c r="E69" s="202" t="s">
+      <c r="D69" s="201"/>
+      <c r="E69" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="203" t="n">
+      <c r="F69" s="202" t="n">
         <v>157</v>
       </c>
-      <c r="G69" s="202" t="s">
+      <c r="G69" s="201" t="s">
         <v>264</v>
       </c>
-      <c r="H69" s="202" t="s">
+      <c r="H69" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I69" s="204" t="s">
+      <c r="I69" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="193" t="s">
+      <c r="A70" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="193" t="s">
+      <c r="B70" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="202" t="s">
+      <c r="C70" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="202"/>
-      <c r="E70" s="202" t="s">
+      <c r="D70" s="201"/>
+      <c r="E70" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F70" s="203" t="n">
+      <c r="F70" s="202" t="n">
         <v>392</v>
       </c>
-      <c r="G70" s="202" t="s">
+      <c r="G70" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="H70" s="202" t="s">
+      <c r="H70" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I70" s="204" t="s">
+      <c r="I70" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="193" t="s">
+      <c r="A71" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="193" t="s">
+      <c r="B71" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="202" t="s">
+      <c r="C71" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="202"/>
-      <c r="E71" s="202" t="s">
+      <c r="D71" s="201"/>
+      <c r="E71" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F71" s="203" t="n">
+      <c r="F71" s="202" t="n">
         <v>158</v>
       </c>
-      <c r="G71" s="202" t="s">
+      <c r="G71" s="201" t="s">
         <v>266</v>
       </c>
-      <c r="H71" s="202" t="s">
+      <c r="H71" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I71" s="204" t="s">
+      <c r="I71" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="193" t="s">
+      <c r="A72" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="193" t="s">
+      <c r="B72" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="202" t="s">
+      <c r="C72" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="202"/>
-      <c r="E72" s="202" t="s">
+      <c r="D72" s="201"/>
+      <c r="E72" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F72" s="203" t="n">
+      <c r="F72" s="202" t="n">
         <v>396</v>
       </c>
-      <c r="G72" s="202" t="s">
+      <c r="G72" s="201" t="s">
         <v>267</v>
       </c>
-      <c r="H72" s="202" t="s">
+      <c r="H72" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I72" s="204" t="s">
+      <c r="I72" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="193" t="s">
+      <c r="A73" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="193" t="s">
+      <c r="B73" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="202" t="s">
+      <c r="C73" s="201" t="s">
         <v>224</v>
       </c>
-      <c r="D73" s="202"/>
-      <c r="E73" s="202" t="s">
+      <c r="D73" s="201"/>
+      <c r="E73" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F73" s="203" t="n">
+      <c r="F73" s="202" t="n">
         <v>159</v>
       </c>
-      <c r="G73" s="202" t="s">
+      <c r="G73" s="201" t="s">
         <v>268</v>
       </c>
-      <c r="H73" s="202" t="s">
+      <c r="H73" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I73" s="204" t="s">
+      <c r="I73" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="193" t="s">
+      <c r="A74" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="193" t="s">
+      <c r="B74" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="202" t="s">
+      <c r="C74" s="201" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="202"/>
-      <c r="E74" s="202" t="s">
+      <c r="D74" s="201"/>
+      <c r="E74" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="203" t="n">
+      <c r="F74" s="202" t="n">
         <v>400</v>
       </c>
-      <c r="G74" s="202" t="s">
+      <c r="G74" s="201" t="s">
         <v>269</v>
       </c>
-      <c r="H74" s="202" t="s">
+      <c r="H74" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I74" s="204" t="s">
+      <c r="I74" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="193" t="s">
+      <c r="A75" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="193" t="s">
+      <c r="B75" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="202" t="s">
+      <c r="C75" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="D75" s="202"/>
-      <c r="E75" s="202" t="s">
+      <c r="D75" s="201"/>
+      <c r="E75" s="201" t="s">
         <v>250</v>
       </c>
-      <c r="F75" s="203" t="n">
+      <c r="F75" s="202" t="n">
         <v>160</v>
       </c>
-      <c r="G75" s="202" t="s">
+      <c r="G75" s="201" t="s">
         <v>270</v>
       </c>
-      <c r="H75" s="202" t="s">
+      <c r="H75" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I75" s="204" t="s">
+      <c r="I75" s="203" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="193" t="s">
+      <c r="A76" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="193" t="s">
+      <c r="B76" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="202" t="s">
+      <c r="C76" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202" t="s">
+      <c r="D76" s="201"/>
+      <c r="E76" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="F76" s="203" t="n">
+      <c r="F76" s="202" t="n">
         <v>404</v>
       </c>
-      <c r="G76" s="202" t="s">
+      <c r="G76" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="H76" s="202" t="s">
+      <c r="H76" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="I76" s="204" t="s">
+      <c r="I76" s="203" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63161,26 +63160,26 @@
       <c r="A77" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="201" t="s">
+      <c r="B77" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="198" t="s">
+      <c r="C77" s="197" t="s">
         <v>272</v>
       </c>
-      <c r="D77" s="198"/>
-      <c r="E77" s="198" t="s">
+      <c r="D77" s="197"/>
+      <c r="E77" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="F77" s="206" t="n">
+      <c r="F77" s="205" t="n">
         <v>456</v>
       </c>
-      <c r="G77" s="198" t="s">
+      <c r="G77" s="197" t="s">
         <v>274</v>
       </c>
-      <c r="H77" s="198" t="s">
+      <c r="H77" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I77" s="200" t="s">
+      <c r="I77" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63188,26 +63187,26 @@
       <c r="A78" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="201" t="s">
+      <c r="B78" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="198" t="s">
+      <c r="C78" s="197" t="s">
         <v>275</v>
       </c>
-      <c r="D78" s="198"/>
-      <c r="E78" s="198" t="s">
+      <c r="D78" s="197"/>
+      <c r="E78" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="F78" s="206" t="n">
+      <c r="F78" s="205" t="n">
         <v>461</v>
       </c>
-      <c r="G78" s="198" t="s">
+      <c r="G78" s="197" t="s">
         <v>276</v>
       </c>
-      <c r="H78" s="198" t="s">
+      <c r="H78" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I78" s="200" t="s">
+      <c r="I78" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63215,26 +63214,26 @@
       <c r="A79" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="201" t="s">
+      <c r="B79" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="198" t="s">
+      <c r="C79" s="197" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="198"/>
-      <c r="E79" s="198" t="s">
+      <c r="D79" s="197"/>
+      <c r="E79" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="F79" s="206" t="n">
+      <c r="F79" s="205" t="n">
         <v>466</v>
       </c>
-      <c r="G79" s="198" t="s">
+      <c r="G79" s="197" t="s">
         <v>278</v>
       </c>
-      <c r="H79" s="198" t="s">
+      <c r="H79" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I79" s="200" t="s">
+      <c r="I79" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63242,26 +63241,26 @@
       <c r="A80" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="201" t="s">
+      <c r="B80" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="198" t="s">
+      <c r="C80" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="D80" s="198"/>
-      <c r="E80" s="198" t="s">
+      <c r="D80" s="197"/>
+      <c r="E80" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="F80" s="206" t="n">
+      <c r="F80" s="205" t="n">
         <v>471</v>
       </c>
-      <c r="G80" s="198" t="s">
+      <c r="G80" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="H80" s="198" t="s">
+      <c r="H80" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I80" s="200" t="s">
+      <c r="I80" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63269,26 +63268,26 @@
       <c r="A81" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="201" t="s">
+      <c r="B81" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="198" t="s">
+      <c r="C81" s="197" t="s">
         <v>281</v>
       </c>
-      <c r="D81" s="198"/>
-      <c r="E81" s="198" t="s">
+      <c r="D81" s="197"/>
+      <c r="E81" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="F81" s="208" t="n">
+      <c r="F81" s="207" t="n">
         <v>476</v>
       </c>
-      <c r="G81" s="198" t="s">
+      <c r="G81" s="197" t="s">
         <v>282</v>
       </c>
-      <c r="H81" s="198" t="s">
+      <c r="H81" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I81" s="200" t="s">
+      <c r="I81" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63296,26 +63295,26 @@
       <c r="A82" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="201" t="s">
+      <c r="B82" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="198" t="s">
+      <c r="C82" s="197" t="s">
         <v>272</v>
       </c>
-      <c r="D82" s="198"/>
-      <c r="E82" s="198" t="s">
+      <c r="D82" s="197"/>
+      <c r="E82" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="F82" s="206" t="n">
+      <c r="F82" s="205" t="n">
         <v>457</v>
       </c>
-      <c r="G82" s="198" t="s">
+      <c r="G82" s="197" t="s">
         <v>284</v>
       </c>
-      <c r="H82" s="198" t="s">
+      <c r="H82" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I82" s="200" t="s">
+      <c r="I82" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63323,26 +63322,26 @@
       <c r="A83" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="201" t="s">
+      <c r="B83" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="198" t="s">
+      <c r="C83" s="197" t="s">
         <v>275</v>
       </c>
-      <c r="D83" s="198"/>
-      <c r="E83" s="198" t="s">
+      <c r="D83" s="197"/>
+      <c r="E83" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="F83" s="206" t="n">
+      <c r="F83" s="205" t="n">
         <v>462</v>
       </c>
-      <c r="G83" s="198" t="s">
+      <c r="G83" s="197" t="s">
         <v>285</v>
       </c>
-      <c r="H83" s="198" t="s">
+      <c r="H83" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I83" s="200" t="s">
+      <c r="I83" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63350,26 +63349,26 @@
       <c r="A84" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="201" t="s">
+      <c r="B84" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="198" t="s">
+      <c r="C84" s="197" t="s">
         <v>277</v>
       </c>
-      <c r="D84" s="198"/>
-      <c r="E84" s="198" t="s">
+      <c r="D84" s="197"/>
+      <c r="E84" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="206" t="n">
+      <c r="F84" s="205" t="n">
         <v>467</v>
       </c>
-      <c r="G84" s="198" t="s">
+      <c r="G84" s="197" t="s">
         <v>286</v>
       </c>
-      <c r="H84" s="198" t="s">
+      <c r="H84" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I84" s="200" t="s">
+      <c r="I84" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63377,26 +63376,26 @@
       <c r="A85" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="201" t="s">
+      <c r="B85" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="198" t="s">
+      <c r="C85" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="198"/>
-      <c r="E85" s="198" t="s">
+      <c r="D85" s="197"/>
+      <c r="E85" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="F85" s="206" t="n">
+      <c r="F85" s="205" t="n">
         <v>472</v>
       </c>
-      <c r="G85" s="198" t="s">
+      <c r="G85" s="197" t="s">
         <v>287</v>
       </c>
-      <c r="H85" s="198" t="s">
+      <c r="H85" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I85" s="200" t="s">
+      <c r="I85" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63404,26 +63403,26 @@
       <c r="A86" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="201" t="s">
+      <c r="B86" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="198" t="s">
+      <c r="C86" s="197" t="s">
         <v>281</v>
       </c>
-      <c r="D86" s="198"/>
-      <c r="E86" s="198" t="s">
+      <c r="D86" s="197"/>
+      <c r="E86" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="F86" s="208" t="n">
+      <c r="F86" s="207" t="n">
         <v>477</v>
       </c>
-      <c r="G86" s="198" t="s">
+      <c r="G86" s="197" t="s">
         <v>288</v>
       </c>
-      <c r="H86" s="198" t="s">
+      <c r="H86" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="I86" s="200" t="s">
+      <c r="I86" s="199" t="s">
         <v>175</v>
       </c>
     </row>
@@ -63431,28 +63430,28 @@
       <c r="A87" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="209" t="s">
+      <c r="B87" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="201" t="s">
+      <c r="C87" s="200" t="s">
         <v>272</v>
       </c>
-      <c r="D87" s="201" t="s">
+      <c r="D87" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E87" s="198" t="s">
+      <c r="E87" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="F87" s="203" t="n">
+      <c r="F87" s="202" t="n">
         <v>458</v>
       </c>
-      <c r="G87" s="198" t="s">
+      <c r="G87" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="H87" s="198" t="s">
+      <c r="H87" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I87" s="200" t="s">
+      <c r="I87" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63460,28 +63459,28 @@
       <c r="A88" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="209" t="s">
+      <c r="B88" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="201" t="s">
+      <c r="C88" s="200" t="s">
         <v>272</v>
       </c>
-      <c r="D88" s="201" t="s">
+      <c r="D88" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E88" s="198" t="s">
+      <c r="E88" s="197" t="s">
         <v>290</v>
       </c>
-      <c r="F88" s="203" t="n">
+      <c r="F88" s="202" t="n">
         <v>459</v>
       </c>
-      <c r="G88" s="198" t="s">
+      <c r="G88" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="H88" s="198" t="s">
+      <c r="H88" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I88" s="200" t="s">
+      <c r="I88" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63489,28 +63488,28 @@
       <c r="A89" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="209" t="s">
+      <c r="B89" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="201" t="s">
+      <c r="C89" s="200" t="s">
         <v>275</v>
       </c>
-      <c r="D89" s="201" t="s">
+      <c r="D89" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E89" s="198" t="s">
+      <c r="E89" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="203" t="n">
+      <c r="F89" s="202" t="n">
         <v>463</v>
       </c>
-      <c r="G89" s="198" t="s">
+      <c r="G89" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="H89" s="198" t="s">
+      <c r="H89" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I89" s="200" t="s">
+      <c r="I89" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63518,28 +63517,28 @@
       <c r="A90" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="209" t="s">
+      <c r="B90" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="201" t="s">
+      <c r="C90" s="200" t="s">
         <v>275</v>
       </c>
-      <c r="D90" s="201" t="s">
+      <c r="D90" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E90" s="198" t="s">
+      <c r="E90" s="197" t="s">
         <v>290</v>
       </c>
-      <c r="F90" s="203" t="n">
+      <c r="F90" s="202" t="n">
         <v>464</v>
       </c>
-      <c r="G90" s="198" t="s">
+      <c r="G90" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="H90" s="198" t="s">
+      <c r="H90" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I90" s="200" t="s">
+      <c r="I90" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63547,28 +63546,28 @@
       <c r="A91" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="209" t="s">
+      <c r="B91" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="201" t="s">
+      <c r="C91" s="200" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="201" t="s">
+      <c r="D91" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E91" s="198" t="s">
+      <c r="E91" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="F91" s="203" t="n">
+      <c r="F91" s="202" t="n">
         <v>468</v>
       </c>
-      <c r="G91" s="198" t="s">
+      <c r="G91" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="H91" s="198" t="s">
+      <c r="H91" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I91" s="200" t="s">
+      <c r="I91" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63576,28 +63575,28 @@
       <c r="A92" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B92" s="209" t="s">
+      <c r="B92" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="201" t="s">
+      <c r="C92" s="200" t="s">
         <v>277</v>
       </c>
-      <c r="D92" s="201" t="s">
+      <c r="D92" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="198" t="s">
+      <c r="E92" s="197" t="s">
         <v>290</v>
       </c>
-      <c r="F92" s="203" t="n">
+      <c r="F92" s="202" t="n">
         <v>469</v>
       </c>
-      <c r="G92" s="198" t="s">
+      <c r="G92" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="H92" s="198" t="s">
+      <c r="H92" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I92" s="200" t="s">
+      <c r="I92" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63605,28 +63604,28 @@
       <c r="A93" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="209" t="s">
+      <c r="B93" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="201" t="s">
+      <c r="C93" s="200" t="s">
         <v>279</v>
       </c>
-      <c r="D93" s="201" t="s">
+      <c r="D93" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E93" s="198" t="s">
+      <c r="E93" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="F93" s="203" t="n">
+      <c r="F93" s="202" t="n">
         <v>473</v>
       </c>
-      <c r="G93" s="198" t="s">
+      <c r="G93" s="197" t="s">
         <v>196</v>
       </c>
-      <c r="H93" s="198" t="s">
+      <c r="H93" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I93" s="200" t="s">
+      <c r="I93" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63634,28 +63633,28 @@
       <c r="A94" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="209" t="s">
+      <c r="B94" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="201" t="s">
+      <c r="C94" s="200" t="s">
         <v>279</v>
       </c>
-      <c r="D94" s="201" t="s">
+      <c r="D94" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="198" t="s">
+      <c r="E94" s="197" t="s">
         <v>290</v>
       </c>
-      <c r="F94" s="203" t="n">
+      <c r="F94" s="202" t="n">
         <v>474</v>
       </c>
-      <c r="G94" s="198" t="s">
+      <c r="G94" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="H94" s="198" t="s">
+      <c r="H94" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I94" s="200" t="s">
+      <c r="I94" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63663,28 +63662,28 @@
       <c r="A95" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="209" t="s">
+      <c r="B95" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="209" t="s">
+      <c r="C95" s="208" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="201" t="s">
+      <c r="D95" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E95" s="198" t="s">
+      <c r="E95" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="F95" s="203" t="n">
+      <c r="F95" s="202" t="n">
         <v>478</v>
       </c>
-      <c r="G95" s="198" t="s">
+      <c r="G95" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H95" s="198" t="s">
+      <c r="H95" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="I95" s="200" t="s">
+      <c r="I95" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63692,28 +63691,28 @@
       <c r="A96" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="209" t="s">
+      <c r="B96" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="209" t="s">
+      <c r="C96" s="208" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="201" t="s">
+      <c r="D96" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="E96" s="210" t="s">
+      <c r="E96" s="209" t="s">
         <v>290</v>
       </c>
-      <c r="F96" s="211" t="n">
+      <c r="F96" s="210" t="n">
         <v>479</v>
       </c>
-      <c r="G96" s="210" t="s">
+      <c r="G96" s="209" t="s">
         <v>199</v>
       </c>
-      <c r="H96" s="210" t="s">
+      <c r="H96" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="I96" s="200" t="s">
+      <c r="I96" s="199" t="s">
         <v>188</v>
       </c>
     </row>
@@ -63743,200 +63742,200 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="211" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="212" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="214" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="215" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="217" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="218" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="215" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="215" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="215" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="215" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="219" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="217" t="s">
+      <c r="B9" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="219" t="s">
         <v>301</v>
       </c>
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="219" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="216" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="220" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="222" t="s">
+      <c r="B13" s="221" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="212" t="s">
+      <c r="A16" s="211" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="212" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="223" t="s">
+      <c r="A17" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="214" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="223" t="s">
         <v>308</v>
       </c>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="223" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="223" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="217" t="s">
+      <c r="B20" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="219" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="220" t="s">
+      <c r="A23" s="219" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="217" t="s">
+      <c r="B23" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="219" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="220" t="s">
+      <c r="A25" s="219" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="217" t="s">
+      <c r="B25" s="216" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="221" t="s">
+      <c r="A26" s="220" t="s">
         <v>316</v>
       </c>
-      <c r="B26" s="222" t="s">
+      <c r="B26" s="221" t="s">
         <v>307</v>
       </c>
     </row>
@@ -63971,276 +63970,276 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="225" t="n">
+      <c r="C1" s="224" t="n">
         <v>0.2</v>
       </c>
-      <c r="D1" s="225" t="n">
+      <c r="D1" s="224" t="n">
         <v>0.4</v>
       </c>
-      <c r="E1" s="225" t="n">
+      <c r="E1" s="224" t="n">
         <v>0.2</v>
       </c>
-      <c r="F1" s="225" t="n">
+      <c r="F1" s="224" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="226" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="227" t="s">
+      <c r="D2" s="226" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="227" t="s">
+      <c r="E2" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="226" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="230" t="s">
+      <c r="D3" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="230" t="s">
+      <c r="E3" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="F3" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="230" t="s">
+      <c r="E5" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="230" t="s">
+      <c r="F5" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="230" t="s">
+      <c r="C6" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="230" t="s">
+      <c r="D6" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="230" t="s">
+      <c r="E6" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F6" s="230" t="s">
+      <c r="F6" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C7" s="230" t="s">
+      <c r="C7" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="230" t="s">
+      <c r="D7" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="E7" s="230" t="s">
+      <c r="E7" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F7" s="230" t="s">
+      <c r="F7" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="227" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C8" s="230" t="s">
+      <c r="C8" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="230" t="s">
+      <c r="D8" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="230" t="s">
+      <c r="E8" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F8" s="230" t="s">
+      <c r="F8" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="228" t="s">
+      <c r="A9" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="230" t="s">
+      <c r="C9" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="230" t="s">
+      <c r="E9" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="230" t="s">
+      <c r="F9" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="228" t="s">
+      <c r="A10" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="230" t="s">
+      <c r="C10" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="230" t="s">
+      <c r="D10" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="230" t="s">
+      <c r="E10" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F10" s="230" t="s">
+      <c r="F10" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="230" t="s">
+      <c r="C11" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="230" t="s">
+      <c r="D11" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="230" t="s">
+      <c r="E11" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="230" t="s">
+      <c r="F11" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="230" t="s">
+      <c r="D12" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="230" t="s">
+      <c r="E12" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="230" t="s">
+      <c r="F12" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="D13" s="230" t="s">
+      <c r="D13" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="E13" s="230" t="s">
+      <c r="E13" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="F13" s="230" t="s">
+      <c r="F13" s="229" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="231" t="s">
         <v>323</v>
       </c>
-      <c r="C14" s="233" t="s">
+      <c r="C14" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="232" t="s">
         <v>322</v>
       </c>
-      <c r="E14" s="233" t="s">
+      <c r="E14" s="232" t="s">
         <v>322</v>
       </c>
-      <c r="F14" s="233" t="s">
+      <c r="F14" s="232" t="s">
         <v>321</v>
       </c>
     </row>
@@ -64268,36 +64267,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="234" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="234" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="234" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="234" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="234" width="111.080971659919"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="234" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="234" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="234" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="233" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="233" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="233" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="233" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="233" width="113.117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="233" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="233" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="233" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="235" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="235" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="235" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="236" t="s">
+      <c r="E1" s="235" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="236" t="s">
+      <c r="F1" s="235" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="237" t="s">
+      <c r="G1" s="236" t="s">
         <v>328</v>
       </c>
       <c r="H1" s="0"/>
@@ -64306,23 +64305,23 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="238" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241" t="s">
+      <c r="C2" s="239"/>
+      <c r="D2" s="240" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="239" t="s">
+      <c r="E2" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="242" t="n">
+      <c r="F2" s="241" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="242" t="s">
         <v>332</v>
       </c>
       <c r="H2" s="0"/>
@@ -64331,260 +64330,260 @@
       <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="181" t="s">
+      <c r="E3" s="180" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="245" t="n">
+      <c r="F3" s="244" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="243"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="244"/>
-      <c r="B4" s="181" t="s">
+      <c r="A4" s="243"/>
+      <c r="B4" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="180" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="245" t="n">
+      <c r="F4" s="244" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="243"/>
+      <c r="G4" s="242"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="244"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181" t="s">
+      <c r="A5" s="243"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="181" t="s">
+      <c r="E5" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="243"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="244"/>
-      <c r="B6" s="181" t="s">
+      <c r="A6" s="243"/>
+      <c r="B6" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="E6" s="246" t="s">
+      <c r="E6" s="245" t="s">
         <v>338</v>
       </c>
-      <c r="F6" s="245" t="n">
+      <c r="F6" s="244" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="243"/>
+      <c r="G6" s="242"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="244"/>
-      <c r="B7" s="181" t="s">
+      <c r="A7" s="243"/>
+      <c r="B7" s="180" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="181" t="s">
+      <c r="E7" s="180" t="s">
         <v>340</v>
       </c>
-      <c r="F7" s="245" t="n">
+      <c r="F7" s="244" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="243"/>
+      <c r="G7" s="242"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181" t="s">
+      <c r="C8" s="180"/>
+      <c r="D8" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="181" t="s">
+      <c r="E8" s="180" t="s">
         <v>341</v>
       </c>
-      <c r="F8" s="245" t="n">
+      <c r="F8" s="244" t="n">
         <v>0.05</v>
       </c>
-      <c r="G8" s="243"/>
+      <c r="G8" s="242"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="244"/>
-      <c r="B9" s="181" t="s">
+      <c r="A9" s="243"/>
+      <c r="B9" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181" t="s">
+      <c r="C9" s="180"/>
+      <c r="D9" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="180" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="245" t="n">
+      <c r="F9" s="244" t="n">
         <v>0.05</v>
       </c>
-      <c r="G9" s="243"/>
+      <c r="G9" s="242"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="244"/>
-      <c r="B10" s="181" t="s">
+      <c r="A10" s="243"/>
+      <c r="B10" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181" t="s">
+      <c r="C10" s="180"/>
+      <c r="D10" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="246" t="s">
+      <c r="E10" s="245" t="s">
         <v>343</v>
       </c>
-      <c r="F10" s="245" t="n">
+      <c r="F10" s="244" t="n">
         <v>0.05</v>
       </c>
-      <c r="G10" s="243"/>
+      <c r="G10" s="242"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="244"/>
-      <c r="B11" s="181" t="s">
+      <c r="A11" s="243"/>
+      <c r="B11" s="180" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181" t="s">
+      <c r="C11" s="180"/>
+      <c r="D11" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="E11" s="181" t="s">
+      <c r="E11" s="180" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="245" t="n">
+      <c r="F11" s="244" t="n">
         <v>0.05</v>
       </c>
-      <c r="G11" s="243"/>
+      <c r="G11" s="242"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="246" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181" t="s">
+      <c r="C12" s="180"/>
+      <c r="D12" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="180" t="s">
         <v>344</v>
       </c>
-      <c r="F12" s="245" t="n">
+      <c r="F12" s="244" t="n">
         <v>0.1</v>
       </c>
-      <c r="G12" s="243"/>
+      <c r="G12" s="242"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="247"/>
-      <c r="B13" s="248" t="s">
+      <c r="A13" s="246"/>
+      <c r="B13" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="248"/>
-      <c r="D13" s="248" t="s">
+      <c r="C13" s="247"/>
+      <c r="D13" s="247" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="248" t="s">
+      <c r="E13" s="247" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="249" t="n">
+      <c r="F13" s="248" t="n">
         <v>0.1</v>
       </c>
-      <c r="G13" s="243"/>
+      <c r="G13" s="242"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="250" t="s">
+      <c r="A14" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252" t="s">
+      <c r="C14" s="251"/>
+      <c r="D14" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="253" t="s">
+      <c r="E14" s="252" t="s">
         <v>345</v>
       </c>
-      <c r="F14" s="254" t="n">
+      <c r="F14" s="253" t="n">
         <v>0.1</v>
       </c>
-      <c r="G14" s="255" t="s">
+      <c r="G14" s="254" t="s">
         <v>346</v>
       </c>
       <c r="H14" s="0"/>
@@ -64593,42 +64592,42 @@
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="250"/>
-      <c r="B15" s="256" t="s">
+      <c r="A15" s="249"/>
+      <c r="B15" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="252" t="s">
+      <c r="C15" s="255"/>
+      <c r="D15" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="180" t="s">
         <v>345</v>
       </c>
-      <c r="F15" s="257" t="n">
+      <c r="F15" s="256" t="n">
         <v>0.05</v>
       </c>
-      <c r="G15" s="255"/>
+      <c r="G15" s="254"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="250"/>
-      <c r="B16" s="258" t="s">
+      <c r="A16" s="249"/>
+      <c r="B16" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="258"/>
-      <c r="D16" s="252" t="s">
+      <c r="C16" s="257"/>
+      <c r="D16" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="259" t="s">
+      <c r="E16" s="258" t="s">
         <v>347</v>
       </c>
-      <c r="F16" s="260" t="n">
+      <c r="F16" s="259" t="n">
         <v>0.05</v>
       </c>
-      <c r="G16" s="255"/>
+      <c r="G16" s="254"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -64648,7 +64647,7 @@
       <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="261" t="s">
+      <c r="A18" s="260" t="s">
         <v>348</v>
       </c>
       <c r="B18" s="0"/>
@@ -64663,10 +64662,10 @@
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="262" t="s">
+      <c r="A19" s="261" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="261" t="s">
         <v>349</v>
       </c>
       <c r="C19" s="0"/>
@@ -64680,10 +64679,10 @@
       <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="203" t="n">
+      <c r="B20" s="202" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0"/>
@@ -64697,10 +64696,10 @@
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="203" t="n">
+      <c r="B21" s="202" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="0"/>
@@ -64714,10 +64713,10 @@
       <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="203" t="n">
+      <c r="B22" s="202" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="0"/>
@@ -64731,10 +64730,10 @@
       <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="180" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="203" t="n">
+      <c r="B23" s="202" t="n">
         <v>4</v>
       </c>
       <c r="C23" s="0"/>
@@ -64805,19 +64804,19 @@
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="263" t="n">
+      <c r="D28" s="262" t="n">
         <v>0.2</v>
       </c>
-      <c r="E28" s="263" t="n">
+      <c r="E28" s="262" t="n">
         <v>0.4</v>
       </c>
-      <c r="F28" s="263" t="n">
+      <c r="F28" s="262" t="n">
         <v>0.2</v>
       </c>
-      <c r="G28" s="263" t="n">
+      <c r="G28" s="262" t="n">
         <v>0.2</v>
       </c>
-      <c r="H28" s="264" t="n">
+      <c r="H28" s="263" t="n">
         <v>0.2</v>
       </c>
       <c r="I28" s="0"/>
@@ -64827,107 +64826,107 @@
       <c r="K28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="265" t="s">
+      <c r="A29" s="264" t="s">
         <v>352</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="265" t="s">
+      <c r="C29" s="264" t="s">
         <v>353</v>
       </c>
-      <c r="D29" s="265" t="s">
+      <c r="D29" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="265" t="s">
+      <c r="E29" s="264" t="s">
         <v>318</v>
       </c>
-      <c r="F29" s="265" t="s">
+      <c r="F29" s="264" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="265" t="s">
+      <c r="G29" s="264" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="265" t="s">
+      <c r="H29" s="264" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="265" t="s">
+      <c r="I29" s="264" t="s">
         <v>354</v>
       </c>
-      <c r="J29" s="265" t="s">
+      <c r="J29" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="265" t="s">
+      <c r="K29" s="264" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="180" t="s">
         <v>356</v>
       </c>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="180" t="s">
         <v>357</v>
       </c>
-      <c r="D30" s="266" t="n">
+      <c r="D30" s="265" t="n">
         <v>0.2</v>
       </c>
-      <c r="E30" s="266" t="n">
+      <c r="E30" s="265" t="n">
         <v>0.3</v>
       </c>
-      <c r="F30" s="266" t="n">
+      <c r="F30" s="265" t="n">
         <v>0.1</v>
       </c>
-      <c r="G30" s="266" t="n">
+      <c r="G30" s="265" t="n">
         <v>0.05</v>
       </c>
-      <c r="H30" s="266" t="n">
+      <c r="H30" s="265" t="n">
         <v>0.1</v>
       </c>
-      <c r="I30" s="266" t="n">
+      <c r="I30" s="265" t="n">
         <v>0.75</v>
       </c>
-      <c r="J30" s="266" t="n">
+      <c r="J30" s="265" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="181" t="s">
+      <c r="K30" s="180" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="180" t="s">
         <v>359</v>
       </c>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="181" t="s">
+      <c r="C31" s="180" t="s">
         <v>360</v>
       </c>
-      <c r="D31" s="266" t="n">
+      <c r="D31" s="265" t="n">
         <v>0.2</v>
       </c>
-      <c r="E31" s="266" t="n">
+      <c r="E31" s="265" t="n">
         <v>0.4</v>
       </c>
-      <c r="F31" s="267" t="s">
+      <c r="F31" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="266" t="n">
+      <c r="G31" s="265" t="n">
         <v>0.2</v>
       </c>
-      <c r="H31" s="266" t="n">
+      <c r="H31" s="265" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="266" t="n">
+      <c r="I31" s="265" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="266" t="n">
+      <c r="J31" s="265" t="n">
         <v>0.8</v>
       </c>
-      <c r="K31" s="181" t="s">
+      <c r="K31" s="180" t="s">
         <v>361</v>
       </c>
     </row>
